--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sorbit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t>objectproperties</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Jonas F</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -661,37 +664,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119.33333333333333</c:v>
+                  <c:v>125.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>146.66666666666666</c:v>
+                  <c:v>152.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>174</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>193.75</c:v>
+                  <c:v>199.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213.5</c:v>
+                  <c:v>219.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>233.25</c:v>
+                  <c:v>239.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>253</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>272</c:v>
@@ -844,11 +847,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2029482880"/>
-        <c:axId val="-2029492128"/>
+        <c:axId val="-1033899248"/>
+        <c:axId val="-1033908496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2029482880"/>
+        <c:axId val="-1033899248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,14 +891,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029492128"/>
+        <c:crossAx val="-1033908496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2029492128"/>
+        <c:axId val="-1033908496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="272"/>
@@ -945,7 +948,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029482880"/>
+        <c:crossAx val="-1033899248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1833,7 +1836,7 @@
   <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,7 +1933,7 @@
         <v>33</v>
       </c>
       <c r="G5" s="28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" s="25"/>
     </row>
@@ -1951,7 +1954,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6" s="25"/>
     </row>
@@ -2167,22 +2170,22 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="23">
-        <v>11</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="25"/>
     </row>
@@ -2191,10 +2194,10 @@
         <v>52</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D18" s="23">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E18" s="19">
         <v>1</v>
@@ -2209,19 +2212,19 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D19" s="23">
-        <v>11</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" s="28">
         <v>0</v>
@@ -2230,19 +2233,19 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="23">
-        <v>10</v>
-      </c>
-      <c r="E20" s="19">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20" s="28">
         <v>0</v>
@@ -2254,7 +2257,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="23">
         <v>10</v>
@@ -2272,19 +2275,19 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D22" s="23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22" s="19">
         <v>2</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22" s="28">
         <v>0</v>
@@ -2296,7 +2299,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D23" s="23">
         <v>5</v>
@@ -2317,10 +2320,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D24" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="19">
         <v>2</v>
@@ -2338,10 +2341,10 @@
         <v>11</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="19">
         <v>2</v>
@@ -2358,8 +2361,8 @@
       <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>19</v>
+      <c r="C26" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="D26" s="23">
         <v>4</v>
@@ -2368,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" s="28">
         <v>0</v>
@@ -2380,10 +2383,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="19">
         <v>2</v>
@@ -2401,10 +2404,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28" s="19">
         <v>2</v>
@@ -2421,17 +2424,17 @@
       <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>17</v>
+      <c r="C29" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="D29" s="23">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E29" s="19">
         <v>2</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G29" s="28">
         <v>0</v>
@@ -2440,19 +2443,19 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D30" s="23">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E30" s="19">
         <v>2</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G30" s="28">
         <v>0</v>
@@ -2464,16 +2467,16 @@
         <v>51</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="19">
         <v>2</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G31" s="28">
         <v>0</v>
@@ -2482,19 +2485,19 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D32" s="23">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E32" s="19">
         <v>2</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G32" s="28">
         <v>0</v>
@@ -2503,18 +2506,20 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D33" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" s="19">
-        <v>3</v>
-      </c>
-      <c r="F33" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G33" s="28">
         <v>0</v>
       </c>
@@ -2525,7 +2530,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D34" s="23">
         <v>10</v>
@@ -2541,13 +2546,13 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D35" s="23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35" s="19">
         <v>3</v>
@@ -2563,10 +2568,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D36" s="23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E36" s="19">
         <v>3</v>
@@ -2582,7 +2587,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="23">
         <v>13</v>
@@ -2598,13 +2603,13 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D38" s="23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="19">
         <v>3</v>
@@ -2620,10 +2625,10 @@
         <v>51</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D39" s="23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E39" s="19">
         <v>3</v>
@@ -2759,7 +2764,7 @@
   <dimension ref="B1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,47 +2834,47 @@
       </c>
       <c r="F6" s="32">
         <f>E6+(I6/4)</f>
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="G6" s="32">
         <f>F6+(I6/4)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H6" s="32">
         <f>G6+(I6/4)</f>
-        <v>69</v>
+        <v>73.5</v>
       </c>
       <c r="I6" s="32">
-        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19</f>
-        <v>92</v>
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
+        <v>98</v>
       </c>
       <c r="J6" s="32">
         <f>I6+((L6-I6)/3)</f>
-        <v>119.33333333333333</v>
+        <v>125.33333333333333</v>
       </c>
       <c r="K6" s="32">
         <f>J6+((L6-I6)/3)</f>
-        <v>146.66666666666666</v>
+        <v>152.66666666666666</v>
       </c>
       <c r="L6" s="32">
-        <f>Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+I6</f>
-        <v>174</v>
+        <f>Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
+        <v>180</v>
       </c>
       <c r="M6" s="32">
         <f>L6+((P6-L6)/4)</f>
-        <v>193.75</v>
+        <v>199.75</v>
       </c>
       <c r="N6" s="32">
         <f>M6+((P6-L6)/4)</f>
-        <v>213.5</v>
+        <v>219.5</v>
       </c>
       <c r="O6" s="32">
         <f>N6+((P6-L6)/4)</f>
-        <v>233.25</v>
+        <v>239.25</v>
       </c>
       <c r="P6" s="32">
-        <f>Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D40+Daten!D41+L6</f>
-        <v>253</v>
+        <f>Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
+        <v>259</v>
       </c>
       <c r="Q6" s="32">
         <f>C30</f>
@@ -2942,7 +2947,7 @@
         <v>62</v>
       </c>
       <c r="C30" s="30">
-        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
         <v>272</v>
       </c>
     </row>
@@ -2951,8 +2956,8 @@
         <v>63</v>
       </c>
       <c r="C31">
-        <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D17*(Daten!G17/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>0</v>
+        <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -792,7 +792,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -847,11 +847,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1033899248"/>
-        <c:axId val="-1033908496"/>
+        <c:axId val="-192108976"/>
+        <c:axId val="-192105712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1033899248"/>
+        <c:axId val="-192108976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,14 +891,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1033908496"/>
+        <c:crossAx val="-192105712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1033908496"/>
+        <c:axId val="-192105712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="272"/>
@@ -948,7 +948,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1033899248"/>
+        <c:crossAx val="-192108976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1835,7 +1835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G7" s="32">
         <v>0</v>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t>objectproperties</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Jonas F + Lucas</t>
   </si>
 </sst>
 </file>
@@ -847,11 +850,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-192108976"/>
-        <c:axId val="-192105712"/>
+        <c:axId val="1397569328"/>
+        <c:axId val="1397562800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-192108976"/>
+        <c:axId val="1397569328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,14 +894,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-192105712"/>
+        <c:crossAx val="1397562800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-192105712"/>
+        <c:axId val="1397562800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="272"/>
@@ -948,7 +951,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-192108976"/>
+        <c:crossAx val="1397569328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1835,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G7" s="28">
         <v>0</v>
@@ -2164,7 +2167,7 @@
         <v>33</v>
       </c>
       <c r="G16" s="28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H16" s="25"/>
     </row>
@@ -2763,7 +2766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2957,7 +2960,7 @@
       </c>
       <c r="C31">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>15</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>objectproperties</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>Jonas F</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>Jonas F + Lucas</t>
@@ -450,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -496,6 +493,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -850,11 +850,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1397569328"/>
-        <c:axId val="1397562800"/>
+        <c:axId val="-1255253152"/>
+        <c:axId val="-1255251520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1397569328"/>
+        <c:axId val="-1255253152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,14 +894,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397562800"/>
+        <c:crossAx val="-1255251520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1397562800"/>
+        <c:axId val="-1255251520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="272"/>
@@ -951,7 +951,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397569328"/>
+        <c:crossAx val="-1255253152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1839,7 +1839,7 @@
   <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1938,9 @@
       <c r="G5" s="28">
         <v>100</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25">
+        <v>42544</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -1959,7 +1961,9 @@
       <c r="G6" s="28">
         <v>100</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="25">
+        <v>42544</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -1975,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="28">
         <v>0</v>
@@ -2181,8 +2185,8 @@
       <c r="D17" s="23">
         <v>6</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>71</v>
+      <c r="E17" s="33">
+        <v>1</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>33</v>
@@ -2190,7 +2194,9 @@
       <c r="G17" s="28">
         <v>100</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="25">
+        <v>42544</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas_000\Documents\Studium\PSE - Visualisierung von Programmgraphen\PSEDokumente\implementation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Auswertung" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Daten" sheetId="1" r:id="rId1"/>
+    <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,274 +27,237 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
-    <t xml:space="preserve">Paket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufgabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufwand(h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zugewiesen an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortschritt in %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum der Fertigstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allgemein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entscheidung Namespace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellen der Gradle-Konfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objectproperties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">graphmodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interfaces schreiben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas F + Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default-Klassen implementieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layout-Register schreiben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serialized-Klassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugiyama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph + Impl Interfaces + Vertex/Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas M + Sven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mokups für einzelne Phasen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraints implementieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LayoutAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CycleRemover (Phase 1) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphFactory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParameterDialogCreator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generelle GUI(Incl. Basis-GraphView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LayerAssigner (Phase 2) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CrossMinimizer (Phase 3) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callgraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methodengraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FieldAccess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joana Vertex/Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workspace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoanaGraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphBuilder-Klassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas + Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import und Export anstoßen + Dialoge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas + Jonas F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laden der Plugins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VertexPositioner (Phase 4) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EdgeDrawer (Phase 5) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoanaPlugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CallgraphLayout/Register/Option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MethodengraphLayout/Register/Option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphView(Navigation und Zoom)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workspace-/EntrypointOption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrukturView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InformationView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommandozeilenparameter akzeptieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">export</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soll:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamt Aufwand (h):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aktueller Fortschritt (h):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbeitstage:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorraussichtliches Fertigstellungsdatum:</t>
+    <t>Paket</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Aufwand(h)</t>
+  </si>
+  <si>
+    <t>Woche</t>
+  </si>
+  <si>
+    <t>Zugewiesen an</t>
+  </si>
+  <si>
+    <t>Fortschritt in %</t>
+  </si>
+  <si>
+    <t>Datum der Fertigstellung</t>
+  </si>
+  <si>
+    <t>Allgemein</t>
+  </si>
+  <si>
+    <t>Entscheidung Namespace</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Erstellen der Gradle-Konfiguration</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>objectproperties</t>
+  </si>
+  <si>
+    <t>Implementieren</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>graphmodel</t>
+  </si>
+  <si>
+    <t>Interfaces schreiben</t>
+  </si>
+  <si>
+    <t>Jonas F + Lucas</t>
+  </si>
+  <si>
+    <t>Default-Klassen implementieren</t>
+  </si>
+  <si>
+    <t>Jonas F</t>
+  </si>
+  <si>
+    <t>Layout-Register schreiben</t>
+  </si>
+  <si>
+    <t>Serialized-Klassen</t>
+  </si>
+  <si>
+    <t>sugiyama</t>
+  </si>
+  <si>
+    <t>Graph + Impl Interfaces + Vertex/Edge</t>
+  </si>
+  <si>
+    <t>Jonas M + Sven</t>
+  </si>
+  <si>
+    <t>Mokups für einzelne Phasen</t>
+  </si>
+  <si>
+    <t>Constraints implementieren</t>
+  </si>
+  <si>
+    <t>LayoutAlgorithm</t>
+  </si>
+  <si>
+    <t>CycleRemover (Phase 1) + Interface</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>GraphFactory</t>
+  </si>
+  <si>
+    <t>ParameterDialogCreator</t>
+  </si>
+  <si>
+    <t>plugin</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Generelle GUI(Incl. Basis-GraphView)</t>
+  </si>
+  <si>
+    <t>LayerAssigner (Phase 2) + Interface</t>
+  </si>
+  <si>
+    <t>CrossMinimizer (Phase 3) + Interface</t>
+  </si>
+  <si>
+    <t>joana</t>
+  </si>
+  <si>
+    <t>Callgraph</t>
+  </si>
+  <si>
+    <t>Methodengraph</t>
+  </si>
+  <si>
+    <t>FieldAccess</t>
+  </si>
+  <si>
+    <t>GraphModel</t>
+  </si>
+  <si>
+    <t>Joana Vertex/Edge</t>
+  </si>
+  <si>
+    <t>Workspace</t>
+  </si>
+  <si>
+    <t>JoanaGraph</t>
+  </si>
+  <si>
+    <t>GraphBuilder-Klassen</t>
+  </si>
+  <si>
+    <t>Nicolas + Lucas</t>
+  </si>
+  <si>
+    <t>Import und Export anstoßen + Dialoge</t>
+  </si>
+  <si>
+    <t>Nicolas + Jonas F</t>
+  </si>
+  <si>
+    <t>Laden der Plugins</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>VertexPositioner (Phase 4) + Interface</t>
+  </si>
+  <si>
+    <t>EdgeDrawer (Phase 5) + Interface</t>
+  </si>
+  <si>
+    <t>JoanaPlugin</t>
+  </si>
+  <si>
+    <t>CallgraphLayout/Register/Option</t>
+  </si>
+  <si>
+    <t>MethodengraphLayout/Register/Option</t>
+  </si>
+  <si>
+    <t>GraphView(Navigation und Zoom)</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Workspace-/EntrypointOption</t>
+  </si>
+  <si>
+    <t>StrukturView</t>
+  </si>
+  <si>
+    <t>InformationView</t>
+  </si>
+  <si>
+    <t>Kommandozeilenparameter akzeptieren</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>Datum:</t>
+  </si>
+  <si>
+    <t>Soll:</t>
+  </si>
+  <si>
+    <t>Ist:</t>
+  </si>
+  <si>
+    <t>Gesamt Aufwand (h):</t>
+  </si>
+  <si>
+    <t>Aktueller Fortschritt (h):</t>
+  </si>
+  <si>
+    <t>Arbeitstage:</t>
+  </si>
+  <si>
+    <t>Vorraussichtliches Fertigstellungsdatum:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY;@"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,267 +269,236 @@
     </fill>
   </fills>
   <borders count="15">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -621,15 +557,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -638,26 +592,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="-1" strike="noStrike">
+              <a:defRPr sz="1600" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
-                  <a:srgbClr val="44546a"/>
+                  <a:srgbClr val="44546A"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
+              <a:rPr sz="1600" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
-                  <a:srgbClr val="44546a"/>
+                  <a:srgbClr val="44546A"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -671,29 +625,20 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Soll"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Soll</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Soll</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="31680">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -702,72 +647,86 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6/21/2016</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/23/2016</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/25/2016</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6/27/2016</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6/29/2016</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7/1/2016</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7/3/2016</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7/5/2016</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7/7/2016</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7/9/2016</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7/11/2016</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7/13/2016</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7/15/2016</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7/17/2016</c:v>
+                  <c:v>42568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7/19/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -785,10 +744,10 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125.333333333333</c:v>
+                  <c:v>125.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.666666666667</c:v>
+                  <c:v>152.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>180</c:v>
@@ -818,28 +777,22 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C33-4E17-A33D-29301D3AC119}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Ist"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ist</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Ist</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="31680">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -848,72 +801,86 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6/21/2016</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/23/2016</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/25/2016</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6/27/2016</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6/29/2016</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7/1/2016</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7/3/2016</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7/5/2016</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7/7/2016</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7/9/2016</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7/11/2016</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7/13/2016</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7/15/2016</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7/17/2016</c:v>
+                  <c:v>42568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7/19/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -964,7 +931,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C33-4E17-A33D-29301D3AC119}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -972,53 +952,55 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="57978614"/>
         <c:axId val="48233681"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="57978614"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="e0e5eb"/>
+              <a:srgbClr val="E0E5EB"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
-                  <a:srgbClr val="44546a"/>
+                  <a:srgbClr val="44546A"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="48233681"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="48233681"/>
         <c:scaling>
@@ -1032,7 +1014,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="e0e5eb"/>
+                <a:srgbClr val="E0E5EB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1049,20 +1031,22 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
-                  <a:srgbClr val="44546a"/>
+                  <a:srgbClr val="44546A"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57978614"/>
@@ -1089,23 +1073,29 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="e0e5eb"/>
+        <a:srgbClr val="E0E5EB"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1119,14 +1109,14 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm 5"/>
+        <xdr:cNvPr id="2" name="Diagramm 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5991120" y="1528560"/>
-        <a:ext cx="11495880" cy="5519160"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1139,31 +1129,289 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6032388663968"/>
+    <col min="1" max="1" width="10.5546875"/>
+    <col min="2" max="2" width="17.6640625"/>
+    <col min="3" max="3" width="37.5546875"/>
+    <col min="4" max="4" width="11.5546875"/>
+    <col min="5" max="5" width="7.33203125"/>
+    <col min="6" max="6" width="18.77734375"/>
+    <col min="7" max="7" width="20.21875"/>
+    <col min="8" max="9" width="23.5546875"/>
+    <col min="10" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,35 +1435,35 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="11">
         <v>0</v>
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="13">
         <v>6</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -1224,340 +1472,340 @@
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="11">
         <v>75</v>
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="14">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>100</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="12">
         <v>42544</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="16">
         <v>5</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="14">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="11">
         <v>100</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="12">
         <v>42544</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="14">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="11">
         <v>0</v>
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="16">
         <v>8</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="14">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="n">
-        <v>0</v>
+      <c r="G8" s="11">
+        <v>25</v>
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="16">
         <v>4</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="14">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="11">
         <v>0</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="16">
         <v>2</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="14">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="11">
         <v>0</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="16">
         <v>9</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="14">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="11">
         <v>0</v>
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="16">
         <v>8</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="11">
         <v>0</v>
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="16">
         <v>4</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="11">
         <v>0</v>
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="16">
         <v>2</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="14">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="11">
         <v>0</v>
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="16">
         <v>7</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="11">
         <v>0</v>
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="16">
         <v>5</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="11">
         <v>50</v>
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="16">
         <v>6</v>
       </c>
-      <c r="E17" s="17" t="n">
+      <c r="E17" s="17">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="11">
         <v>100</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="12">
         <v>42544</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="16">
         <v>11</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="11">
         <v>0</v>
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="16">
         <v>3</v>
       </c>
-      <c r="E19" s="14" t="n">
+      <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="11">
         <v>0</v>
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="16" t="n">
+      <c r="D20" s="16">
         <v>11</v>
       </c>
       <c r="E20" s="14" t="s">
@@ -1566,755 +1814,742 @@
       <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="11">
         <v>0</v>
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="16">
         <v>10</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="14">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="11">
         <v>0</v>
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="16" t="n">
+      <c r="D22" s="16">
         <v>10</v>
       </c>
-      <c r="E22" s="14" t="n">
+      <c r="E22" s="14">
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="11">
         <v>0</v>
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="16">
         <v>5</v>
       </c>
-      <c r="E23" s="14" t="n">
+      <c r="E23" s="14">
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="11">
         <v>0</v>
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="16" t="n">
+      <c r="D24" s="16">
         <v>5</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="14">
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="11">
         <v>0</v>
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="16" t="n">
+      <c r="D25" s="16">
         <v>3</v>
       </c>
-      <c r="E25" s="14" t="n">
+      <c r="E25" s="14">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="11">
         <v>0</v>
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="16" t="n">
+      <c r="D26" s="16">
         <v>4</v>
       </c>
-      <c r="E26" s="14" t="n">
+      <c r="E26" s="14">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="11">
         <v>0</v>
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="16" t="n">
+      <c r="D27" s="16">
         <v>4</v>
       </c>
-      <c r="E27" s="14" t="n">
+      <c r="E27" s="14">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="11">
         <v>0</v>
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="16" t="n">
+      <c r="D28" s="16">
         <v>5</v>
       </c>
-      <c r="E28" s="14" t="n">
+      <c r="E28" s="14">
         <v>2</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="11" t="n">
+      <c r="G28" s="11">
         <v>0</v>
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="16" t="n">
+      <c r="D29" s="16">
         <v>2</v>
       </c>
-      <c r="E29" s="14" t="n">
+      <c r="E29" s="14">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="11">
         <v>0</v>
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="16" t="n">
+      <c r="D30" s="16">
         <v>12</v>
       </c>
-      <c r="E30" s="14" t="n">
+      <c r="E30" s="14">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="11" t="n">
+      <c r="G30" s="11">
         <v>0</v>
       </c>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="16" t="n">
+      <c r="D31" s="16">
         <v>5</v>
       </c>
-      <c r="E31" s="14" t="n">
+      <c r="E31" s="14">
         <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="11">
         <v>0</v>
       </c>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="16" t="n">
+      <c r="D32" s="16">
         <v>6</v>
       </c>
-      <c r="E32" s="14" t="n">
+      <c r="E32" s="14">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="11">
         <v>0</v>
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="16" t="n">
+      <c r="D33" s="16">
         <v>11</v>
       </c>
-      <c r="E33" s="14" t="n">
+      <c r="E33" s="14">
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="11">
         <v>0</v>
       </c>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="16" t="n">
+      <c r="D34" s="16">
         <v>10</v>
       </c>
-      <c r="E34" s="14" t="n">
+      <c r="E34" s="14">
         <v>3</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="11" t="n">
+      <c r="G34" s="11">
         <v>0</v>
       </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="16">
         <v>10</v>
       </c>
-      <c r="E35" s="14" t="n">
+      <c r="E35" s="14">
         <v>3</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="11">
         <v>0</v>
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="16" t="n">
+      <c r="D36" s="16">
         <v>6</v>
       </c>
-      <c r="E36" s="14" t="n">
+      <c r="E36" s="14">
         <v>3</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="11">
         <v>0</v>
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="16" t="n">
+      <c r="D37" s="16">
         <v>13</v>
       </c>
-      <c r="E37" s="14" t="n">
+      <c r="E37" s="14">
         <v>3</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="11" t="n">
+      <c r="G37" s="11">
         <v>0</v>
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="16" t="n">
+      <c r="D38" s="16">
         <v>13</v>
       </c>
-      <c r="E38" s="14" t="n">
+      <c r="E38" s="14">
         <v>3</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="11" t="n">
+      <c r="G38" s="11">
         <v>0</v>
       </c>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="16" t="n">
+      <c r="D39" s="16">
         <v>10</v>
       </c>
-      <c r="E39" s="14" t="n">
+      <c r="E39" s="14">
         <v>3</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="11" t="n">
+      <c r="G39" s="11">
         <v>0</v>
       </c>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="16" t="n">
+      <c r="D40" s="16">
         <v>7</v>
       </c>
-      <c r="E40" s="14" t="n">
+      <c r="E40" s="14">
         <v>3</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="11" t="n">
+      <c r="G40" s="11">
         <v>0</v>
       </c>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="16" t="n">
+      <c r="D41" s="16">
         <v>4</v>
       </c>
-      <c r="E41" s="14" t="n">
+      <c r="E41" s="14">
         <v>3</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="11" t="n">
+      <c r="G41" s="11">
         <v>0</v>
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="16" t="n">
+      <c r="D42" s="16">
         <v>4</v>
       </c>
-      <c r="E42" s="14" t="n">
+      <c r="E42" s="14">
         <v>4</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="11" t="n">
+      <c r="G42" s="11">
         <v>0</v>
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="16" t="n">
+      <c r="D43" s="16">
         <v>4</v>
       </c>
-      <c r="E43" s="14" t="n">
+      <c r="E43" s="14">
         <v>4</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="11" t="n">
+      <c r="G43" s="11">
         <v>0</v>
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="16" t="n">
+      <c r="D44" s="16">
         <v>4</v>
       </c>
-      <c r="E44" s="14" t="n">
+      <c r="E44" s="14">
         <v>4</v>
       </c>
       <c r="F44" s="18"/>
-      <c r="G44" s="11" t="n">
+      <c r="G44" s="11">
         <v>0</v>
       </c>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="21" t="n">
+      <c r="D45" s="21">
         <v>7</v>
       </c>
-      <c r="E45" s="22" t="n">
+      <c r="E45" s="22">
         <v>4</v>
       </c>
       <c r="F45" s="23"/>
-      <c r="G45" s="24" t="n">
+      <c r="G45" s="24">
         <v>0</v>
       </c>
       <c r="H45" s="25"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
+    <col min="1" max="1" width="10.5546875"/>
+    <col min="2" max="2" width="37.5546875"/>
+    <col min="3" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
       <c r="G1" s="26"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="s">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="26" t="n">
+      <c r="E5" s="26">
         <v>42542</v>
       </c>
-      <c r="F5" s="26" t="n">
+      <c r="F5" s="26">
         <v>42544</v>
       </c>
-      <c r="G5" s="26" t="n">
+      <c r="G5" s="26">
         <v>42546</v>
       </c>
-      <c r="H5" s="26" t="n">
+      <c r="H5" s="26">
         <v>42548</v>
       </c>
-      <c r="I5" s="26" t="n">
+      <c r="I5" s="26">
         <v>42550</v>
       </c>
-      <c r="J5" s="26" t="n">
+      <c r="J5" s="26">
         <v>42552</v>
       </c>
-      <c r="K5" s="26" t="n">
+      <c r="K5" s="26">
         <v>42554</v>
       </c>
-      <c r="L5" s="26" t="n">
+      <c r="L5" s="26">
         <v>42556</v>
       </c>
-      <c r="M5" s="26" t="n">
+      <c r="M5" s="26">
         <v>42558</v>
       </c>
-      <c r="N5" s="26" t="n">
+      <c r="N5" s="26">
         <v>42560</v>
       </c>
-      <c r="O5" s="26" t="n">
+      <c r="O5" s="26">
         <v>42562</v>
       </c>
-      <c r="P5" s="26" t="n">
+      <c r="P5" s="26">
         <v>42564</v>
       </c>
-      <c r="Q5" s="26" t="n">
+      <c r="Q5" s="26">
         <v>42566</v>
       </c>
-      <c r="R5" s="26" t="n">
+      <c r="R5" s="26">
         <v>42568</v>
       </c>
-      <c r="S5" s="26" t="n">
+      <c r="S5" s="26">
         <v>42570</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="27" t="n">
-        <f aca="false">E6+(I6/4)</f>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <f>E6+(I6/4)</f>
         <v>24.5</v>
       </c>
-      <c r="G6" s="27" t="n">
-        <f aca="false">F6+(I6/4)</f>
+      <c r="G6" s="27">
+        <f>F6+(I6/4)</f>
         <v>49</v>
       </c>
-      <c r="H6" s="27" t="n">
-        <f aca="false">G6+(I6/4)</f>
+      <c r="H6" s="27">
+        <f>G6+(I6/4)</f>
         <v>73.5</v>
       </c>
-      <c r="I6" s="27" t="n">
-        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
+      <c r="I6" s="27">
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
         <v>98</v>
       </c>
-      <c r="J6" s="27" t="n">
-        <f aca="false">I6+((L6-I6)/3)</f>
-        <v>125.333333333333</v>
-      </c>
-      <c r="K6" s="27" t="n">
-        <f aca="false">J6+((L6-I6)/3)</f>
-        <v>152.666666666667</v>
-      </c>
-      <c r="L6" s="27" t="n">
-        <f aca="false">Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
+      <c r="J6" s="27">
+        <f>I6+((L6-I6)/3)</f>
+        <v>125.33333333333333</v>
+      </c>
+      <c r="K6" s="27">
+        <f>J6+((L6-I6)/3)</f>
+        <v>152.66666666666666</v>
+      </c>
+      <c r="L6" s="27">
+        <f>Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
         <v>180</v>
       </c>
-      <c r="M6" s="27" t="n">
-        <f aca="false">L6+((P6-L6)/4)</f>
+      <c r="M6" s="27">
+        <f>L6+((P6-L6)/4)</f>
         <v>199.75</v>
       </c>
-      <c r="N6" s="27" t="n">
-        <f aca="false">M6+((P6-L6)/4)</f>
+      <c r="N6" s="27">
+        <f>M6+((P6-L6)/4)</f>
         <v>219.5</v>
       </c>
-      <c r="O6" s="27" t="n">
-        <f aca="false">N6+((P6-L6)/4)</f>
+      <c r="O6" s="27">
+        <f>N6+((P6-L6)/4)</f>
         <v>239.25</v>
       </c>
-      <c r="P6" s="27" t="n">
-        <f aca="false">Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
+      <c r="P6" s="27">
+        <f>Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
         <v>259</v>
       </c>
-      <c r="Q6" s="27" t="n">
-        <f aca="false">C30</f>
+      <c r="Q6" s="27">
+        <f>C30</f>
         <v>272</v>
       </c>
-      <c r="R6" s="27" t="n">
-        <f aca="false">C30</f>
+      <c r="R6" s="27">
+        <f>C30</f>
         <v>272</v>
       </c>
-      <c r="S6" s="27" t="n">
-        <f aca="false">C30</f>
+      <c r="S6" s="27">
+        <f>C30</f>
         <v>272</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="27" t="n">
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
         <v>15</v>
       </c>
-      <c r="G7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <v>0</v>
+      </c>
+      <c r="L7" s="27">
+        <v>0</v>
+      </c>
+      <c r="M7" s="27">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <v>0</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
+        <v>0</v>
+      </c>
+      <c r="S7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D8" s="28"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="29" t="n">
-        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
+      <c r="C30" s="29">
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
         <v>272</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <f aca="false">Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="C31">
+        <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="29" t="n">
-        <f aca="false">C30/((5*16)/7)</f>
+      <c r="C32" s="29">
+        <f>C30/((5*16)/7)</f>
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="26" t="n">
-        <f aca="false">E5+C32</f>
+      <c r="C33" s="26">
+        <f>E5+C32</f>
         <v>42565.8</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas_000\Documents\Studium\PSE - Visualisierung von Programmgraphen\PSEDokumente\implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -605,7 +605,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1600" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="de-DE" sz="1600" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="44546A"/>
                 </a:solidFill>
@@ -621,6 +621,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -662,7 +663,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -777,7 +778,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5C33-4E17-A33D-29301D3AC119}"/>
             </c:ext>
@@ -816,7 +817,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -889,7 +890,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -931,7 +932,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5C33-4E17-A33D-29301D3AC119}"/>
             </c:ext>
@@ -953,11 +954,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="57978614"/>
-        <c:axId val="48233681"/>
+        <c:axId val="-333809952"/>
+        <c:axId val="-333817024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57978614"/>
+        <c:axId val="-333809952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,17 +993,17 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48233681"/>
+        <c:crossAx val="-333817024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="48233681"/>
+        <c:axId val="-333817024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="272"/>
@@ -1046,10 +1047,10 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57978614"/>
+        <c:crossAx val="-333809952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1063,6 +1064,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1105,7 +1107,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>942120</xdr:colOff>
+      <xdr:colOff>703995</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
@@ -1394,24 +1396,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875"/>
-    <col min="2" max="2" width="17.6640625"/>
-    <col min="3" max="3" width="37.5546875"/>
-    <col min="4" max="4" width="11.5546875"/>
-    <col min="5" max="5" width="7.33203125"/>
-    <col min="6" max="6" width="18.77734375"/>
-    <col min="7" max="7" width="20.21875"/>
-    <col min="8" max="9" width="23.5546875"/>
-    <col min="10" max="1025" width="10.5546875"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="17.7109375"/>
+    <col min="3" max="3" width="37.5703125"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="7.28515625"/>
+    <col min="6" max="6" width="18.7109375"/>
+    <col min="7" max="7" width="20.28515625"/>
+    <col min="8" max="9" width="23.5703125"/>
+    <col min="10" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1437,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1456,7 +1458,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1479,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1500,7 +1502,7 @@
         <v>42544</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>42544</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1544,7 +1546,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1565,7 +1567,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1586,7 +1588,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1607,7 +1609,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1628,7 +1630,7 @@
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
@@ -1649,7 +1651,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -1670,7 +1672,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1691,7 +1693,7 @@
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1714,7 @@
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1733,7 +1735,7 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
@@ -1756,7 +1758,7 @@
         <v>42544</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1777,7 +1779,7 @@
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
@@ -1798,7 +1800,7 @@
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
@@ -1819,7 +1821,7 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
@@ -1840,7 +1842,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
@@ -1861,7 +1863,7 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
@@ -1882,7 +1884,7 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>39</v>
       </c>
@@ -1903,7 +1905,7 @@
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
@@ -1924,7 +1926,7 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>39</v>
       </c>
@@ -1945,7 +1947,7 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>39</v>
       </c>
@@ -1966,7 +1968,7 @@
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
@@ -1987,7 +1989,7 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
@@ -2008,7 +2010,7 @@
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>39</v>
       </c>
@@ -2029,7 +2031,7 @@
       </c>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
@@ -2050,7 +2052,7 @@
       </c>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
@@ -2071,7 +2073,7 @@
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>52</v>
       </c>
@@ -2092,7 +2094,7 @@
       </c>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>24</v>
       </c>
@@ -2111,7 +2113,7 @@
       </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>24</v>
       </c>
@@ -2130,7 +2132,7 @@
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>39</v>
       </c>
@@ -2149,7 +2151,7 @@
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>39</v>
       </c>
@@ -2168,7 +2170,7 @@
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
@@ -2187,7 +2189,7 @@
       </c>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>31</v>
       </c>
@@ -2206,7 +2208,7 @@
       </c>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>34</v>
       </c>
@@ -2225,7 +2227,7 @@
       </c>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>34</v>
       </c>
@@ -2244,7 +2246,7 @@
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>31</v>
       </c>
@@ -2263,7 +2265,7 @@
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>31</v>
       </c>
@@ -2282,7 +2284,7 @@
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>31</v>
       </c>
@@ -2301,7 +2303,7 @@
       </c>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>64</v>
       </c>
@@ -2330,21 +2332,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875"/>
-    <col min="2" max="2" width="37.5546875"/>
-    <col min="3" max="1025" width="10.5546875"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="37.5703125"/>
+    <col min="3" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G1" s="26"/>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>65</v>
       </c>
@@ -2394,7 +2396,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>66</v>
       </c>
@@ -2458,7 +2460,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>67</v>
       </c>
@@ -2469,7 +2471,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="27">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H7" s="27">
         <v>0</v>
@@ -2508,10 +2510,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D8" s="28"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>68</v>
       </c>
@@ -2520,7 +2522,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>69</v>
       </c>
@@ -2529,7 +2531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>70</v>
       </c>
@@ -2538,7 +2540,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>71</v>
       </c>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas_000\Documents\Studium\PSE - Visualisierung von Programmgraphen\PSEDokumente\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -663,7 +663,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -778,7 +778,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5C33-4E17-A33D-29301D3AC119}"/>
             </c:ext>
@@ -817,7 +817,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -932,7 +932,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5C33-4E17-A33D-29301D3AC119}"/>
             </c:ext>
@@ -993,7 +993,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-333817024"/>
@@ -1047,7 +1047,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-333809952"/>
@@ -1396,24 +1396,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="17.7109375"/>
-    <col min="3" max="3" width="37.5703125"/>
-    <col min="4" max="4" width="11.5703125"/>
-    <col min="5" max="5" width="7.28515625"/>
-    <col min="6" max="6" width="18.7109375"/>
-    <col min="7" max="7" width="20.28515625"/>
-    <col min="8" max="9" width="23.5703125"/>
-    <col min="10" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="10.5546875"/>
+    <col min="2" max="2" width="17.6640625"/>
+    <col min="3" max="3" width="37.5546875"/>
+    <col min="4" max="4" width="11.5546875"/>
+    <col min="5" max="5" width="7.33203125"/>
+    <col min="6" max="6" width="18.6640625"/>
+    <col min="7" max="7" width="20.33203125"/>
+    <col min="8" max="9" width="23.5546875"/>
+    <col min="10" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>42544</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>42544</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1542,11 +1542,11 @@
         <v>19</v>
       </c>
       <c r="G7" s="11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1563,11 +1563,11 @@
         <v>21</v>
       </c>
       <c r="G8" s="11">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1584,11 +1584,11 @@
         <v>21</v>
       </c>
       <c r="G9" s="11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>42544</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>39</v>
       </c>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>39</v>
       </c>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>39</v>
       </c>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>39</v>
       </c>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>52</v>
       </c>
@@ -2090,11 +2090,11 @@
         <v>21</v>
       </c>
       <c r="G33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>24</v>
       </c>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>24</v>
       </c>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>39</v>
       </c>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>39</v>
       </c>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>31</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>34</v>
       </c>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>34</v>
       </c>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>31</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>31</v>
       </c>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>31</v>
       </c>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
         <v>64</v>
       </c>
@@ -2332,21 +2332,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="37.5703125"/>
-    <col min="3" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="10.5546875"/>
+    <col min="2" max="2" width="37.5546875"/>
+    <col min="3" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
       <c r="G1" s="26"/>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>65</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>66</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>67</v>
       </c>
@@ -2510,10 +2510,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D8" s="28"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>68</v>
       </c>
@@ -2522,16 +2522,16 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>69</v>
       </c>
       <c r="C31">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>70</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>71</v>
       </c>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -5,255 +5,259 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="980" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Auswertung" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
   <si>
-    <t>Paket</t>
-  </si>
-  <si>
-    <t>Aufgabe</t>
-  </si>
-  <si>
-    <t>Aufwand(h)</t>
-  </si>
-  <si>
-    <t>Woche</t>
-  </si>
-  <si>
-    <t>Zugewiesen an</t>
-  </si>
-  <si>
-    <t>Fortschritt in %</t>
-  </si>
-  <si>
-    <t>Datum der Fertigstellung</t>
-  </si>
-  <si>
-    <t>Half</t>
-  </si>
-  <si>
-    <t>Allgemein</t>
-  </si>
-  <si>
-    <t>Entscheidung Namespace</t>
-  </si>
-  <si>
-    <t>Alle</t>
-  </si>
-  <si>
-    <t>Erstellen der Gradle-Konfiguration</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>objectproperties</t>
-  </si>
-  <si>
-    <t>Implementieren</t>
-  </si>
-  <si>
-    <t>Nicolas</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>graphmodel</t>
-  </si>
-  <si>
-    <t>Interfaces schreiben</t>
-  </si>
-  <si>
-    <t>Jonas F + Lucas</t>
-  </si>
-  <si>
-    <t>Default-Klassen implementieren</t>
-  </si>
-  <si>
-    <t>Jonas F</t>
-  </si>
-  <si>
-    <t>Sven</t>
-  </si>
-  <si>
-    <t>Layout-Register schreiben</t>
-  </si>
-  <si>
-    <t>Serialized-Klassen</t>
-  </si>
-  <si>
-    <t>sugiyama</t>
-  </si>
-  <si>
-    <t>Graph + Impl Interfaces + Vertex/Edge</t>
-  </si>
-  <si>
-    <t>Jonas M + Sven</t>
-  </si>
-  <si>
-    <t>Mokups für einzelne Phasen</t>
-  </si>
-  <si>
-    <t>Constraints implementieren</t>
-  </si>
-  <si>
-    <t>LayoutAlgorithm</t>
-  </si>
-  <si>
-    <t>CycleRemover (Phase 1) + Interface</t>
-  </si>
-  <si>
-    <t>gui</t>
-  </si>
-  <si>
-    <t>GraphFactory</t>
-  </si>
-  <si>
-    <t>ParameterDialogCreator</t>
-  </si>
-  <si>
-    <t>plugin</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Generelle GUI(Incl. Basis-GraphView)</t>
-  </si>
-  <si>
-    <t>LayerAssigner (Phase 2) + Interface</t>
-  </si>
-  <si>
-    <t>CrossMinimizer (Phase 3) + Interface</t>
-  </si>
-  <si>
-    <t>joana</t>
-  </si>
-  <si>
-    <t>Callgraph</t>
-  </si>
-  <si>
-    <t>Methodengraph</t>
-  </si>
-  <si>
-    <t>FieldAccess</t>
-  </si>
-  <si>
-    <t>GraphModel</t>
-  </si>
-  <si>
-    <t>Joana Vertex/Edge</t>
-  </si>
-  <si>
-    <t>Workspace</t>
-  </si>
-  <si>
-    <t>JoanaGraph</t>
-  </si>
-  <si>
-    <t>GraphBuilder-Klassen</t>
-  </si>
-  <si>
-    <t>Nicolas + Lucas</t>
-  </si>
-  <si>
-    <t>Import und Export anstoßen + Dialoge</t>
-  </si>
-  <si>
-    <t>Nicolas + Jonas F</t>
-  </si>
-  <si>
-    <t>Laden der Plugins</t>
-  </si>
-  <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>VertexPositioner (Phase 4) + Interface</t>
-  </si>
-  <si>
-    <t>EdgeDrawer (Phase 5) + Interface</t>
-  </si>
-  <si>
-    <t>JoanaPlugin</t>
-  </si>
-  <si>
-    <t>CallgraphLayout/Register/Option</t>
-  </si>
-  <si>
-    <t>MethodengraphLayout/Register/Option</t>
-  </si>
-  <si>
-    <t>GraphView(Navigation und Zoom)</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Workspace-/EntrypointOption</t>
-  </si>
-  <si>
-    <t>StrukturView</t>
-  </si>
-  <si>
-    <t>InformationView</t>
-  </si>
-  <si>
-    <t>Kommandozeilenparameter akzeptieren</t>
-  </si>
-  <si>
-    <t>export</t>
-  </si>
-  <si>
-    <t>Datum:</t>
-  </si>
-  <si>
-    <t>Soll:</t>
-  </si>
-  <si>
-    <t>Ist:</t>
-  </si>
-  <si>
-    <t>Gesamt Aufwand (h):</t>
-  </si>
-  <si>
-    <t>Aktueller Fortschritt (h):</t>
-  </si>
-  <si>
-    <t>Arbeitstage:</t>
-  </si>
-  <si>
-    <t>Vorraussichtliches Fertigstellungsdatum:</t>
+    <t xml:space="preserve">Paket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufgabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufwand(h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zugewiesen an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortschritt in %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum der Fertigstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allgemein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entscheidung Namespace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellen der Gradle-Konfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objectproperties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphmodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfaces schreiben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas F + Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default-Klassen implementieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout-Register schreiben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serialized-Klassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugiyama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph + Impl Interfaces + Vertex/Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas M + Sven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mokups für einzelne Phasen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraints implementieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LayoutAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CycleRemover (Phase 1) + Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GraphFactory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParameterDialogCreator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generelle GUI(Incl. Basis-GraphView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LayerAssigner (Phase 2) + Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CrossMinimizer (Phase 3) + Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callgraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methodengraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldAccess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GraphModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joana Vertex/Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JoanaGraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GraphBuilder-Klassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas + Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import und Export anstoßen + Dialoge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas + Jonas F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laden der Plugins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VertexPositioner (Phase 4) + Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EdgeDrawer (Phase 5) + Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JoanaPlugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CallgraphLayout/Register/Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MethodengraphLayout/Register/Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GraphView(Navigation und Zoom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workspace-/EntrypointOption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StrukturView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InformationView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommandozeilenparameter akzeptieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soll:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt Aufwand (h):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktueller Fortschritt (h):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbeitstage:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorraussichtliches Fertigstellungsdatum:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="0" numFmtId="166"/>
-    <numFmt formatCode="DD/MM/YY;@" numFmtId="167"/>
-    <numFmt formatCode="M/D/YYYY" numFmtId="168"/>
-    <numFmt formatCode="0%" numFmtId="169"/>
-    <numFmt formatCode="GENERAL" numFmtId="170"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY;@"/>
+    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -277,16 +281,8 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -299,119 +295,119 @@
     </fill>
   </fills>
   <borders count="17">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="medium"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top/>
@@ -420,167 +416,167 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="14" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="15" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="16" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -630,7 +626,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FF44546A"/>
+      <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -646,34 +642,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1600">
-                <a:solidFill>
-                  <a:srgbClr val="44546a"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Fortschritt</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
-      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -713,7 +686,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -723,7 +695,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -733,7 +704,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -743,7 +713,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -753,7 +722,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -763,7 +731,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -773,7 +740,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -783,7 +749,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -793,7 +758,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -803,7 +767,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
@@ -813,7 +776,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -823,7 +785,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
@@ -833,7 +794,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
@@ -843,7 +803,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
@@ -853,8 +812,14 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -862,49 +827,49 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.21.2016</c:v>
+                  <c:v>6/21/2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.23.2016</c:v>
+                  <c:v>6/23/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25.2016</c:v>
+                  <c:v>6/25/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.27.2016</c:v>
+                  <c:v>6/27/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29.2016</c:v>
+                  <c:v>6/29/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1.2016</c:v>
+                  <c:v>7/1/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3.2016</c:v>
+                  <c:v>7/3/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5.2016</c:v>
+                  <c:v>7/5/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7.2016</c:v>
+                  <c:v>7/7/2016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9.2016</c:v>
+                  <c:v>7/9/2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.11.2016</c:v>
+                  <c:v>7/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.13.2016</c:v>
+                  <c:v>7/13/2016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.15.2016</c:v>
+                  <c:v>7/15/2016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.17.2016</c:v>
+                  <c:v>7/17/2016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.19.2016</c:v>
+                  <c:v>7/19/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -963,6 +928,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1001,7 +967,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1011,7 +976,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1021,7 +985,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -1031,7 +994,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -1041,7 +1003,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -1051,7 +1012,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -1061,7 +1021,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -1071,7 +1030,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -1081,7 +1039,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -1091,7 +1048,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
@@ -1101,7 +1057,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -1111,7 +1066,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
@@ -1121,7 +1075,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
@@ -1131,7 +1084,6 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
@@ -1141,8 +1093,14 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1150,49 +1108,49 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.21.2016</c:v>
+                  <c:v>6/21/2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.23.2016</c:v>
+                  <c:v>6/23/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25.2016</c:v>
+                  <c:v>6/25/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.27.2016</c:v>
+                  <c:v>6/27/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29.2016</c:v>
+                  <c:v>6/29/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1.2016</c:v>
+                  <c:v>7/1/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3.2016</c:v>
+                  <c:v>7/3/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5.2016</c:v>
+                  <c:v>7/5/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7.2016</c:v>
+                  <c:v>7/7/2016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9.2016</c:v>
+                  <c:v>7/9/2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.11.2016</c:v>
+                  <c:v>7/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.13.2016</c:v>
+                  <c:v>7/13/2016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.15.2016</c:v>
+                  <c:v>7/15/2016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.17.2016</c:v>
+                  <c:v>7/17/2016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.19.2016</c:v>
+                  <c:v>7/19/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1251,18 +1209,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="24380"/>
-        <c:axId val="18335"/>
+        <c:axId val="49882134"/>
+        <c:axId val="62609388"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24380"/>
+        <c:axId val="49882134"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1274,19 +1241,38 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18335"/>
-        <c:crossesAt val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62609388"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18335"/>
+        <c:axId val="62609388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1298,8 +1284,27 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="24380"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49882134"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1319,6 +1324,7 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1335,7 +1341,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1345,9 +1351,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>730800</xdr:colOff>
+      <xdr:colOff>730440</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1355,8 +1361,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4928400" y="1458720"/>
-        <a:ext cx="8880120" cy="5305320"/>
+        <a:off x="6235200" y="1458720"/>
+        <a:ext cx="11059200" cy="5304960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1376,24 +1382,24 @@
   </sheetPr>
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G11" activeCellId="0" pane="topLeft" sqref="G11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.33673469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3316326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1441,7 +1447,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1468,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>42544</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>42544</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1529,7 +1535,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +1580,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1619,7 +1625,7 @@
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1640,7 +1646,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
@@ -1661,7 +1667,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1682,7 +1688,7 @@
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1703,7 +1709,7 @@
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
@@ -1724,7 +1730,7 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>42544</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1764,11 +1770,11 @@
         <v>13</v>
       </c>
       <c r="G18" s="11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
@@ -1789,7 +1795,7 @@
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
@@ -1810,7 +1816,7 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1831,7 +1837,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1852,7 +1858,7 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
@@ -1873,7 +1879,7 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
@@ -1894,7 +1900,7 @@
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
@@ -1915,7 +1921,7 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
@@ -1936,7 +1942,7 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
@@ -1957,7 +1963,7 @@
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
@@ -1978,7 +1984,7 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
@@ -1999,7 +2005,7 @@
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
@@ -2020,7 +2026,7 @@
       </c>
       <c r="H30" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
@@ -2041,7 +2047,7 @@
       </c>
       <c r="H31" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
@@ -2062,7 +2068,7 @@
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="7" t="s">
         <v>54</v>
       </c>
@@ -2083,7 +2089,7 @@
       </c>
       <c r="H33" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
@@ -2102,7 +2108,7 @@
       </c>
       <c r="H34" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
@@ -2121,7 +2127,7 @@
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
@@ -2140,7 +2146,7 @@
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
@@ -2159,7 +2165,7 @@
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
@@ -2178,7 +2184,7 @@
       </c>
       <c r="H38" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
@@ -2197,7 +2203,7 @@
       </c>
       <c r="H39" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
@@ -2216,7 +2222,7 @@
       </c>
       <c r="H40" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -2235,7 +2241,7 @@
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
@@ -2254,7 +2260,7 @@
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
@@ -2273,7 +2279,7 @@
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="7" t="s">
         <v>33</v>
       </c>
@@ -2292,7 +2298,7 @@
       </c>
       <c r="H44" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="20" t="s">
         <v>66</v>
       </c>
@@ -2314,7 +2320,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2329,21 +2335,21 @@
   </sheetPr>
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C16" activeCellId="0" pane="topLeft" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
         <v>67</v>
       </c>
@@ -2393,7 +2399,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
         <v>68</v>
       </c>
@@ -2457,7 +2463,7 @@
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
         <v>69</v>
       </c>
@@ -2507,10 +2513,10 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>70</v>
       </c>
@@ -2519,16 +2525,16 @@
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="31" t="n">
         <f aca="false">Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>31.01</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="32">
+        <v>36.51</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>72</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>73</v>
       </c>
@@ -2549,7 +2555,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t>Paket</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Datum der Fertigstellung</t>
   </si>
   <si>
-    <t>Half</t>
-  </si>
-  <si>
     <t>Allgemein</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Jonas F</t>
   </si>
   <si>
-    <t>Sven</t>
-  </si>
-  <si>
     <t>Layout-Register schreiben</t>
   </si>
   <si>
@@ -247,6 +241,9 @@
   </si>
   <si>
     <t>Vorraussichtliches Fertigstellungsdatum:</t>
+  </si>
+  <si>
+    <t>Jonas F (+ Sven)</t>
   </si>
 </sst>
 </file>
@@ -274,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -450,11 +447,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -470,7 +487,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -491,7 +507,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -499,9 +514,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -592,9 +608,72 @@
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Fortschritt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -607,210 +686,268 @@
             <c:v>Soll</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="31680">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -820,13 +957,35 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -942,7 +1101,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -951,210 +1110,268 @@
             <c:v>Ist</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="31680">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1164,13 +1381,35 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -1250,43 +1489,10 @@
                 <c:pt idx="3">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1296,58 +1502,127 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="645607520"/>
-        <c:axId val="645609696"/>
+        <c:axId val="-1816267760"/>
+        <c:axId val="-1619696544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="645607520"/>
+        <c:axId val="-1816267760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="645609696"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1619696544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="645609696"/>
+        <c:axId val="-1619696544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="645607520"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1816267760"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1355,7 +1630,28 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -1363,21 +1659,591 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9360">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="E0E5EB"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1680,24 +2546,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875"/>
-    <col min="2" max="2" width="17.77734375"/>
-    <col min="3" max="3" width="37.77734375"/>
-    <col min="4" max="4" width="11.5546875"/>
-    <col min="5" max="5" width="7.44140625"/>
-    <col min="6" max="6" width="18.77734375"/>
-    <col min="7" max="7" width="20.44140625"/>
-    <col min="8" max="9" width="23.6640625"/>
-    <col min="10" max="1025" width="10.5546875"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="17.7109375"/>
+    <col min="3" max="3" width="37.7109375"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="7.42578125"/>
+    <col min="6" max="6" width="18.7109375"/>
+    <col min="7" max="7" width="20.42578125"/>
+    <col min="8" max="9" width="23.7109375"/>
+    <col min="10" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1716,19 +2582,17 @@
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -1737,923 +2601,919 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10">
+        <v>100</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="11">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="10">
         <v>75</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="15">
-        <v>4</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G5" s="10">
         <v>100</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="28">
         <v>42544</v>
       </c>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="15">
-        <v>5</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G6" s="10">
         <v>100</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="28">
         <v>42544</v>
       </c>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="15">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G7" s="10">
         <v>50</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="15">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14">
         <v>8</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G8" s="10">
         <v>60</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="28"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15">
+        <v>17</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="14">
         <v>4</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="10">
         <v>20</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="15">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="14">
         <v>2</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G10" s="10">
         <v>70</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="28"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="14">
+        <v>9</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="15">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G11" s="10">
         <v>10</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="15">
-        <v>8</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="15">
-        <v>4</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="15">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="14">
+        <v>7</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="15">
-        <v>7</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="15">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="14">
         <v>5</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="10">
         <v>75</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>6</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="10">
         <v>100</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="28">
         <v>42544</v>
       </c>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="15">
+        <v>34</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14">
         <v>11</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="10">
         <v>50</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="15">
+        <v>34</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="14">
         <v>3</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="10">
         <v>0</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="15">
+        <v>31</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="14">
         <v>11</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>12</v>
+      <c r="E20" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="10">
         <v>30</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="14">
+        <v>10</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="15">
-        <v>10</v>
-      </c>
-      <c r="E21" s="13">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="14">
+        <v>10</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="15">
-        <v>10</v>
-      </c>
-      <c r="E22" s="13">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="15">
+        <v>39</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="14">
         <v>5</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>5</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="31"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="15">
+        <v>39</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="14">
         <v>3</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>2</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="15">
+        <v>39</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="14">
         <v>4</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="15">
+        <v>39</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="14">
         <v>4</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>2</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="15">
+        <v>39</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="14">
         <v>5</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>2</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="15">
+        <v>39</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="14">
         <v>2</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>2</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
       </c>
-      <c r="H29" s="11"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="15">
+        <v>39</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="14">
         <v>12</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>2</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
       </c>
-      <c r="H30" s="11"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="31"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="15">
+        <v>31</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="14">
         <v>5</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <v>2</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="15">
+        <v>31</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="14">
         <v>6</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <v>2</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="15">
+        <v>52</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="14">
         <v>11</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <v>2</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" s="10">
         <v>1</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="15">
+        <v>24</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="14">
         <v>10</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <v>3</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="10">
         <v>0</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="31"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="15">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="14">
         <v>10</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>3</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="10">
         <v>0</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="15">
+        <v>39</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="14">
         <v>6</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>3</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="10">
         <v>0</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="31"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="15">
+        <v>39</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="14">
         <v>13</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>3</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="10">
         <v>0</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="15">
+        <v>39</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="14">
         <v>13</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <v>3</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="10">
         <v>0</v>
       </c>
-      <c r="H38" s="11"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="31"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="15">
+        <v>31</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="14">
         <v>10</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>3</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="10">
         <v>0</v>
       </c>
-      <c r="H39" s="11"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="15">
+        <v>34</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="14">
         <v>7</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <v>3</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="10">
         <v>0</v>
       </c>
-      <c r="H40" s="11"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="31"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="15">
+        <v>34</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="14">
         <v>4</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <v>3</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="10">
         <v>0</v>
       </c>
-      <c r="H41" s="11"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="31"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="15">
+        <v>31</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="14">
         <v>4</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>4</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="10">
         <v>0</v>
       </c>
-      <c r="H42" s="11"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="31"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="15">
+        <v>31</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="14">
         <v>4</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="12">
         <v>4</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="10">
         <v>0</v>
       </c>
-      <c r="H43" s="11"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="31"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="15">
+        <v>31</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="14">
         <v>4</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="12">
         <v>4</v>
       </c>
-      <c r="F44" s="17"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="10">
         <v>0</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="20">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="19">
         <v>7</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="20">
         <v>4</v>
       </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="23">
+      <c r="F45" s="21"/>
+      <c r="G45" s="22">
         <v>0</v>
       </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="32"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2665,219 +3525,197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875"/>
-    <col min="2" max="2" width="37.77734375"/>
-    <col min="3" max="1025" width="10.5546875"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="37.7109375"/>
+    <col min="3" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="G1" s="25"/>
-    </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="G1" s="23"/>
+    </row>
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="25">
+        <v>65</v>
+      </c>
+      <c r="E5" s="23">
         <v>42542</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="23">
         <v>42544</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <v>42546</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="23">
         <v>42548</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="23">
         <v>42550</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <v>42552</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="23">
         <v>42554</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="23">
         <v>42556</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="23">
         <v>42558</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="23">
         <v>42560</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="23">
         <v>42562</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="23">
         <v>42564</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="23">
         <v>42566</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="23">
         <v>42568</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="23">
         <v>42570</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="26">
+        <v>66</v>
+      </c>
+      <c r="E6" s="24">
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <f>E6+(I6/4)</f>
         <v>24.5</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <f>F6+(I6/4)</f>
         <v>49</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <f>G6+(I6/4)</f>
         <v>73.5</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="24">
         <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
         <v>98</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <f>I6+((L6-I6)/3)</f>
         <v>125.33333333333333</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="24">
         <f>J6+((L6-I6)/3)</f>
         <v>152.66666666666666</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="24">
         <f>Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
         <v>180</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="24">
         <f>L6+((P6-L6)/4)</f>
         <v>199.75</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="24">
         <f>M6+((P6-L6)/4)</f>
         <v>219.5</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="24">
         <f>N6+((P6-L6)/4)</f>
         <v>239.25</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="24">
         <f>Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
         <v>259</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="24">
         <f>C30</f>
         <v>272</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="24">
         <f>C30</f>
         <v>272</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="24">
         <f>C30</f>
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="26">
+        <v>67</v>
+      </c>
+      <c r="E7" s="24">
         <v>0</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="24">
         <v>15</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="24">
         <v>24</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="24">
         <v>41</v>
       </c>
-      <c r="I7" s="26">
-        <v>0</v>
-      </c>
-      <c r="J7" s="26">
-        <v>0</v>
-      </c>
-      <c r="K7" s="26">
-        <v>0</v>
-      </c>
-      <c r="L7" s="26">
-        <v>0</v>
-      </c>
-      <c r="M7" s="26">
-        <v>0</v>
-      </c>
-      <c r="N7" s="26">
-        <v>0</v>
-      </c>
-      <c r="O7" s="26">
-        <v>0</v>
-      </c>
-      <c r="P7" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="26">
-        <v>0</v>
-      </c>
-      <c r="R7" s="26">
-        <v>0</v>
-      </c>
-      <c r="S7" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="27"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="25"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="28">
+        <v>68</v>
+      </c>
+      <c r="C30" s="26">
         <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="29">
+        <v>69</v>
+      </c>
+      <c r="C31" s="27">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>41.059999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+        <v>42.059999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="28">
+        <v>70</v>
+      </c>
+      <c r="C32" s="26">
         <f>C30/((5*16)/7)</f>
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="25">
+        <v>71</v>
+      </c>
+      <c r="C33" s="23">
         <f>E5+C32</f>
         <v>42565.8</v>
       </c>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
   <si>
     <t>Paket</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Jonas F (+ Sven)</t>
+  </si>
+  <si>
+    <t>Jonas F (+ Sven, Nicolas)</t>
   </si>
 </sst>
 </file>
@@ -652,26 +655,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1504,11 +1487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1816267760"/>
-        <c:axId val="-1619696544"/>
+        <c:axId val="-577654336"/>
+        <c:axId val="-577648896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1816267760"/>
+        <c:axId val="-577654336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,14 +1534,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1619696544"/>
+        <c:crossAx val="-577648896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1619696544"/>
+        <c:axId val="-577648896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,7 +1592,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1816267760"/>
+        <c:crossAx val="-577654336"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1688,562 +1671,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2546,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,7 +1984,7 @@
     <col min="3" max="3" width="37.7109375"/>
     <col min="4" max="4" width="11.5703125"/>
     <col min="5" max="5" width="7.42578125"/>
-    <col min="6" max="6" width="18.7109375"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.42578125"/>
     <col min="8" max="9" width="23.7109375"/>
     <col min="10" max="1025" width="10.5703125"/>
@@ -2696,9 +2123,11 @@
         <v>19</v>
       </c>
       <c r="G7" s="10">
-        <v>50</v>
-      </c>
-      <c r="H7" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="H7" s="28">
+        <v>42550</v>
+      </c>
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -2715,10 +2144,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" s="10">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="31"/>
@@ -2740,9 +2169,11 @@
         <v>21</v>
       </c>
       <c r="G9" s="10">
-        <v>20</v>
-      </c>
-      <c r="H9" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="H9" s="28">
+        <v>42550</v>
+      </c>
       <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -3525,7 +2956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -3699,7 +3130,7 @@
       </c>
       <c r="C31" s="27">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>42.059999999999995</v>
+        <v>47.859999999999992</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>Paket</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Jonas F (+ Sven, Nicolas)</t>
+  </si>
+  <si>
+    <t>Jonas F ( + Nicolas)</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -695,7 +697,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -704,14 +705,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -720,14 +718,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -736,14 +731,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -752,14 +744,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -768,14 +757,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -784,14 +770,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -800,14 +783,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -816,14 +796,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -832,14 +809,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -848,14 +822,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -864,14 +835,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -880,14 +848,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -896,14 +861,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -912,14 +874,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -928,9 +887,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1119,7 +1076,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1128,14 +1084,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1144,14 +1097,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1160,14 +1110,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1176,14 +1123,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1192,14 +1136,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1208,14 +1149,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1224,14 +1162,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1240,14 +1175,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1256,14 +1188,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1272,14 +1201,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1288,14 +1214,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1304,14 +1227,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1320,14 +1240,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1336,14 +1253,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1352,9 +1266,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1487,11 +1399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-577654336"/>
-        <c:axId val="-577648896"/>
+        <c:axId val="1646619872"/>
+        <c:axId val="1646624224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-577654336"/>
+        <c:axId val="1646619872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,14 +1446,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-577648896"/>
+        <c:crossAx val="1646624224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-577648896"/>
+        <c:axId val="1646624224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1504,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-577654336"/>
+        <c:crossAx val="1646619872"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1606,7 +1518,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1973,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -2166,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="G9" s="10">
         <v>100</v>
@@ -2569,7 +2480,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="31"/>
@@ -3130,7 +3041,7 @@
       </c>
       <c r="C31" s="27">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>47.859999999999992</v>
+        <v>51.059999999999995</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -649,6 +649,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -697,6 +698,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -705,11 +707,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -718,11 +723,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -731,11 +739,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -744,11 +755,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -757,11 +771,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -770,11 +787,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -783,11 +803,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -796,11 +819,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -809,11 +835,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -822,11 +851,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -835,11 +867,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -848,11 +883,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -861,11 +899,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -874,11 +915,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -887,7 +931,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1076,6 +1122,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1084,11 +1131,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1097,11 +1147,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1110,11 +1163,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1123,11 +1179,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1136,11 +1195,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1149,11 +1211,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1162,11 +1227,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1175,11 +1243,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1188,11 +1259,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1201,11 +1275,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1214,11 +1291,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1227,11 +1307,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1240,11 +1323,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1253,11 +1339,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1266,7 +1355,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1384,6 +1475,9 @@
                 <c:pt idx="3">
                   <c:v>41</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1399,11 +1493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1646619872"/>
-        <c:axId val="1646624224"/>
+        <c:axId val="524541440"/>
+        <c:axId val="524540352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1646619872"/>
+        <c:axId val="524541440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,14 +1540,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646624224"/>
+        <c:crossAx val="524540352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1646624224"/>
+        <c:axId val="524540352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +1598,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646619872"/>
+        <c:crossAx val="524541440"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1518,6 +1612,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1884,24 +1979,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="17.7109375"/>
-    <col min="3" max="3" width="37.7109375"/>
-    <col min="4" max="4" width="11.5703125"/>
-    <col min="5" max="5" width="7.42578125"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125"/>
-    <col min="8" max="9" width="23.7109375"/>
-    <col min="10" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="10.5546875"/>
+    <col min="2" max="2" width="17.6640625"/>
+    <col min="3" max="3" width="37.6640625"/>
+    <col min="4" max="4" width="11.5546875"/>
+    <col min="5" max="5" width="7.44140625"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625"/>
+    <col min="8" max="9" width="23.6640625"/>
+    <col min="10" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +2020,7 @@
       </c>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1947,7 +2042,7 @@
       <c r="H3" s="28"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +2064,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1993,7 +2088,7 @@
       </c>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2112,7 @@
       </c>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
@@ -2041,7 +2136,7 @@
       </c>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
@@ -2058,12 +2153,12 @@
         <v>73</v>
       </c>
       <c r="G8" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
@@ -2087,7 +2182,7 @@
       </c>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -2109,7 +2204,7 @@
       <c r="H10" s="28"/>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
@@ -2131,7 +2226,7 @@
       <c r="H11" s="28"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
@@ -2153,7 +2248,7 @@
       <c r="H12" s="28"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2175,7 +2270,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
@@ -2197,7 +2292,7 @@
       <c r="H14" s="28"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
@@ -2219,7 +2314,7 @@
       <c r="H15" s="28"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
@@ -2241,7 +2336,7 @@
       <c r="H16" s="28"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
@@ -2265,7 +2360,7 @@
       </c>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
@@ -2287,7 +2382,7 @@
       <c r="H18" s="28"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
@@ -2309,7 +2404,7 @@
       <c r="H19" s="28"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
@@ -2331,7 +2426,7 @@
       <c r="H20" s="28"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
@@ -2353,7 +2448,7 @@
       <c r="H21" s="28"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
@@ -2375,7 +2470,7 @@
       <c r="H22" s="28"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
@@ -2397,7 +2492,7 @@
       <c r="H23" s="28"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
@@ -2419,7 +2514,7 @@
       <c r="H24" s="28"/>
       <c r="I24" s="31"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
@@ -2441,7 +2536,7 @@
       <c r="H25" s="28"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>39</v>
       </c>
@@ -2463,7 +2558,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>39</v>
       </c>
@@ -2485,7 +2580,7 @@
       <c r="H27" s="28"/>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>39</v>
       </c>
@@ -2507,7 +2602,7 @@
       <c r="H28" s="28"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>39</v>
       </c>
@@ -2529,7 +2624,7 @@
       <c r="H29" s="28"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>39</v>
       </c>
@@ -2551,7 +2646,7 @@
       <c r="H30" s="28"/>
       <c r="I30" s="31"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
@@ -2573,7 +2668,7 @@
       <c r="H31" s="28"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
@@ -2595,7 +2690,7 @@
       <c r="H32" s="28"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>52</v>
       </c>
@@ -2617,7 +2712,7 @@
       <c r="H33" s="28"/>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>24</v>
       </c>
@@ -2637,7 +2732,7 @@
       <c r="H34" s="28"/>
       <c r="I34" s="31"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>24</v>
       </c>
@@ -2657,7 +2752,7 @@
       <c r="H35" s="28"/>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>39</v>
       </c>
@@ -2677,7 +2772,7 @@
       <c r="H36" s="28"/>
       <c r="I36" s="31"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>39</v>
       </c>
@@ -2697,7 +2792,7 @@
       <c r="H37" s="28"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>39</v>
       </c>
@@ -2717,7 +2812,7 @@
       <c r="H38" s="28"/>
       <c r="I38" s="31"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>31</v>
       </c>
@@ -2737,7 +2832,7 @@
       <c r="H39" s="28"/>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>34</v>
       </c>
@@ -2757,7 +2852,7 @@
       <c r="H40" s="28"/>
       <c r="I40" s="31"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
         <v>34</v>
       </c>
@@ -2777,7 +2872,7 @@
       <c r="H41" s="28"/>
       <c r="I41" s="31"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>31</v>
       </c>
@@ -2797,7 +2892,7 @@
       <c r="H42" s="28"/>
       <c r="I42" s="31"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>31</v>
       </c>
@@ -2817,7 +2912,7 @@
       <c r="H43" s="28"/>
       <c r="I43" s="31"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>31</v>
       </c>
@@ -2837,7 +2932,7 @@
       <c r="H44" s="28"/>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="17" t="s">
         <v>64</v>
       </c>
@@ -2867,21 +2962,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="37.7109375"/>
-    <col min="3" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="10.5546875"/>
+    <col min="2" max="2" width="37.6640625"/>
+    <col min="3" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
       <c r="G1" s="23"/>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>65</v>
       </c>
@@ -2931,7 +3026,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>66</v>
       </c>
@@ -2995,7 +3090,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>67</v>
       </c>
@@ -3011,7 +3106,9 @@
       <c r="H7" s="24">
         <v>41</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="24">
+        <v>52</v>
+      </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -3023,10 +3120,10 @@
       <c r="R7" s="24"/>
       <c r="S7" s="24"/>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D8" s="25"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>68</v>
       </c>
@@ -3035,16 +3132,16 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="27">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>51.059999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+        <v>51.86</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>70</v>
       </c>
@@ -3053,7 +3150,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>71</v>
       </c>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Auswertung" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Daten" sheetId="1" r:id="rId1"/>
+    <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -251,61 +255,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY;@"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,285 +278,257 @@
     </fill>
   </fills>
   <borders count="17">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -654,15 +587,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -671,26 +622,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="de-DE" sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -700,33 +651,25 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Soll"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Soll</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Soll</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -736,212 +679,331 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.21.2016</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.23.2016</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25.2016</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.27.2016</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29.2016</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1.2016</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3.2016</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5.2016</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7.2016</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9.2016</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.11.2016</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.13.2016</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.15.2016</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.17.2016</c:v>
+                  <c:v>42568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.19.2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -959,10 +1021,10 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125.333333333333</c:v>
+                  <c:v>125.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.666666666667</c:v>
+                  <c:v>152.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>180</c:v>
@@ -997,23 +1059,12 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Ist"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ist</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Ist</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1023,212 +1074,331 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.21.2016</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.23.2016</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25.2016</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.27.2016</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29.2016</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1.2016</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3.2016</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5.2016</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7.2016</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9.2016</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.11.2016</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.13.2016</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.15.2016</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.17.2016</c:v>
+                  <c:v>42568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.19.2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1244,42 +1414,20 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1288,54 +1436,57 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="33817602"/>
-        <c:axId val="50015783"/>
+        <c:smooth val="0"/>
+        <c:axId val="1533643856"/>
+        <c:axId val="1533654736"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="33817602"/>
+      <c:dateAx>
+        <c:axId val="1533643856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50015783"/>
+        <c:crossAx val="1533654736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="50015783"/>
+        <c:axId val="1533654736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1496,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1362,24 +1513,27 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33817602"/>
+        <c:crossAx val="1533643856"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1390,6 +1544,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1400,23 +1555,29 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1430,14 +1591,14 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm 5"/>
+        <xdr:cNvPr id="2" name="Diagramm 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5031720" y="1449720"/>
-        <a:ext cx="8976600" cy="5304600"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1450,31 +1611,289 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6938775510204"/>
+    <col min="1" max="1" width="10.7109375"/>
+    <col min="2" max="2" width="17.85546875"/>
+    <col min="3" max="3" width="38.28515625"/>
+    <col min="4" max="4" width="11.7109375"/>
+    <col min="5" max="5" width="7.5703125"/>
+    <col min="6" max="6" width="24.28515625"/>
+    <col min="7" max="7" width="20.7109375"/>
+    <col min="8" max="9" width="24.140625"/>
+    <col min="10" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,36 +1917,36 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="11">
         <v>100</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="14">
         <v>6</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -1536,362 +1955,362 @@
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="11">
         <v>75</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="17">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>100</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="12">
         <v>42544</v>
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="17">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="11">
         <v>100</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="12">
         <v>42544</v>
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="11">
         <v>100</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="12">
         <v>42550</v>
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="17">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="11">
         <v>90</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="17">
         <v>4</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="11">
         <v>100</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="12">
         <v>42550</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="15">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="11">
         <v>70</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="17">
         <v>9</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="11">
         <v>20</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="17">
         <v>8</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="11">
         <v>0</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="17" t="n">
+      <c r="D13" s="17">
         <v>4</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="11">
         <v>0</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="17">
         <v>2</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="11">
         <v>0</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17" t="n">
+      <c r="D15" s="17">
         <v>7</v>
       </c>
-      <c r="E15" s="15" t="n">
+      <c r="E15" s="15">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="11">
         <v>100</v>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="12">
         <v>42550</v>
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="17">
         <v>5</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11" t="n">
-        <v>75</v>
+      <c r="G16" s="11">
+        <v>80</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="17" t="n">
+      <c r="D17" s="17">
         <v>6</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E17" s="18">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="11">
         <v>100</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="12">
         <v>42544</v>
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="17" t="n">
+      <c r="D18" s="17">
         <v>11</v>
       </c>
-      <c r="E18" s="15" t="n">
+      <c r="E18" s="15">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="11">
         <v>50</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17" t="n">
+      <c r="D19" s="17">
         <v>3</v>
       </c>
-      <c r="E19" s="15" t="n">
+      <c r="E19" s="15">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="11">
         <v>0</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="17" t="n">
+      <c r="D20" s="17">
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -1900,701 +2319,693 @@
       <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="11">
         <v>30</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="17" t="n">
+      <c r="D21" s="17">
         <v>10</v>
       </c>
-      <c r="E21" s="15" t="n">
+      <c r="E21" s="15">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="11">
         <v>0</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="17" t="n">
+      <c r="D22" s="17">
         <v>10</v>
       </c>
-      <c r="E22" s="15" t="n">
+      <c r="E22" s="15">
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="11">
         <v>0</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17" t="n">
+      <c r="D23" s="17">
         <v>5</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E23" s="15">
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="11">
         <v>0</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="17" t="n">
+      <c r="D24" s="17">
         <v>5</v>
       </c>
-      <c r="E24" s="15" t="n">
+      <c r="E24" s="15">
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="11">
         <v>0</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="17" t="n">
+      <c r="D25" s="17">
         <v>3</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="15">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="11">
         <v>0</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="17" t="n">
+      <c r="D26" s="17">
         <v>4</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E26" s="15">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="11">
         <v>0</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="17" t="n">
+      <c r="D27" s="17">
         <v>4</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E27" s="15">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11" t="n">
-        <v>80</v>
+      <c r="G27" s="11">
+        <v>100</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="17" t="n">
+      <c r="D28" s="17">
         <v>5</v>
       </c>
-      <c r="E28" s="15" t="n">
+      <c r="E28" s="15">
         <v>2</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="11" t="n">
-        <v>0</v>
+      <c r="G28" s="11">
+        <v>50</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="17" t="n">
+      <c r="D29" s="17">
         <v>2</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E29" s="15">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="11" t="n">
-        <v>0</v>
+      <c r="G29" s="11">
+        <v>80</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="17" t="n">
+      <c r="D30" s="17">
         <v>12</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="15">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="11" t="n">
+      <c r="G30" s="11">
         <v>0</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="17" t="n">
+      <c r="D31" s="17">
         <v>5</v>
       </c>
-      <c r="E31" s="15" t="n">
+      <c r="E31" s="15">
         <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="11">
         <v>0</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="17" t="n">
+      <c r="D32" s="17">
         <v>6</v>
       </c>
-      <c r="E32" s="15" t="n">
+      <c r="E32" s="15">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="11">
         <v>0</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="17" t="n">
+      <c r="D33" s="17">
         <v>11</v>
       </c>
-      <c r="E33" s="15" t="n">
+      <c r="E33" s="15">
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="11">
         <v>1</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="17" t="n">
+      <c r="D34" s="17">
         <v>10</v>
       </c>
-      <c r="E34" s="15" t="n">
+      <c r="E34" s="15">
         <v>3</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="11" t="n">
+      <c r="G34" s="11">
         <v>0</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="17" t="n">
+      <c r="D35" s="17">
         <v>10</v>
       </c>
-      <c r="E35" s="15" t="n">
+      <c r="E35" s="15">
         <v>3</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="11">
         <v>0</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="17" t="n">
+      <c r="D36" s="17">
         <v>6</v>
       </c>
-      <c r="E36" s="15" t="n">
+      <c r="E36" s="15">
         <v>3</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="11">
         <v>0</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="17" t="n">
+      <c r="D37" s="17">
         <v>13</v>
       </c>
-      <c r="E37" s="15" t="n">
+      <c r="E37" s="15">
         <v>3</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="11" t="n">
+      <c r="G37" s="11">
         <v>0</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="17" t="n">
+      <c r="D38" s="17">
         <v>13</v>
       </c>
-      <c r="E38" s="15" t="n">
+      <c r="E38" s="15">
         <v>3</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="11" t="n">
+      <c r="G38" s="11">
         <v>0</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="17" t="n">
+      <c r="D39" s="17">
         <v>10</v>
       </c>
-      <c r="E39" s="15" t="n">
+      <c r="E39" s="15">
         <v>3</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="11" t="n">
+      <c r="G39" s="11">
         <v>0</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="17" t="n">
+      <c r="D40" s="17">
         <v>7</v>
       </c>
-      <c r="E40" s="15" t="n">
+      <c r="E40" s="15">
         <v>3</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="11" t="n">
+      <c r="G40" s="11">
         <v>0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="17" t="n">
+      <c r="D41" s="17">
         <v>4</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="E41" s="15">
         <v>3</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="11" t="n">
+      <c r="G41" s="11">
         <v>0</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="17" t="n">
+      <c r="D42" s="17">
         <v>4</v>
       </c>
-      <c r="E42" s="15" t="n">
+      <c r="E42" s="15">
         <v>4</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="11" t="n">
+      <c r="G42" s="11">
         <v>0</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="17" t="n">
+      <c r="D43" s="17">
         <v>4</v>
       </c>
-      <c r="E43" s="15" t="n">
+      <c r="E43" s="15">
         <v>4</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="11" t="n">
+      <c r="G43" s="11">
         <v>0</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="17" t="n">
+      <c r="D44" s="17">
         <v>4</v>
       </c>
-      <c r="E44" s="15" t="n">
+      <c r="E44" s="15">
         <v>4</v>
       </c>
       <c r="F44" s="19"/>
-      <c r="G44" s="11" t="n">
+      <c r="G44" s="11">
         <v>0</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="22" t="n">
+      <c r="D45" s="22">
         <v>7</v>
       </c>
-      <c r="E45" s="23" t="n">
+      <c r="E45" s="23">
         <v>4</v>
       </c>
       <c r="F45" s="24"/>
-      <c r="G45" s="25" t="n">
+      <c r="G45" s="25">
         <v>0</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6938775510204"/>
+    <col min="1" max="1" width="10.7109375"/>
+    <col min="2" max="2" width="38.28515625"/>
+    <col min="3" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G1" s="27"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="s">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="27">
         <v>42542</v>
       </c>
-      <c r="F5" s="27" t="n">
+      <c r="F5" s="27">
         <v>42544</v>
       </c>
-      <c r="G5" s="27" t="n">
+      <c r="G5" s="27">
         <v>42546</v>
       </c>
-      <c r="H5" s="27" t="n">
+      <c r="H5" s="27">
         <v>42548</v>
       </c>
-      <c r="I5" s="27" t="n">
+      <c r="I5" s="27">
         <v>42550</v>
       </c>
-      <c r="J5" s="27" t="n">
+      <c r="J5" s="27">
         <v>42552</v>
       </c>
-      <c r="K5" s="27" t="n">
+      <c r="K5" s="27">
         <v>42554</v>
       </c>
-      <c r="L5" s="27" t="n">
+      <c r="L5" s="27">
         <v>42556</v>
       </c>
-      <c r="M5" s="27" t="n">
+      <c r="M5" s="27">
         <v>42558</v>
       </c>
-      <c r="N5" s="27" t="n">
+      <c r="N5" s="27">
         <v>42560</v>
       </c>
-      <c r="O5" s="27" t="n">
+      <c r="O5" s="27">
         <v>42562</v>
       </c>
-      <c r="P5" s="27" t="n">
+      <c r="P5" s="27">
         <v>42564</v>
       </c>
-      <c r="Q5" s="27" t="n">
+      <c r="Q5" s="27">
         <v>42566</v>
       </c>
-      <c r="R5" s="27" t="n">
+      <c r="R5" s="27">
         <v>42568</v>
       </c>
-      <c r="S5" s="27" t="n">
+      <c r="S5" s="27">
         <v>42570</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="28" t="n">
+      <c r="E6" s="28">
         <v>0</v>
       </c>
-      <c r="F6" s="28" t="n">
-        <f aca="false">E6+(I6/4)</f>
+      <c r="F6" s="28">
+        <f>E6+(I6/4)</f>
         <v>24.5</v>
       </c>
-      <c r="G6" s="28" t="n">
-        <f aca="false">F6+(I6/4)</f>
+      <c r="G6" s="28">
+        <f>F6+(I6/4)</f>
         <v>49</v>
       </c>
-      <c r="H6" s="28" t="n">
-        <f aca="false">G6+(I6/4)</f>
+      <c r="H6" s="28">
+        <f>G6+(I6/4)</f>
         <v>73.5</v>
       </c>
-      <c r="I6" s="28" t="n">
-        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
+      <c r="I6" s="28">
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
         <v>98</v>
       </c>
-      <c r="J6" s="28" t="n">
-        <f aca="false">I6+((L6-I6)/3)</f>
-        <v>125.333333333333</v>
-      </c>
-      <c r="K6" s="28" t="n">
-        <f aca="false">J6+((L6-I6)/3)</f>
-        <v>152.666666666667</v>
-      </c>
-      <c r="L6" s="28" t="n">
-        <f aca="false">Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
+      <c r="J6" s="28">
+        <f>I6+((L6-I6)/3)</f>
+        <v>125.33333333333333</v>
+      </c>
+      <c r="K6" s="28">
+        <f>J6+((L6-I6)/3)</f>
+        <v>152.66666666666666</v>
+      </c>
+      <c r="L6" s="28">
+        <f>Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
         <v>180</v>
       </c>
-      <c r="M6" s="28" t="n">
-        <f aca="false">L6+((P6-L6)/4)</f>
+      <c r="M6" s="28">
+        <f>L6+((P6-L6)/4)</f>
         <v>199.75</v>
       </c>
-      <c r="N6" s="28" t="n">
-        <f aca="false">M6+((P6-L6)/4)</f>
+      <c r="N6" s="28">
+        <f>M6+((P6-L6)/4)</f>
         <v>219.5</v>
       </c>
-      <c r="O6" s="28" t="n">
-        <f aca="false">N6+((P6-L6)/4)</f>
+      <c r="O6" s="28">
+        <f>N6+((P6-L6)/4)</f>
         <v>239.25</v>
       </c>
-      <c r="P6" s="28" t="n">
-        <f aca="false">Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
+      <c r="P6" s="28">
+        <f>Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
         <v>259</v>
       </c>
-      <c r="Q6" s="28" t="n">
-        <f aca="false">C30</f>
+      <c r="Q6" s="28">
+        <f>C30</f>
         <v>272</v>
       </c>
-      <c r="R6" s="28" t="n">
-        <f aca="false">C30</f>
+      <c r="R6" s="28">
+        <f>C30</f>
         <v>272</v>
       </c>
-      <c r="S6" s="28" t="n">
-        <f aca="false">C30</f>
+      <c r="S6" s="28">
+        <f>C30</f>
         <v>272</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="28" t="n">
+      <c r="E7" s="28">
         <v>0</v>
       </c>
-      <c r="F7" s="28" t="n">
+      <c r="F7" s="28">
         <v>15</v>
       </c>
-      <c r="G7" s="28" t="n">
+      <c r="G7" s="28">
         <v>24</v>
       </c>
-      <c r="H7" s="28" t="n">
+      <c r="H7" s="28">
         <v>41</v>
       </c>
-      <c r="I7" s="28" t="n">
+      <c r="I7" s="28">
         <v>52</v>
       </c>
       <c r="J7" s="28"/>
@@ -2608,53 +3019,48 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D8" s="29"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="30" t="n">
-        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
+      <c r="C30" s="30">
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
         <v>272</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <f aca="false">Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>59.76</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="C31">
+        <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
+        <v>64.91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="30" t="n">
-        <f aca="false">C30/((5*16)/7)</f>
+      <c r="C32" s="30">
+        <f>C30/((5*16)/7)</f>
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="27" t="n">
-        <f aca="false">E5+C32</f>
+      <c r="C33" s="27">
+        <f>E5+C32</f>
         <v>42565.8</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" r:id="rId1"/>
-    <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
+    <sheet name="Daten" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Auswertung" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -255,18 +251,56 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY;@"/>
+    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,257 +312,285 @@
     </fill>
   </fills>
   <borders count="17">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -586,34 +648,16 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF404040"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -622,26 +666,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" strike="noStrike" spc="-1">
+              <a:defRPr b="1" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="ffffff"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1400" strike="noStrike" spc="-1">
+              <a:rPr b="1" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="ffffff"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -651,25 +695,33 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Soll</c:v>
+            <c:strRef>
+              <c:f>"Soll"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
+                <a:srgbClr val="5b9bd5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -679,331 +731,212 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
+                <a:srgbClr val="5b9bd5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>42542</c:v>
+                  <c:v>6.21.2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42544</c:v>
+                  <c:v>6.23.2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42546</c:v>
+                  <c:v>6.25.2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42548</c:v>
+                  <c:v>6.27.2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42550</c:v>
+                  <c:v>6.29.2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42552</c:v>
+                  <c:v>7.1.2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42554</c:v>
+                  <c:v>7.3.2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42556</c:v>
+                  <c:v>7.5.2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42558</c:v>
+                  <c:v>7.7.2016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42560</c:v>
+                  <c:v>7.9.2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42562</c:v>
+                  <c:v>7.11.2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42564</c:v>
+                  <c:v>7.13.2016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42566</c:v>
+                  <c:v>7.15.2016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42568</c:v>
+                  <c:v>7.17.2016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42570</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>7.19.2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1021,10 +954,10 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125.33333333333333</c:v>
+                  <c:v>125.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.66666666666666</c:v>
+                  <c:v>152.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>180</c:v>
@@ -1059,12 +992,23 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Ist</c:v>
+            <c:strRef>
+              <c:f>"Ist"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
+                <a:srgbClr val="ed7d31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1074,331 +1018,212 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
+                <a:srgbClr val="ed7d31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>42542</c:v>
+                  <c:v>6.21.2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42544</c:v>
+                  <c:v>6.23.2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42546</c:v>
+                  <c:v>6.25.2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42548</c:v>
+                  <c:v>6.27.2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42550</c:v>
+                  <c:v>6.29.2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42552</c:v>
+                  <c:v>7.1.2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42554</c:v>
+                  <c:v>7.3.2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42556</c:v>
+                  <c:v>7.5.2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42558</c:v>
+                  <c:v>7.7.2016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42560</c:v>
+                  <c:v>7.9.2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42562</c:v>
+                  <c:v>7.11.2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42564</c:v>
+                  <c:v>7.13.2016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42566</c:v>
+                  <c:v>7.15.2016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42568</c:v>
+                  <c:v>7.17.2016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42570</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>7.19.2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1414,20 +1239,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1436,57 +1283,54 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1533643856"/>
-        <c:axId val="1533654736"/>
+        <c:axId val="50421824"/>
+        <c:axId val="64653853"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1533643856"/>
+      <c:catAx>
+        <c:axId val="50421824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:srgbClr val="d9d9d9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" strike="noStrike" spc="-1">
+              <a:defRPr sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="ffffff"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1533654736"/>
+        <c:crossAx val="64653853"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1533654736"/>
+        <c:axId val="64653853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,7 +1340,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:srgbClr val="d9d9d9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1513,27 +1357,24 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" strike="noStrike" spc="-1">
+              <a:defRPr sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="ffffff"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1533643856"/>
+        <c:crossAx val="50421824"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1544,7 +1385,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1555,50 +1395,44 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
+        <a:srgbClr val="d9d9d9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>71280</xdr:colOff>
+      <xdr:colOff>98280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>749520</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 5"/>
+        <xdr:cNvPr id="0" name="Diagramm 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5135040" y="1494000"/>
+        <a:ext cx="9059760" cy="5525280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1611,289 +1445,31 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375"/>
-    <col min="2" max="2" width="17.85546875"/>
-    <col min="3" max="3" width="38.28515625"/>
-    <col min="4" max="4" width="11.7109375"/>
-    <col min="5" max="5" width="7.5703125"/>
-    <col min="6" max="6" width="24.28515625"/>
-    <col min="7" max="7" width="20.7109375"/>
-    <col min="8" max="9" width="24.140625"/>
-    <col min="10" max="1025" width="10.7109375"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.984693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.66836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.9489795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.8010204081633"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1917,36 +1493,36 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="10" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="11" t="n">
         <v>100</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="14" t="n">
         <v>6</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -1955,362 +1531,362 @@
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="11" t="n">
         <v>75</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="12" t="n">
         <v>42544</v>
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="12" t="n">
         <v>42544</v>
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="12" t="n">
         <v>42550</v>
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="11" t="n">
         <v>90</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="12" t="n">
         <v>42550</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="11" t="n">
         <v>70</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="11">
-        <v>20</v>
+      <c r="G11" s="11" t="n">
+        <v>50</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="12" t="n">
         <v>42550</v>
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="11" t="n">
         <v>80</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="12" t="n">
         <v>42544</v>
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="11" t="n">
         <v>50</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="17" t="n">
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -2319,693 +1895,701 @@
       <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="11" t="n">
         <v>30</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="11" t="n">
         <v>100</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="11" t="n">
         <v>50</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="11" t="n">
         <v>80</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="11">
+      <c r="G34" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="11">
+      <c r="G35" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="11">
+      <c r="G36" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="11">
+      <c r="G37" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="11">
+      <c r="G38" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="11">
+      <c r="G39" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="11">
+      <c r="G40" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="11">
+      <c r="G41" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="15" t="n">
         <v>4</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="11">
+      <c r="G42" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="15" t="n">
         <v>4</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="11">
+      <c r="G43" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="15" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="19"/>
-      <c r="G44" s="11">
+      <c r="G44" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="23" t="n">
         <v>4</v>
       </c>
       <c r="F45" s="24"/>
-      <c r="G45" s="25">
+      <c r="G45" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375"/>
-    <col min="2" max="2" width="38.28515625"/>
-    <col min="3" max="1025" width="10.7109375"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8010204081633"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1" s="27"/>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="27" t="n">
         <v>42542</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="27" t="n">
         <v>42544</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="27" t="n">
         <v>42546</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="27" t="n">
         <v>42548</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="27" t="n">
         <v>42550</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="27" t="n">
         <v>42552</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="27" t="n">
         <v>42554</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="27" t="n">
         <v>42556</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="27" t="n">
         <v>42558</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="27" t="n">
         <v>42560</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="27" t="n">
         <v>42562</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="27" t="n">
         <v>42564</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="27" t="n">
         <v>42566</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="27" t="n">
         <v>42568</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="27" t="n">
         <v>42570</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="28">
-        <v>0</v>
-      </c>
-      <c r="F6" s="28">
-        <f>E6+(I6/4)</f>
+      <c r="E6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28" t="n">
+        <f aca="false">E6+(I6/4)</f>
         <v>24.5</v>
       </c>
-      <c r="G6" s="28">
-        <f>F6+(I6/4)</f>
+      <c r="G6" s="28" t="n">
+        <f aca="false">F6+(I6/4)</f>
         <v>49</v>
       </c>
-      <c r="H6" s="28">
-        <f>G6+(I6/4)</f>
+      <c r="H6" s="28" t="n">
+        <f aca="false">G6+(I6/4)</f>
         <v>73.5</v>
       </c>
-      <c r="I6" s="28">
-        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
+      <c r="I6" s="28" t="n">
+        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
         <v>98</v>
       </c>
-      <c r="J6" s="28">
-        <f>I6+((L6-I6)/3)</f>
-        <v>125.33333333333333</v>
-      </c>
-      <c r="K6" s="28">
-        <f>J6+((L6-I6)/3)</f>
-        <v>152.66666666666666</v>
-      </c>
-      <c r="L6" s="28">
-        <f>Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
+      <c r="J6" s="28" t="n">
+        <f aca="false">I6+((L6-I6)/3)</f>
+        <v>125.333333333333</v>
+      </c>
+      <c r="K6" s="28" t="n">
+        <f aca="false">J6+((L6-I6)/3)</f>
+        <v>152.666666666667</v>
+      </c>
+      <c r="L6" s="28" t="n">
+        <f aca="false">Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
         <v>180</v>
       </c>
-      <c r="M6" s="28">
-        <f>L6+((P6-L6)/4)</f>
+      <c r="M6" s="28" t="n">
+        <f aca="false">L6+((P6-L6)/4)</f>
         <v>199.75</v>
       </c>
-      <c r="N6" s="28">
-        <f>M6+((P6-L6)/4)</f>
+      <c r="N6" s="28" t="n">
+        <f aca="false">M6+((P6-L6)/4)</f>
         <v>219.5</v>
       </c>
-      <c r="O6" s="28">
-        <f>N6+((P6-L6)/4)</f>
+      <c r="O6" s="28" t="n">
+        <f aca="false">N6+((P6-L6)/4)</f>
         <v>239.25</v>
       </c>
-      <c r="P6" s="28">
-        <f>Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
+      <c r="P6" s="28" t="n">
+        <f aca="false">Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
         <v>259</v>
       </c>
-      <c r="Q6" s="28">
-        <f>C30</f>
+      <c r="Q6" s="28" t="n">
+        <f aca="false">C30</f>
         <v>272</v>
       </c>
-      <c r="R6" s="28">
-        <f>C30</f>
+      <c r="R6" s="28" t="n">
+        <f aca="false">C30</f>
         <v>272</v>
       </c>
-      <c r="S6" s="28">
-        <f>C30</f>
+      <c r="S6" s="28" t="n">
+        <f aca="false">C30</f>
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="28">
-        <v>0</v>
-      </c>
-      <c r="F7" s="28">
+      <c r="E7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28" t="n">
         <v>15</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="28" t="n">
         <v>24</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="28" t="n">
         <v>41</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="28" t="n">
         <v>52</v>
       </c>
       <c r="J7" s="28"/>
@@ -3019,48 +2603,53 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="30">
-        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
+      <c r="C30" s="30" t="n">
+        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C31">
-        <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>64.91</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="C31" s="0" t="n">
+        <f aca="false">Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
+        <v>67.61</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="30">
-        <f>C30/((5*16)/7)</f>
+      <c r="C32" s="30" t="n">
+        <f aca="false">C30/((5*16)/7)</f>
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="27">
-        <f>E5+C32</f>
+      <c r="C33" s="27" t="n">
+        <f aca="false">E5+C32</f>
         <v>42565.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,229 +23,229 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
-    <t>Paket</t>
-  </si>
-  <si>
-    <t>Aufgabe</t>
-  </si>
-  <si>
-    <t>Aufwand(h)</t>
-  </si>
-  <si>
-    <t>Woche</t>
-  </si>
-  <si>
-    <t>Zugewiesen an</t>
-  </si>
-  <si>
-    <t>Fortschritt in %</t>
-  </si>
-  <si>
-    <t>Datum der Fertigstellung</t>
-  </si>
-  <si>
-    <t>Allgemein</t>
-  </si>
-  <si>
-    <t>Entscheidung Namespace</t>
-  </si>
-  <si>
-    <t>Alle</t>
-  </si>
-  <si>
-    <t>Erstellen der Gradle-Konfiguration</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>objectproperties</t>
-  </si>
-  <si>
-    <t>Implementieren</t>
-  </si>
-  <si>
-    <t>Nicolas</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>graphmodel</t>
-  </si>
-  <si>
-    <t>Interfaces schreiben</t>
-  </si>
-  <si>
-    <t>Jonas F + Lucas</t>
-  </si>
-  <si>
-    <t>Default-Klassen implementieren</t>
-  </si>
-  <si>
-    <t>Jonas F (+ Sven, Nicolas)</t>
-  </si>
-  <si>
-    <t>Layout-Register schreiben</t>
-  </si>
-  <si>
-    <t>Jonas F ( + Nicolas)</t>
-  </si>
-  <si>
-    <t>Serialized-Klassen</t>
-  </si>
-  <si>
-    <t>Jonas F (+ Sven)</t>
-  </si>
-  <si>
-    <t>sugiyama</t>
-  </si>
-  <si>
-    <t>Graph + Impl Interfaces + Vertex/Edge</t>
-  </si>
-  <si>
-    <t>Jonas M + Sven</t>
-  </si>
-  <si>
-    <t>Mokups für einzelne Phasen</t>
-  </si>
-  <si>
-    <t>Constraints implementieren</t>
-  </si>
-  <si>
-    <t>LayoutAlgorithm</t>
-  </si>
-  <si>
-    <t>CycleRemover (Phase 1) + Interface</t>
-  </si>
-  <si>
-    <t>gui</t>
-  </si>
-  <si>
-    <t>GraphFactory</t>
-  </si>
-  <si>
-    <t>ParameterDialogCreator</t>
-  </si>
-  <si>
-    <t>plugin</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Generelle GUI(Incl. Basis-GraphView)</t>
-  </si>
-  <si>
-    <t>LayerAssigner (Phase 2) + Interface</t>
-  </si>
-  <si>
-    <t>CrossMinimizer (Phase 3) + Interface</t>
-  </si>
-  <si>
-    <t>joana</t>
-  </si>
-  <si>
-    <t>Callgraph</t>
-  </si>
-  <si>
-    <t>Methodengraph</t>
-  </si>
-  <si>
-    <t>FieldAccess</t>
-  </si>
-  <si>
-    <t>GraphModel</t>
-  </si>
-  <si>
-    <t>Joana Vertex/Edge</t>
-  </si>
-  <si>
-    <t>Workspace</t>
-  </si>
-  <si>
-    <t>JoanaGraph</t>
-  </si>
-  <si>
-    <t>GraphBuilder-Klassen</t>
-  </si>
-  <si>
-    <t>Nicolas + Lucas</t>
-  </si>
-  <si>
-    <t>Import und Export anstoßen + Dialoge</t>
-  </si>
-  <si>
-    <t>Nicolas + Jonas F</t>
-  </si>
-  <si>
-    <t>Laden der Plugins</t>
-  </si>
-  <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>Jonas F</t>
-  </si>
-  <si>
-    <t>VertexPositioner (Phase 4) + Interface</t>
-  </si>
-  <si>
-    <t>EdgeDrawer (Phase 5) + Interface</t>
-  </si>
-  <si>
-    <t>JoanaPlugin</t>
-  </si>
-  <si>
-    <t>CallgraphLayout/Register/Option</t>
-  </si>
-  <si>
-    <t>MethodengraphLayout/Register/Option</t>
-  </si>
-  <si>
-    <t>GraphView(Navigation und Zoom)</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Workspace-/EntrypointOption</t>
-  </si>
-  <si>
-    <t>StrukturView</t>
-  </si>
-  <si>
-    <t>InformationView</t>
-  </si>
-  <si>
-    <t>Kommandozeilenparameter akzeptieren</t>
-  </si>
-  <si>
-    <t>export</t>
-  </si>
-  <si>
-    <t>Datum:</t>
-  </si>
-  <si>
-    <t>Soll:</t>
-  </si>
-  <si>
-    <t>Ist:</t>
-  </si>
-  <si>
-    <t>Gesamt Aufwand (h):</t>
-  </si>
-  <si>
-    <t>Aktueller Fortschritt (h):</t>
-  </si>
-  <si>
-    <t>Arbeitstage:</t>
-  </si>
-  <si>
-    <t>Vorraussichtliches Fertigstellungsdatum:</t>
+    <t xml:space="preserve">Paket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufgabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufwand(h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zugewiesen an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortschritt in %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum der Fertigstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allgemein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entscheidung Namespace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellen der Gradle-Konfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objectproperties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphmodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfaces schreiben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas F + Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default-Klassen implementieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas F (+ Sven, Nicolas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout-Register schreiben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas F ( + Nicolas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serialized-Klassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas F (+ Sven)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugiyama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph + Impl Interfaces + Vertex/Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas M + Sven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mokups für einzelne Phasen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraints implementieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LayoutAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CycleRemover (Phase 1) + Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GraphFactory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParameterDialogCreator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generelle GUI(Incl. Basis-GraphView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LayerAssigner (Phase 2) + Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CrossMinimizer (Phase 3) + Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callgraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methodengraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldAccess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GraphModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joana Vertex/Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JoanaGraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GraphBuilder-Klassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas + Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import und Export anstoßen + Dialoge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas + Jonas F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laden der Plugins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VertexPositioner (Phase 4) + Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EdgeDrawer (Phase 5) + Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JoanaPlugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CallgraphLayout/Register/Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MethodengraphLayout/Register/Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GraphView(Navigation und Zoom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workspace-/EntrypointOption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StrukturView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InformationView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommandozeilenparameter akzeptieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soll:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt Aufwand (h):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktueller Fortschritt (h):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbeitstage:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorraussichtliches Fertigstellungsdatum:</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YY;@"/>
@@ -292,8 +292,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -662,7 +661,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -885,49 +884,49 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.21.2016</c:v>
+                  <c:v>6/21/2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.23.2016</c:v>
+                  <c:v>6/23/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25.2016</c:v>
+                  <c:v>6/25/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.27.2016</c:v>
+                  <c:v>6/27/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29.2016</c:v>
+                  <c:v>6/29/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1.2016</c:v>
+                  <c:v>7/1/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3.2016</c:v>
+                  <c:v>7/3/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5.2016</c:v>
+                  <c:v>7/5/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7.2016</c:v>
+                  <c:v>7/7/2016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9.2016</c:v>
+                  <c:v>7/9/2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.11.2016</c:v>
+                  <c:v>7/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.13.2016</c:v>
+                  <c:v>7/13/2016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.15.2016</c:v>
+                  <c:v>7/15/2016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.17.2016</c:v>
+                  <c:v>7/17/2016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.19.2016</c:v>
+                  <c:v>7/19/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1172,49 +1171,49 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.21.2016</c:v>
+                  <c:v>6/21/2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.23.2016</c:v>
+                  <c:v>6/23/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25.2016</c:v>
+                  <c:v>6/25/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.27.2016</c:v>
+                  <c:v>6/27/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29.2016</c:v>
+                  <c:v>6/29/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1.2016</c:v>
+                  <c:v>7/1/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3.2016</c:v>
+                  <c:v>7/3/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5.2016</c:v>
+                  <c:v>7/5/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7.2016</c:v>
+                  <c:v>7/7/2016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9.2016</c:v>
+                  <c:v>7/9/2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.11.2016</c:v>
+                  <c:v>7/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.13.2016</c:v>
+                  <c:v>7/13/2016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.15.2016</c:v>
+                  <c:v>7/15/2016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.17.2016</c:v>
+                  <c:v>7/17/2016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.19.2016</c:v>
+                  <c:v>7/19/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1283,11 +1282,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="50421824"/>
-        <c:axId val="64653853"/>
+        <c:axId val="3370260"/>
+        <c:axId val="81742626"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50421824"/>
+        <c:axId val="3370260"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1308,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1323,14 +1322,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64653853"/>
+        <c:crossAx val="81742626"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64653853"/>
+        <c:axId val="81742626"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1358,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1373,8 +1372,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50421824"/>
+        <c:crossAx val="3370260"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1421,9 +1421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>14040</xdr:colOff>
+      <xdr:colOff>13680</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1431,8 +1431,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5135040" y="1494000"/>
-        <a:ext cx="9059760" cy="5525280"/>
+        <a:off x="6480000" y="1494000"/>
+        <a:ext cx="11459520" cy="5524920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1453,20 +1453,20 @@
   <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.984693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.66836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7295918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.9489795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.8178137651822"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,9 +1874,11 @@
         <v>12</v>
       </c>
       <c r="G19" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="H19" s="12" t="n">
+        <v>42552</v>
+      </c>
       <c r="I19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,7 +1964,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
@@ -1984,7 +1986,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
@@ -2006,7 +2008,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
@@ -2451,9 +2453,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.984693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8178137651822"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,7 +2623,7 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>67.61</v>
+        <v>73.21</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Auswertung" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Daten" sheetId="1" r:id="rId1"/>
+    <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,283 +27,246 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
-    <t xml:space="preserve">Paket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufgabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufwand(h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zugewiesen an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortschritt in %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum der Fertigstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allgemein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entscheidung Namespace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellen der Gradle-Konfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objectproperties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">graphmodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interfaces schreiben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas F + Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default-Klassen implementieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas F (+ Sven, Nicolas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layout-Register schreiben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas F ( + Nicolas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serialized-Klassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas F (+ Sven)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugiyama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph + Impl Interfaces + Vertex/Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas M + Sven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mokups für einzelne Phasen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraints implementieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LayoutAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CycleRemover (Phase 1) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphFactory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParameterDialogCreator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generelle GUI(Incl. Basis-GraphView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LayerAssigner (Phase 2) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CrossMinimizer (Phase 3) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callgraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methodengraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FieldAccess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joana Vertex/Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workspace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoanaGraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphBuilder-Klassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas + Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import und Export anstoßen + Dialoge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas + Jonas F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laden der Plugins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VertexPositioner (Phase 4) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EdgeDrawer (Phase 5) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoanaPlugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CallgraphLayout/Register/Option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MethodengraphLayout/Register/Option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphView(Navigation und Zoom)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workspace-/EntrypointOption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrukturView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InformationView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommandozeilenparameter akzeptieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">export</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soll:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamt Aufwand (h):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aktueller Fortschritt (h):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbeitstage:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorraussichtliches Fertigstellungsdatum:</t>
+    <t>Paket</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Aufwand(h)</t>
+  </si>
+  <si>
+    <t>Woche</t>
+  </si>
+  <si>
+    <t>Zugewiesen an</t>
+  </si>
+  <si>
+    <t>Fortschritt in %</t>
+  </si>
+  <si>
+    <t>Datum der Fertigstellung</t>
+  </si>
+  <si>
+    <t>Allgemein</t>
+  </si>
+  <si>
+    <t>Entscheidung Namespace</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Erstellen der Gradle-Konfiguration</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>objectproperties</t>
+  </si>
+  <si>
+    <t>Implementieren</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>graphmodel</t>
+  </si>
+  <si>
+    <t>Interfaces schreiben</t>
+  </si>
+  <si>
+    <t>Jonas F + Lucas</t>
+  </si>
+  <si>
+    <t>Default-Klassen implementieren</t>
+  </si>
+  <si>
+    <t>Jonas F (+ Sven, Nicolas)</t>
+  </si>
+  <si>
+    <t>Layout-Register schreiben</t>
+  </si>
+  <si>
+    <t>Jonas F ( + Nicolas)</t>
+  </si>
+  <si>
+    <t>Serialized-Klassen</t>
+  </si>
+  <si>
+    <t>Jonas F (+ Sven)</t>
+  </si>
+  <si>
+    <t>sugiyama</t>
+  </si>
+  <si>
+    <t>Graph + Impl Interfaces + Vertex/Edge</t>
+  </si>
+  <si>
+    <t>Jonas M + Sven</t>
+  </si>
+  <si>
+    <t>Mokups für einzelne Phasen</t>
+  </si>
+  <si>
+    <t>Constraints implementieren</t>
+  </si>
+  <si>
+    <t>LayoutAlgorithm</t>
+  </si>
+  <si>
+    <t>CycleRemover (Phase 1) + Interface</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>GraphFactory</t>
+  </si>
+  <si>
+    <t>ParameterDialogCreator</t>
+  </si>
+  <si>
+    <t>plugin</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Generelle GUI(Incl. Basis-GraphView)</t>
+  </si>
+  <si>
+    <t>LayerAssigner (Phase 2) + Interface</t>
+  </si>
+  <si>
+    <t>CrossMinimizer (Phase 3) + Interface</t>
+  </si>
+  <si>
+    <t>joana</t>
+  </si>
+  <si>
+    <t>Callgraph</t>
+  </si>
+  <si>
+    <t>Methodengraph</t>
+  </si>
+  <si>
+    <t>FieldAccess</t>
+  </si>
+  <si>
+    <t>GraphModel</t>
+  </si>
+  <si>
+    <t>Joana Vertex/Edge</t>
+  </si>
+  <si>
+    <t>Workspace</t>
+  </si>
+  <si>
+    <t>JoanaGraph</t>
+  </si>
+  <si>
+    <t>GraphBuilder-Klassen</t>
+  </si>
+  <si>
+    <t>Nicolas + Lucas</t>
+  </si>
+  <si>
+    <t>Import und Export anstoßen + Dialoge</t>
+  </si>
+  <si>
+    <t>Nicolas + Jonas F</t>
+  </si>
+  <si>
+    <t>Laden der Plugins</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>Jonas F</t>
+  </si>
+  <si>
+    <t>VertexPositioner (Phase 4) + Interface</t>
+  </si>
+  <si>
+    <t>EdgeDrawer (Phase 5) + Interface</t>
+  </si>
+  <si>
+    <t>JoanaPlugin</t>
+  </si>
+  <si>
+    <t>CallgraphLayout/Register/Option</t>
+  </si>
+  <si>
+    <t>MethodengraphLayout/Register/Option</t>
+  </si>
+  <si>
+    <t>GraphView(Navigation und Zoom)</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Workspace-/EntrypointOption</t>
+  </si>
+  <si>
+    <t>StrukturView</t>
+  </si>
+  <si>
+    <t>InformationView</t>
+  </si>
+  <si>
+    <t>Kommandozeilenparameter akzeptieren</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>Datum:</t>
+  </si>
+  <si>
+    <t>Soll:</t>
+  </si>
+  <si>
+    <t>Ist:</t>
+  </si>
+  <si>
+    <t>Gesamt Aufwand (h):</t>
+  </si>
+  <si>
+    <t>Aktueller Fortschritt (h):</t>
+  </si>
+  <si>
+    <t>Arbeitstage:</t>
+  </si>
+  <si>
+    <t>Vorraussichtliches Fertigstellungsdatum:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY;@"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,285 +278,257 @@
     </fill>
   </fills>
   <borders count="17">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -648,15 +587,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -665,26 +622,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="de-DE" sz="1400" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -694,33 +651,25 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Soll"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Soll</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Soll</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -730,212 +679,331 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6/21/2016</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/23/2016</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/25/2016</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6/27/2016</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6/29/2016</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7/1/2016</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7/3/2016</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7/5/2016</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7/7/2016</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7/9/2016</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7/11/2016</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7/13/2016</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7/15/2016</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7/17/2016</c:v>
+                  <c:v>42568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7/19/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -953,10 +1021,10 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125.333333333333</c:v>
+                  <c:v>125.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.666666666667</c:v>
+                  <c:v>152.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>180</c:v>
@@ -991,23 +1059,12 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Ist"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ist</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Ist</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1017,212 +1074,331 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6/21/2016</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/23/2016</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/25/2016</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6/27/2016</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6/29/2016</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7/1/2016</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7/3/2016</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7/5/2016</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7/7/2016</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7/9/2016</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7/11/2016</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7/13/2016</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7/15/2016</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7/17/2016</c:v>
+                  <c:v>42568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7/19/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1240,40 +1416,21 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1282,54 +1439,57 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="3370260"/>
-        <c:axId val="81742626"/>
+        <c:smooth val="0"/>
+        <c:axId val="-844831216"/>
+        <c:axId val="-844832304"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="3370260"/>
+      <c:dateAx>
+        <c:axId val="-844831216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81742626"/>
+        <c:crossAx val="-844832304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="81742626"/>
+        <c:axId val="-844832304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1499,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1356,23 +1516,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3370260"/>
+        <c:crossAx val="-844831216"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1385,6 +1547,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1395,23 +1558,29 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1425,14 +1594,14 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm 5"/>
+        <xdr:cNvPr id="2" name="Diagramm 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6480000" y="1494000"/>
-        <a:ext cx="11459520" cy="5524920"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1445,31 +1614,289 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.8178137651822"/>
+    <col min="1" max="1" width="10.85546875"/>
+    <col min="2" max="2" width="18.140625"/>
+    <col min="3" max="3" width="39.28515625"/>
+    <col min="4" max="4" width="11.7109375"/>
+    <col min="5" max="5" width="7.7109375"/>
+    <col min="6" max="6" width="25"/>
+    <col min="7" max="7" width="21.140625"/>
+    <col min="8" max="9" width="24.7109375"/>
+    <col min="10" max="1025" width="10.85546875"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,36 +1920,36 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="11">
         <v>100</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="14">
         <v>6</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -1531,364 +1958,364 @@
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="11">
         <v>75</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="17">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>100</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="12">
         <v>42544</v>
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="17">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="11">
         <v>100</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="12">
         <v>42544</v>
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="11">
         <v>100</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="12">
         <v>42550</v>
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="17">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="11">
         <v>90</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="17">
         <v>4</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="11">
         <v>100</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="12">
         <v>42550</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="15">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="11">
         <v>70</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="17">
         <v>9</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="11">
         <v>50</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="17">
         <v>8</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="11">
         <v>0</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="17" t="n">
+      <c r="D13" s="17">
         <v>4</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="11">
         <v>0</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="17">
         <v>2</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="11">
         <v>0</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17" t="n">
+      <c r="D15" s="17">
         <v>7</v>
       </c>
-      <c r="E15" s="15" t="n">
+      <c r="E15" s="15">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="11">
         <v>100</v>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="12">
         <v>42550</v>
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="17">
         <v>5</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="11">
         <v>80</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="17" t="n">
+      <c r="D17" s="17">
         <v>6</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E17" s="18">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="11">
         <v>100</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="12">
         <v>42544</v>
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="17" t="n">
+      <c r="D18" s="17">
         <v>11</v>
       </c>
-      <c r="E18" s="15" t="n">
+      <c r="E18" s="15">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="11">
         <v>50</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17" t="n">
+      <c r="D19" s="17">
         <v>3</v>
       </c>
-      <c r="E19" s="15" t="n">
+      <c r="E19" s="15">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="11">
         <v>100</v>
       </c>
-      <c r="H19" s="12" t="n">
+      <c r="H19" s="12">
         <v>42552</v>
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="17" t="n">
+      <c r="D20" s="17">
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -1897,704 +2324,698 @@
       <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="11">
         <v>30</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="17" t="n">
+      <c r="D21" s="17">
         <v>10</v>
       </c>
-      <c r="E21" s="15" t="n">
+      <c r="E21" s="15">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="11">
         <v>0</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="17" t="n">
+      <c r="D22" s="17">
         <v>10</v>
       </c>
-      <c r="E22" s="15" t="n">
+      <c r="E22" s="15">
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="11">
         <v>0</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17" t="n">
+      <c r="D23" s="17">
         <v>5</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E23" s="15">
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="11">
         <v>20</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="17" t="n">
+      <c r="D24" s="17">
         <v>5</v>
       </c>
-      <c r="E24" s="15" t="n">
+      <c r="E24" s="15">
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="11">
         <v>20</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="17" t="n">
+      <c r="D25" s="17">
         <v>3</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="15">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="11">
         <v>20</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="17" t="n">
+      <c r="D26" s="17">
         <v>4</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E26" s="15">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="11">
         <v>0</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="17" t="n">
+      <c r="D27" s="17">
         <v>4</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E27" s="15">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="11">
         <v>100</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="17" t="n">
+      <c r="D28" s="17">
         <v>5</v>
       </c>
-      <c r="E28" s="15" t="n">
+      <c r="E28" s="15">
         <v>2</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="11" t="n">
+      <c r="G28" s="11">
         <v>50</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="17" t="n">
+      <c r="D29" s="17">
         <v>2</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E29" s="15">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="11">
         <v>80</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="17" t="n">
+      <c r="D30" s="17">
         <v>12</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="15">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="11" t="n">
+      <c r="G30" s="11">
         <v>0</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="17" t="n">
+      <c r="D31" s="17">
         <v>5</v>
       </c>
-      <c r="E31" s="15" t="n">
+      <c r="E31" s="15">
         <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="11" t="n">
-        <v>0</v>
+      <c r="G31" s="11">
+        <v>100</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="17" t="n">
+      <c r="D32" s="17">
         <v>6</v>
       </c>
-      <c r="E32" s="15" t="n">
+      <c r="E32" s="15">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="11">
         <v>0</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="17" t="n">
+      <c r="D33" s="17">
         <v>11</v>
       </c>
-      <c r="E33" s="15" t="n">
+      <c r="E33" s="15">
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="11">
         <v>1</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="17" t="n">
+      <c r="D34" s="17">
         <v>10</v>
       </c>
-      <c r="E34" s="15" t="n">
+      <c r="E34" s="15">
         <v>3</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="11" t="n">
+      <c r="G34" s="11">
         <v>0</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="17" t="n">
+      <c r="D35" s="17">
         <v>10</v>
       </c>
-      <c r="E35" s="15" t="n">
+      <c r="E35" s="15">
         <v>3</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="11">
         <v>0</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="17" t="n">
+      <c r="D36" s="17">
         <v>6</v>
       </c>
-      <c r="E36" s="15" t="n">
+      <c r="E36" s="15">
         <v>3</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="11">
         <v>0</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="17" t="n">
+      <c r="D37" s="17">
         <v>13</v>
       </c>
-      <c r="E37" s="15" t="n">
+      <c r="E37" s="15">
         <v>3</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="11" t="n">
+      <c r="G37" s="11">
         <v>0</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="17" t="n">
+      <c r="D38" s="17">
         <v>13</v>
       </c>
-      <c r="E38" s="15" t="n">
+      <c r="E38" s="15">
         <v>3</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="11" t="n">
+      <c r="G38" s="11">
         <v>0</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="17" t="n">
+      <c r="D39" s="17">
         <v>10</v>
       </c>
-      <c r="E39" s="15" t="n">
+      <c r="E39" s="15">
         <v>3</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="11" t="n">
+      <c r="G39" s="11">
         <v>0</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="17" t="n">
+      <c r="D40" s="17">
         <v>7</v>
       </c>
-      <c r="E40" s="15" t="n">
+      <c r="E40" s="15">
         <v>3</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="11" t="n">
+      <c r="G40" s="11">
         <v>0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="17" t="n">
+      <c r="D41" s="17">
         <v>4</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="E41" s="15">
         <v>3</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="11" t="n">
+      <c r="G41" s="11">
         <v>0</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="17" t="n">
+      <c r="D42" s="17">
         <v>4</v>
       </c>
-      <c r="E42" s="15" t="n">
+      <c r="E42" s="15">
         <v>4</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="11" t="n">
+      <c r="G42" s="11">
         <v>0</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="17" t="n">
+      <c r="D43" s="17">
         <v>4</v>
       </c>
-      <c r="E43" s="15" t="n">
+      <c r="E43" s="15">
         <v>4</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="11" t="n">
+      <c r="G43" s="11">
         <v>0</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="17" t="n">
+      <c r="D44" s="17">
         <v>4</v>
       </c>
-      <c r="E44" s="15" t="n">
+      <c r="E44" s="15">
         <v>4</v>
       </c>
       <c r="F44" s="19"/>
-      <c r="G44" s="11" t="n">
+      <c r="G44" s="11">
         <v>0</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="22" t="n">
+      <c r="D45" s="22">
         <v>7</v>
       </c>
-      <c r="E45" s="23" t="n">
+      <c r="E45" s="23">
         <v>4</v>
       </c>
       <c r="F45" s="24"/>
-      <c r="G45" s="25" t="n">
+      <c r="G45" s="25">
         <v>0</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8178137651822"/>
+    <col min="1" max="1" width="10.85546875"/>
+    <col min="2" max="2" width="39.28515625"/>
+    <col min="3" max="1025" width="10.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G1" s="27"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="s">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="27">
         <v>42542</v>
       </c>
-      <c r="F5" s="27" t="n">
+      <c r="F5" s="27">
         <v>42544</v>
       </c>
-      <c r="G5" s="27" t="n">
+      <c r="G5" s="27">
         <v>42546</v>
       </c>
-      <c r="H5" s="27" t="n">
+      <c r="H5" s="27">
         <v>42548</v>
       </c>
-      <c r="I5" s="27" t="n">
+      <c r="I5" s="27">
         <v>42550</v>
       </c>
-      <c r="J5" s="27" t="n">
+      <c r="J5" s="27">
         <v>42552</v>
       </c>
-      <c r="K5" s="27" t="n">
+      <c r="K5" s="27">
         <v>42554</v>
       </c>
-      <c r="L5" s="27" t="n">
+      <c r="L5" s="27">
         <v>42556</v>
       </c>
-      <c r="M5" s="27" t="n">
+      <c r="M5" s="27">
         <v>42558</v>
       </c>
-      <c r="N5" s="27" t="n">
+      <c r="N5" s="27">
         <v>42560</v>
       </c>
-      <c r="O5" s="27" t="n">
+      <c r="O5" s="27">
         <v>42562</v>
       </c>
-      <c r="P5" s="27" t="n">
+      <c r="P5" s="27">
         <v>42564</v>
       </c>
-      <c r="Q5" s="27" t="n">
+      <c r="Q5" s="27">
         <v>42566</v>
       </c>
-      <c r="R5" s="27" t="n">
+      <c r="R5" s="27">
         <v>42568</v>
       </c>
-      <c r="S5" s="27" t="n">
+      <c r="S5" s="27">
         <v>42570</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="28" t="n">
+      <c r="E6" s="28">
         <v>0</v>
       </c>
-      <c r="F6" s="28" t="n">
-        <f aca="false">E6+(I6/4)</f>
+      <c r="F6" s="28">
+        <f>E6+(I6/4)</f>
         <v>24.5</v>
       </c>
-      <c r="G6" s="28" t="n">
-        <f aca="false">F6+(I6/4)</f>
+      <c r="G6" s="28">
+        <f>F6+(I6/4)</f>
         <v>49</v>
       </c>
-      <c r="H6" s="28" t="n">
-        <f aca="false">G6+(I6/4)</f>
+      <c r="H6" s="28">
+        <f>G6+(I6/4)</f>
         <v>73.5</v>
       </c>
-      <c r="I6" s="28" t="n">
-        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
+      <c r="I6" s="28">
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
         <v>98</v>
       </c>
-      <c r="J6" s="28" t="n">
-        <f aca="false">I6+((L6-I6)/3)</f>
-        <v>125.333333333333</v>
-      </c>
-      <c r="K6" s="28" t="n">
-        <f aca="false">J6+((L6-I6)/3)</f>
-        <v>152.666666666667</v>
-      </c>
-      <c r="L6" s="28" t="n">
-        <f aca="false">Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
+      <c r="J6" s="28">
+        <f>I6+((L6-I6)/3)</f>
+        <v>125.33333333333333</v>
+      </c>
+      <c r="K6" s="28">
+        <f>J6+((L6-I6)/3)</f>
+        <v>152.66666666666666</v>
+      </c>
+      <c r="L6" s="28">
+        <f>Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
         <v>180</v>
       </c>
-      <c r="M6" s="28" t="n">
-        <f aca="false">L6+((P6-L6)/4)</f>
+      <c r="M6" s="28">
+        <f>L6+((P6-L6)/4)</f>
         <v>199.75</v>
       </c>
-      <c r="N6" s="28" t="n">
-        <f aca="false">M6+((P6-L6)/4)</f>
+      <c r="N6" s="28">
+        <f>M6+((P6-L6)/4)</f>
         <v>219.5</v>
       </c>
-      <c r="O6" s="28" t="n">
-        <f aca="false">N6+((P6-L6)/4)</f>
+      <c r="O6" s="28">
+        <f>N6+((P6-L6)/4)</f>
         <v>239.25</v>
       </c>
-      <c r="P6" s="28" t="n">
-        <f aca="false">Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
+      <c r="P6" s="28">
+        <f>Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
         <v>259</v>
       </c>
-      <c r="Q6" s="28" t="n">
-        <f aca="false">C30</f>
+      <c r="Q6" s="28">
+        <f>C30</f>
         <v>272</v>
       </c>
-      <c r="R6" s="28" t="n">
-        <f aca="false">C30</f>
+      <c r="R6" s="28">
+        <f>C30</f>
         <v>272</v>
       </c>
-      <c r="S6" s="28" t="n">
-        <f aca="false">C30</f>
+      <c r="S6" s="28">
+        <f>C30</f>
         <v>272</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="28" t="n">
+      <c r="E7" s="28">
         <v>0</v>
       </c>
-      <c r="F7" s="28" t="n">
+      <c r="F7" s="28">
         <v>15</v>
       </c>
-      <c r="G7" s="28" t="n">
+      <c r="G7" s="28">
         <v>24</v>
       </c>
-      <c r="H7" s="28" t="n">
+      <c r="H7" s="28">
         <v>41</v>
       </c>
-      <c r="I7" s="28" t="n">
+      <c r="I7" s="28">
         <v>52</v>
       </c>
-      <c r="J7" s="28"/>
+      <c r="J7" s="28">
+        <v>73</v>
+      </c>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -2605,53 +3026,48 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D8" s="29"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="30" t="n">
-        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
+      <c r="C30" s="30">
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
         <v>272</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <f aca="false">Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>73.21</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="C31">
+        <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
+        <v>78.209999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="30" t="n">
-        <f aca="false">C30/((5*16)/7)</f>
+      <c r="C32" s="30">
+        <f>C30/((5*16)/7)</f>
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="27" t="n">
-        <f aca="false">E5+C32</f>
+      <c r="C33" s="27">
+        <f>E5+C32</f>
         <v>42565.8</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>Paket</t>
   </si>
@@ -1440,11 +1440,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-844831216"/>
-        <c:axId val="-844832304"/>
+        <c:axId val="1872349488"/>
+        <c:axId val="1872344048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-844831216"/>
+        <c:axId val="1872349488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,14 +1482,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-844832304"/>
+        <c:crossAx val="1872344048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-844832304"/>
+        <c:axId val="1872344048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1534,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-844831216"/>
+        <c:crossAx val="1872349488"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,8 +2272,8 @@
       <c r="D18" s="17">
         <v>11</v>
       </c>
-      <c r="E18" s="15">
-        <v>1</v>
+      <c r="E18" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>12</v>
@@ -2325,7 +2325,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="11">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
@@ -2586,10 +2586,10 @@
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G32" s="11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
@@ -2867,7 +2867,7 @@
   <dimension ref="B1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="C31">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>78.209999999999994</v>
+        <v>87.509999999999991</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas_000\Documents\Studium\PSE - Visualisierung von Programmgraphen\PSEDokumente\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -177,9 +177,6 @@
     <t>GraphBuilder-Klassen</t>
   </si>
   <si>
-    <t>Nicolas + Lucas</t>
-  </si>
-  <si>
     <t>Import und Export anstoßen + Dialoge</t>
   </si>
   <si>
@@ -250,12 +247,15 @@
   </si>
   <si>
     <t>Vorraussichtliches Fertigstellungsdatum:</t>
+  </si>
+  <si>
+    <t>Nicolas + Lucas (+Jonas F)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -651,7 +651,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -686,7 +685,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -695,14 +693,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -711,14 +709,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -727,14 +725,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -743,14 +741,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -759,14 +757,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -775,14 +773,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -791,14 +789,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -807,14 +805,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -823,14 +821,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -839,14 +837,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -855,14 +853,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -871,14 +869,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -887,14 +885,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -903,14 +901,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -919,8 +917,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1054,6 +1053,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1081,7 +1085,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1090,14 +1093,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1106,14 +1109,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1122,14 +1125,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1138,14 +1141,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1154,14 +1157,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1170,14 +1173,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1186,14 +1189,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1202,14 +1205,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1218,14 +1221,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1234,14 +1237,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1250,14 +1253,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1266,14 +1269,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1282,14 +1285,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1298,14 +1301,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1314,8 +1317,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-2D21-4B87-AA9C-14C8F93AF4E8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1422,6 +1426,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1547,7 +1556,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1615,7 +1623,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1690,6 +1698,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1725,6 +1750,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1880,23 +1922,23 @@
   <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875"/>
-    <col min="2" max="2" width="18.140625"/>
-    <col min="3" max="3" width="39.28515625"/>
-    <col min="4" max="4" width="11.7109375"/>
-    <col min="5" max="5" width="7.7109375"/>
+    <col min="1" max="1" width="10.88671875"/>
+    <col min="2" max="2" width="18.109375"/>
+    <col min="3" max="3" width="39.33203125"/>
+    <col min="4" max="4" width="11.6640625"/>
+    <col min="5" max="5" width="7.6640625"/>
     <col min="6" max="6" width="25"/>
-    <col min="7" max="7" width="21.140625"/>
-    <col min="8" max="9" width="24.7109375"/>
-    <col min="10" max="1025" width="10.85546875"/>
+    <col min="7" max="7" width="21.109375"/>
+    <col min="8" max="9" width="24.6640625"/>
+    <col min="10" max="1025" width="10.88671875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +1962,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1942,7 +1984,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +2006,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1988,7 +2030,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2054,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -2036,7 +2078,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2058,7 +2100,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
@@ -2082,7 +2124,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -2104,7 +2146,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -2126,7 +2168,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
@@ -2148,7 +2190,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
@@ -2170,7 +2212,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -2192,7 +2234,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
@@ -2216,7 +2258,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2238,7 +2280,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2262,7 +2304,7 @@
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
@@ -2284,7 +2326,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
@@ -2308,7 +2350,7 @@
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
@@ -2330,7 +2372,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
@@ -2352,7 +2394,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
@@ -2374,7 +2416,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
@@ -2396,7 +2438,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
@@ -2418,7 +2460,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
@@ -2440,7 +2482,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
@@ -2462,7 +2504,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
@@ -2484,7 +2526,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
@@ -2506,7 +2548,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
@@ -2528,7 +2570,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
@@ -2542,20 +2584,20 @@
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G30" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="17">
         <v>5</v>
@@ -2564,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="11">
         <v>100</v>
@@ -2572,12 +2614,12 @@
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="17">
         <v>6</v>
@@ -2594,9 +2636,9 @@
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>14</v>
@@ -2608,20 +2650,20 @@
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="11">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="17">
         <v>10</v>
@@ -2636,12 +2678,12 @@
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="17">
         <v>10</v>
@@ -2656,12 +2698,12 @@
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="17">
         <v>6</v>
@@ -2676,12 +2718,12 @@
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="17">
         <v>13</v>
@@ -2696,12 +2738,12 @@
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" s="17">
         <v>13</v>
@@ -2716,12 +2758,12 @@
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="17">
         <v>10</v>
@@ -2736,12 +2778,12 @@
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="17">
         <v>7</v>
@@ -2756,12 +2798,12 @@
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="17">
         <v>4</v>
@@ -2776,12 +2818,12 @@
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="17">
         <v>4</v>
@@ -2796,12 +2838,12 @@
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="17">
         <v>4</v>
@@ -2816,12 +2858,12 @@
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="17">
         <v>4</v>
@@ -2836,9 +2878,9 @@
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>14</v>
@@ -2867,22 +2909,22 @@
   <dimension ref="B1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875"/>
-    <col min="2" max="2" width="39.28515625"/>
-    <col min="3" max="1025" width="10.85546875"/>
+    <col min="1" max="1" width="10.88671875"/>
+    <col min="2" max="2" width="39.33203125"/>
+    <col min="3" max="1025" width="10.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
       <c r="G1" s="27"/>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="27">
         <v>42542</v>
@@ -2930,9 +2972,9 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="28">
         <v>0</v>
@@ -2994,9 +3036,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="28">
         <v>0</v>
@@ -3026,39 +3068,39 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D8" s="29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="30">
         <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>87.509999999999991</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+        <v>97.399999999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="30">
         <f>C30/((5*16)/7)</f>
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="27">
         <f>E5+C32</f>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas_000\Documents\Studium\PSE - Visualisierung von Programmgraphen\PSEDokumente\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>Paket</t>
   </si>
@@ -90,102 +90,108 @@
     <t>Default-Klassen implementieren</t>
   </si>
   <si>
+    <t>Jonas F (+ Sven, Nicolas)</t>
+  </si>
+  <si>
+    <t>Layout-Register schreiben</t>
+  </si>
+  <si>
+    <t>Jonas F ( + Nicolas)</t>
+  </si>
+  <si>
+    <t>Serialized-Klassen</t>
+  </si>
+  <si>
+    <t>Jonas F (+ Sven)</t>
+  </si>
+  <si>
+    <t>sugiyama</t>
+  </si>
+  <si>
+    <t>Graph + Impl Interfaces + Vertex/Edge</t>
+  </si>
+  <si>
+    <t>Jonas M + Sven</t>
+  </si>
+  <si>
+    <t>Mokups für einzelne Phasen</t>
+  </si>
+  <si>
+    <t>Constraints implementieren</t>
+  </si>
+  <si>
+    <t>LayoutAlgorithm</t>
+  </si>
+  <si>
+    <t>CycleRemover (Phase 1) + Interface</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>GraphFactory</t>
+  </si>
+  <si>
+    <t>ParameterDialogCreator</t>
+  </si>
+  <si>
+    <t>plugin</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Generelle GUI(Incl. Basis-GraphView)</t>
+  </si>
+  <si>
+    <t>LayerAssigner (Phase 2) + Interface</t>
+  </si>
+  <si>
+    <t>CrossMinimizer (Phase 3) + Interface</t>
+  </si>
+  <si>
+    <t>joana</t>
+  </si>
+  <si>
+    <t>Callgraph</t>
+  </si>
+  <si>
+    <t>Methodengraph</t>
+  </si>
+  <si>
+    <t>FieldAccess</t>
+  </si>
+  <si>
+    <t>GraphModel</t>
+  </si>
+  <si>
+    <t>Joana Vertex/Edge</t>
+  </si>
+  <si>
+    <t>Workspace</t>
+  </si>
+  <si>
+    <t>JoanaGraph</t>
+  </si>
+  <si>
+    <t>GraphBuilder-Klassen</t>
+  </si>
+  <si>
+    <t>Import und Export anstoßen + Dialoge</t>
+  </si>
+  <si>
+    <t>Nicolas + Jonas F</t>
+  </si>
+  <si>
+    <t>Laden der Plugins</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
     <t>Jonas F</t>
   </si>
   <si>
-    <t>Layout-Register schreiben</t>
-  </si>
-  <si>
-    <t>Serialized-Klassen</t>
-  </si>
-  <si>
-    <t>sugiyama</t>
-  </si>
-  <si>
-    <t>Graph + Impl Interfaces + Vertex/Edge</t>
-  </si>
-  <si>
-    <t>Jonas M + Sven</t>
-  </si>
-  <si>
-    <t>Mokups für einzelne Phasen</t>
-  </si>
-  <si>
-    <t>Constraints implementieren</t>
-  </si>
-  <si>
-    <t>LayoutAlgorithm</t>
-  </si>
-  <si>
-    <t>CycleRemover (Phase 1) + Interface</t>
-  </si>
-  <si>
-    <t>gui</t>
-  </si>
-  <si>
-    <t>GraphFactory</t>
-  </si>
-  <si>
-    <t>ParameterDialogCreator</t>
-  </si>
-  <si>
-    <t>plugin</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Generelle GUI(Incl. Basis-GraphView)</t>
-  </si>
-  <si>
-    <t>LayerAssigner (Phase 2) + Interface</t>
-  </si>
-  <si>
-    <t>CrossMinimizer (Phase 3) + Interface</t>
-  </si>
-  <si>
-    <t>joana</t>
-  </si>
-  <si>
-    <t>Callgraph</t>
-  </si>
-  <si>
-    <t>Methodengraph</t>
-  </si>
-  <si>
-    <t>FieldAccess</t>
-  </si>
-  <si>
-    <t>GraphModel</t>
-  </si>
-  <si>
-    <t>Joana Vertex/Edge</t>
-  </si>
-  <si>
-    <t>Workspace</t>
-  </si>
-  <si>
-    <t>JoanaGraph</t>
-  </si>
-  <si>
-    <t>GraphBuilder-Klassen</t>
-  </si>
-  <si>
-    <t>Nicolas + Lucas</t>
-  </si>
-  <si>
-    <t>Import und Export anstoßen + Dialoge</t>
-  </si>
-  <si>
-    <t>Nicolas + Jonas F</t>
-  </si>
-  <si>
-    <t>Laden der Plugins</t>
-  </si>
-  <si>
-    <t>import</t>
-  </si>
-  <si>
     <t>VertexPositioner (Phase 4) + Interface</t>
   </si>
   <si>
@@ -243,19 +249,13 @@
     <t>Vorraussichtliches Fertigstellungsdatum:</t>
   </si>
   <si>
-    <t>Jonas F (+ Sven)</t>
-  </si>
-  <si>
-    <t>Jonas F (+ Sven, Nicolas)</t>
-  </si>
-  <si>
-    <t>Jonas F ( + Nicolas)</t>
+    <t>Nicolas + Lucas (+Jonas F)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
@@ -358,6 +358,15 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -459,15 +468,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -477,53 +477,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -547,7 +546,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF8B8B8B"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -555,7 +554,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFE0E5EB"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -578,7 +577,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -610,53 +609,49 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
+              <a:rPr lang="de-DE" sz="1400" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
               <a:t>Fortschritt</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -671,27 +666,20 @@
             <c:v>Soll</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="28440">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:dLbls>
@@ -703,9 +691,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -716,9 +707,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -729,9 +723,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -742,9 +739,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -755,9 +755,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -768,9 +771,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -781,9 +787,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -794,9 +803,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -807,9 +819,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -820,9 +835,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -833,9 +851,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -846,9 +867,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -859,9 +883,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -872,9 +899,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -885,9 +915,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -897,35 +930,13 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -1042,6 +1053,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1050,27 +1066,20 @@
             <c:v>Ist</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="28440">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:dLbls>
@@ -1082,9 +1091,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1095,9 +1107,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1108,9 +1123,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1121,9 +1139,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1134,9 +1155,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1147,9 +1171,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1160,9 +1187,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1173,9 +1203,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1186,9 +1219,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1199,9 +1235,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1212,9 +1251,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1225,9 +1267,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1238,9 +1283,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1251,9 +1299,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1264,9 +1315,12 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1276,35 +1330,13 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -1384,10 +1416,21 @@
                 <c:pt idx="3">
                   <c:v>41</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1397,13 +1440,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1646619872"/>
-        <c:axId val="1646624224"/>
+        <c:axId val="1872349488"/>
+        <c:axId val="1872344048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1646619872"/>
+        <c:axId val="1872349488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,46 +1464,41 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9360">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646624224"/>
+        <c:crossAx val="1872344048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1646624224"/>
+        <c:axId val="1872344048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,59 +1506,52 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9360">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln>
+          <a:ln w="6480">
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646619872"/>
+        <c:crossAx val="1872349488"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -1524,28 +1562,7 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -1553,29 +1570,15 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="9360">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1589,15 +1592,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>44280</xdr:colOff>
+      <xdr:colOff>98280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>722820</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13680</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1620,7 +1623,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1695,6 +1698,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1730,6 +1750,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1884,24 +1921,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="17.7109375"/>
-    <col min="3" max="3" width="37.7109375"/>
-    <col min="4" max="4" width="11.5703125"/>
-    <col min="5" max="5" width="7.42578125"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125"/>
-    <col min="8" max="9" width="23.7109375"/>
-    <col min="10" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="10.88671875"/>
+    <col min="2" max="2" width="18.109375"/>
+    <col min="3" max="3" width="39.33203125"/>
+    <col min="4" max="4" width="11.6640625"/>
+    <col min="5" max="5" width="7.6640625"/>
+    <col min="6" max="6" width="25"/>
+    <col min="7" max="7" width="21.109375"/>
+    <col min="8" max="9" width="24.6640625"/>
+    <col min="10" max="1025" width="10.88671875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1923,939 +1960,943 @@
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>100</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="14">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>75</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="17">
         <v>4</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>100</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="12">
         <v>42544</v>
       </c>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="17">
         <v>5</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="11">
         <v>100</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="12">
         <v>42544</v>
       </c>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="11">
         <v>100</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="12">
         <v>42550</v>
       </c>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="17">
         <v>8</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11">
+        <v>90</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="17">
+        <v>4</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="11">
+        <v>100</v>
+      </c>
+      <c r="H9" s="12">
+        <v>42550</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="11">
+        <v>70</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="17">
+        <v>9</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="11">
+        <v>50</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="17">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="17">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="17">
+        <v>7</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="11">
+        <v>100</v>
+      </c>
+      <c r="H15" s="12">
+        <v>42550</v>
+      </c>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="17">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="11">
         <v>80</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="11">
+        <v>100</v>
+      </c>
+      <c r="H17" s="12">
+        <v>42544</v>
+      </c>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="17">
+        <v>11</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="11">
+        <v>50</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="17">
+        <v>3</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="11">
+        <v>100</v>
+      </c>
+      <c r="H19" s="12">
+        <v>42552</v>
+      </c>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="17">
+        <v>11</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="11">
+        <v>60</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="17">
+        <v>10</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="17">
+        <v>10</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="17">
+        <v>5</v>
+      </c>
+      <c r="E23" s="15">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="11">
+        <v>20</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="17">
+        <v>5</v>
+      </c>
+      <c r="E24" s="15">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="11">
+        <v>20</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="17">
+        <v>3</v>
+      </c>
+      <c r="E25" s="15">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="11">
+        <v>20</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="17">
         <v>4</v>
       </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E26" s="15">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="17">
+        <v>4</v>
+      </c>
+      <c r="E27" s="15">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="11">
+        <v>100</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="17">
+        <v>5</v>
+      </c>
+      <c r="E28" s="15">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="11">
+        <v>50</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="17">
+        <v>2</v>
+      </c>
+      <c r="E29" s="15">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="11">
+        <v>80</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="17">
+        <v>12</v>
+      </c>
+      <c r="E30" s="15">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G30" s="11">
+        <v>10</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="17">
+        <v>5</v>
+      </c>
+      <c r="E31" s="15">
+        <v>2</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="11">
         <v>100</v>
       </c>
-      <c r="H9" s="28">
-        <v>42550</v>
-      </c>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="17">
+        <v>6</v>
+      </c>
+      <c r="E32" s="15">
         <v>2</v>
       </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="10">
-        <v>70</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="14">
-        <v>9</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="F32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="11">
+        <v>100</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="17">
+        <v>11</v>
+      </c>
+      <c r="E33" s="15">
+        <v>2</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="11">
+        <v>80</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="10">
+      <c r="C34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="17">
         <v>10</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="14">
-        <v>8</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E34" s="15">
+        <v>3</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="10">
+      <c r="C35" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="17">
+        <v>10</v>
+      </c>
+      <c r="E35" s="15">
+        <v>3</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="11">
         <v>0</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="17">
+        <v>6</v>
+      </c>
+      <c r="E36" s="15">
+        <v>3</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="17">
+        <v>13</v>
+      </c>
+      <c r="E37" s="15">
+        <v>3</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="17">
+        <v>13</v>
+      </c>
+      <c r="E38" s="15">
+        <v>3</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="17">
+        <v>10</v>
+      </c>
+      <c r="E39" s="15">
+        <v>3</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="17">
+        <v>7</v>
+      </c>
+      <c r="E40" s="15">
+        <v>3</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="17">
         <v>4</v>
       </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="E41" s="15">
+        <v>3</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="11">
         <v>0</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="H41" s="12"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="17">
+        <v>4</v>
+      </c>
+      <c r="E42" s="15">
+        <v>4</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="11">
         <v>0</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="17">
+        <v>4</v>
+      </c>
+      <c r="E43" s="15">
+        <v>4</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="17">
+        <v>4</v>
+      </c>
+      <c r="E44" s="15">
+        <v>4</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="22">
         <v>7</v>
       </c>
-      <c r="E15" s="12">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="E45" s="23">
+        <v>4</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25">
         <v>0</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="14">
-        <v>5</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="10">
-        <v>75</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="14">
-        <v>6</v>
-      </c>
-      <c r="E17" s="15">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="10">
-        <v>100</v>
-      </c>
-      <c r="H17" s="28">
-        <v>42544</v>
-      </c>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="14">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="10">
-        <v>50</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="14">
-        <v>3</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="31"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="14">
-        <v>11</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="10">
-        <v>30</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="31"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="14">
-        <v>10</v>
-      </c>
-      <c r="E21" s="12">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="31"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="14">
-        <v>10</v>
-      </c>
-      <c r="E22" s="12">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="31"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="14">
-        <v>5</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="31"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="14">
-        <v>5</v>
-      </c>
-      <c r="E24" s="12">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="14">
-        <v>3</v>
-      </c>
-      <c r="E25" s="12">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="31"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="14">
-        <v>4</v>
-      </c>
-      <c r="E26" s="12">
-        <v>2</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="14">
-        <v>4</v>
-      </c>
-      <c r="E27" s="12">
-        <v>2</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="10">
-        <v>80</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="14">
-        <v>5</v>
-      </c>
-      <c r="E28" s="12">
-        <v>2</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="14">
-        <v>2</v>
-      </c>
-      <c r="E29" s="12">
-        <v>2</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="14">
-        <v>12</v>
-      </c>
-      <c r="E30" s="12">
-        <v>2</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="14">
-        <v>5</v>
-      </c>
-      <c r="E31" s="12">
-        <v>2</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="14">
-        <v>6</v>
-      </c>
-      <c r="E32" s="12">
-        <v>2</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="31"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="14">
-        <v>11</v>
-      </c>
-      <c r="E33" s="12">
-        <v>2</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="31"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="14">
-        <v>10</v>
-      </c>
-      <c r="E34" s="12">
-        <v>3</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="14">
-        <v>10</v>
-      </c>
-      <c r="E35" s="12">
-        <v>3</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="31"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="14">
-        <v>6</v>
-      </c>
-      <c r="E36" s="12">
-        <v>3</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="14">
-        <v>13</v>
-      </c>
-      <c r="E37" s="12">
-        <v>3</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="31"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="14">
-        <v>13</v>
-      </c>
-      <c r="E38" s="12">
-        <v>3</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="31"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="14">
-        <v>10</v>
-      </c>
-      <c r="E39" s="12">
-        <v>3</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="10">
-        <v>0</v>
-      </c>
-      <c r="H39" s="28"/>
-      <c r="I39" s="31"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="14">
-        <v>7</v>
-      </c>
-      <c r="E40" s="12">
-        <v>3</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="10">
-        <v>0</v>
-      </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="14">
-        <v>4</v>
-      </c>
-      <c r="E41" s="12">
-        <v>3</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="10">
-        <v>0</v>
-      </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="31"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="14">
-        <v>4</v>
-      </c>
-      <c r="E42" s="12">
-        <v>4</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="10">
-        <v>0</v>
-      </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="31"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="14">
-        <v>4</v>
-      </c>
-      <c r="E43" s="12">
-        <v>4</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="10">
-        <v>0</v>
-      </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="14">
-        <v>4</v>
-      </c>
-      <c r="E44" s="12">
-        <v>4</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
-      <c r="H44" s="28"/>
-      <c r="I44" s="31"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="19">
-        <v>7</v>
-      </c>
-      <c r="E45" s="20">
-        <v>4</v>
-      </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22">
-        <v>0</v>
-      </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="31"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2867,197 +2908,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="37.7109375"/>
-    <col min="3" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="10.88671875"/>
+    <col min="2" max="2" width="39.33203125"/>
+    <col min="3" max="1025" width="10.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="G1" s="23"/>
-    </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="G1" s="27"/>
+    </row>
+    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="23">
+        <v>67</v>
+      </c>
+      <c r="E5" s="27">
         <v>42542</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="27">
         <v>42544</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="27">
         <v>42546</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="27">
         <v>42548</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="27">
         <v>42550</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="27">
         <v>42552</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="27">
         <v>42554</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="27">
         <v>42556</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="27">
         <v>42558</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="27">
         <v>42560</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="27">
         <v>42562</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="27">
         <v>42564</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="27">
         <v>42566</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="27">
         <v>42568</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="27">
         <v>42570</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="24">
+        <v>68</v>
+      </c>
+      <c r="E6" s="28">
         <v>0</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="28">
         <f>E6+(I6/4)</f>
         <v>24.5</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="28">
         <f>F6+(I6/4)</f>
         <v>49</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="28">
         <f>G6+(I6/4)</f>
         <v>73.5</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="28">
         <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
         <v>98</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="28">
         <f>I6+((L6-I6)/3)</f>
         <v>125.33333333333333</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="28">
         <f>J6+((L6-I6)/3)</f>
         <v>152.66666666666666</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="28">
         <f>Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
         <v>180</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="28">
         <f>L6+((P6-L6)/4)</f>
         <v>199.75</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="28">
         <f>M6+((P6-L6)/4)</f>
         <v>219.5</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="28">
         <f>N6+((P6-L6)/4)</f>
         <v>239.25</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="28">
         <f>Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
         <v>259</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="28">
         <f>C30</f>
         <v>272</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="28">
         <f>C30</f>
         <v>272</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S6" s="28">
         <f>C30</f>
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="24">
+        <v>69</v>
+      </c>
+      <c r="E7" s="28">
         <v>0</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="28">
         <v>15</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="28">
         <v>24</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="28">
         <v>41</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="25"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I7" s="28">
+        <v>52</v>
+      </c>
+      <c r="J7" s="28">
+        <v>73</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D8" s="29"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="26">
+        <v>70</v>
+      </c>
+      <c r="C30" s="30">
         <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="27">
+        <v>71</v>
+      </c>
+      <c r="C31">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>51.059999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+        <v>97.399999999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="26">
+        <v>72</v>
+      </c>
+      <c r="C32" s="30">
         <f>C30/((5*16)/7)</f>
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="23">
+        <v>73</v>
+      </c>
+      <c r="C33" s="27">
         <f>E5+C32</f>
         <v>42565.8</v>
       </c>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas_000\Documents\Studium\PSE - Visualisierung von Programmgraphen\PSEDokumente\implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -651,6 +651,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -685,6 +686,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -692,15 +694,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -708,15 +713,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -724,15 +732,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -740,15 +751,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -756,15 +770,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -772,15 +789,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -788,15 +808,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -804,15 +827,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -820,15 +846,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -836,15 +865,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -852,15 +884,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -868,15 +903,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -884,15 +922,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -900,15 +941,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -916,10 +960,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -938,7 +984,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1053,7 +1099,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-2D21-4B87-AA9C-14C8F93AF4E8}"/>
             </c:ext>
@@ -1085,6 +1131,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1092,15 +1139,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1108,15 +1158,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1124,15 +1177,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1140,15 +1196,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1156,15 +1215,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1172,15 +1234,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1188,15 +1253,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1204,15 +1272,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1220,15 +1291,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1236,15 +1310,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1252,15 +1329,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1268,15 +1348,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001B-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1284,15 +1367,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1300,15 +1386,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001D-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1316,10 +1405,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-2D21-4B87-AA9C-14C8F93AF4E8}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1338,7 +1429,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1422,11 +1513,14 @@
                 <c:pt idx="5">
                   <c:v>73</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>97</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001F-2D21-4B87-AA9C-14C8F93AF4E8}"/>
             </c:ext>
@@ -1449,11 +1543,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1872349488"/>
-        <c:axId val="1872344048"/>
+        <c:axId val="-728571600"/>
+        <c:axId val="-728577584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1872349488"/>
+        <c:axId val="-728571600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,14 +1585,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1872344048"/>
+        <c:crossAx val="-728577584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1872344048"/>
+        <c:axId val="-728577584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1637,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1872349488"/>
+        <c:crossAx val="-728571600"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1556,6 +1650,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1623,7 +1718,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1698,23 +1793,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1750,23 +1828,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1921,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2909,7 +2970,7 @@
   <dimension ref="B1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3058,7 +3119,9 @@
       <c r="J7" s="28">
         <v>73</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="28">
+        <v>97</v>
+      </c>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="993"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" r:id="rId1"/>
-    <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
+    <sheet name="Daten" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Auswertung" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -177,6 +173,9 @@
     <t>GraphBuilder-Klassen</t>
   </si>
   <si>
+    <t>Nicolas + Lucas (+Jonas F)</t>
+  </si>
+  <si>
     <t>Import und Export anstoßen + Dialoge</t>
   </si>
   <si>
@@ -247,26 +246,61 @@
   </si>
   <si>
     <t>Vorraussichtliches Fertigstellungsdatum:</t>
-  </si>
-  <si>
-    <t>Nicolas + Lucas (+Jonas F)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY;@"/>
+    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,257 +312,285 @@
     </fill>
   </fills>
   <borders count="17">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -587,61 +649,43 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:defRPr b="1" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="ffffff"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:rPr b="1" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="ffffff"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -651,25 +695,33 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Soll</c:v>
+            <c:strRef>
+              <c:f>"Soll"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
+                <a:srgbClr val="5b9bd5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -679,376 +731,212 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
+                <a:srgbClr val="5b9bd5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>42542</c:v>
+                  <c:v>6.21.2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42544</c:v>
+                  <c:v>6.23.2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42546</c:v>
+                  <c:v>6.25.2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42548</c:v>
+                  <c:v>6.27.2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42550</c:v>
+                  <c:v>6.29.2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42552</c:v>
+                  <c:v>7.1.2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42554</c:v>
+                  <c:v>7.3.2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42556</c:v>
+                  <c:v>7.5.2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42558</c:v>
+                  <c:v>7.7.2016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42560</c:v>
+                  <c:v>7.9.2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42562</c:v>
+                  <c:v>7.11.2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42564</c:v>
+                  <c:v>7.13.2016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42566</c:v>
+                  <c:v>7.15.2016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42568</c:v>
+                  <c:v>7.17.2016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42570</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>7.19.2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1066,10 +954,10 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125.33333333333333</c:v>
+                  <c:v>125.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.66666666666666</c:v>
+                  <c:v>152.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>180</c:v>
@@ -1099,22 +987,28 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Ist</c:v>
+            <c:strRef>
+              <c:f>"Ist"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
+                <a:srgbClr val="ed7d31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1124,376 +1018,212 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
+                <a:srgbClr val="ed7d31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>42542</c:v>
+                  <c:v>6.21.2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42544</c:v>
+                  <c:v>6.23.2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42546</c:v>
+                  <c:v>6.25.2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42548</c:v>
+                  <c:v>6.27.2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42550</c:v>
+                  <c:v>6.29.2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42552</c:v>
+                  <c:v>7.1.2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42554</c:v>
+                  <c:v>7.3.2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42556</c:v>
+                  <c:v>7.5.2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42558</c:v>
+                  <c:v>7.7.2016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42560</c:v>
+                  <c:v>7.9.2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42562</c:v>
+                  <c:v>7.11.2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42564</c:v>
+                  <c:v>7.13.2016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42566</c:v>
+                  <c:v>7.15.2016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42568</c:v>
+                  <c:v>7.17.2016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42570</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>7.19.2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1515,25 +1245,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-2D21-4B87-AA9C-14C8F93AF4E8}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1542,57 +1283,54 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-728571600"/>
-        <c:axId val="-728577584"/>
+        <c:axId val="17709827"/>
+        <c:axId val="61323511"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-728571600"/>
+      <c:catAx>
+        <c:axId val="17709827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:srgbClr val="d9d9d9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+              <a:defRPr sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="ffffff"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-728577584"/>
+        <c:crossAx val="61323511"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-728577584"/>
+        <c:axId val="61323511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,7 +1340,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:srgbClr val="d9d9d9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1619,27 +1357,24 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+              <a:defRPr sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="ffffff"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-728571600"/>
+        <c:crossAx val="17709827"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1650,7 +1385,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1661,50 +1395,44 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
+        <a:srgbClr val="d9d9d9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
+      <xdr:colOff>125280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
+      <xdr:colOff>40320</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 5"/>
+        <xdr:cNvPr id="0" name="Diagramm 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5116320" y="1431720"/>
+        <a:ext cx="8944560" cy="5303520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1717,289 +1445,31 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875"/>
-    <col min="2" max="2" width="18.109375"/>
-    <col min="3" max="3" width="39.33203125"/>
-    <col min="4" max="4" width="11.6640625"/>
-    <col min="5" max="5" width="7.6640625"/>
-    <col min="6" max="6" width="25"/>
-    <col min="7" max="7" width="21.109375"/>
-    <col min="8" max="9" width="24.6640625"/>
-    <col min="10" max="1025" width="10.88671875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,36 +1493,36 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="10" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="11" t="n">
         <v>100</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="14" t="n">
         <v>6</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -2061,318 +1531,318 @@
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="11" t="n">
         <v>75</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="12" t="n">
         <v>42544</v>
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="12" t="n">
         <v>42544</v>
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="12" t="n">
         <v>42550</v>
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="11" t="n">
         <v>90</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="12" t="n">
         <v>42550</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="11" t="n">
         <v>70</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="11">
-        <v>50</v>
+      <c r="G11" s="11" t="n">
+        <v>70</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="11">
-        <v>0</v>
+      <c r="G12" s="11" t="n">
+        <v>60</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="12" t="n">
         <v>42550</v>
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="11" t="n">
         <v>80</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="12" t="n">
         <v>42544</v>
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="17" t="n">
         <v>11</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -2381,44 +1851,44 @@
       <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="11" t="n">
         <v>50</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="12" t="n">
         <v>42552</v>
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="17" t="n">
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -2427,699 +1897,709 @@
       <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="11" t="n">
         <v>60</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12"/>
+      <c r="G21" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" s="12" t="n">
+        <v>42555</v>
+      </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="11" t="n">
         <v>20</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="11" t="n">
         <v>20</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="11" t="n">
         <v>20</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="11" t="n">
         <v>100</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="11" t="n">
         <v>50</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="11" t="n">
         <v>80</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="11">
+        <v>50</v>
+      </c>
+      <c r="G30" s="11" t="n">
         <v>10</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="17">
+        <v>51</v>
+      </c>
+      <c r="D31" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="11">
+        <v>52</v>
+      </c>
+      <c r="G31" s="11" t="n">
         <v>100</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="17">
+        <v>53</v>
+      </c>
+      <c r="D32" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="11" t="n">
         <v>100</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="15" t="n">
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="11">
+        <v>55</v>
+      </c>
+      <c r="G33" s="11" t="n">
         <v>80</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="17">
+        <v>56</v>
+      </c>
+      <c r="D34" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="11">
+      <c r="G34" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="17">
+        <v>57</v>
+      </c>
+      <c r="D35" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="11">
+      <c r="G35" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="17">
+        <v>58</v>
+      </c>
+      <c r="D36" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="11">
+      <c r="G36" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="17">
+        <v>59</v>
+      </c>
+      <c r="D37" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="11">
+      <c r="G37" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="17">
+        <v>60</v>
+      </c>
+      <c r="D38" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="11">
+      <c r="G38" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="17">
+        <v>61</v>
+      </c>
+      <c r="D39" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="11">
+      <c r="G39" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="17">
+        <v>62</v>
+      </c>
+      <c r="D40" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="11">
+      <c r="G40" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="17">
+        <v>63</v>
+      </c>
+      <c r="D41" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="11">
+      <c r="G41" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="17">
+        <v>64</v>
+      </c>
+      <c r="D42" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="15" t="n">
         <v>4</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="11">
+      <c r="G42" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="17">
+        <v>65</v>
+      </c>
+      <c r="D43" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="15" t="n">
         <v>4</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="11">
+      <c r="G43" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="17">
+        <v>66</v>
+      </c>
+      <c r="D44" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="15" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="19"/>
-      <c r="G44" s="11">
+      <c r="G44" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="23" t="n">
         <v>4</v>
       </c>
       <c r="F45" s="24"/>
-      <c r="G45" s="25">
+      <c r="G45" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875"/>
-    <col min="2" max="2" width="39.33203125"/>
-    <col min="3" max="1025" width="10.88671875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1" s="27"/>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="27">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="27" t="n">
         <v>42542</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="27" t="n">
         <v>42544</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="27" t="n">
         <v>42546</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="27" t="n">
         <v>42548</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="27" t="n">
         <v>42550</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="27" t="n">
         <v>42552</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="27" t="n">
         <v>42554</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="27" t="n">
         <v>42556</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="27" t="n">
         <v>42558</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="27" t="n">
         <v>42560</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="27" t="n">
         <v>42562</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="27" t="n">
         <v>42564</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="27" t="n">
         <v>42566</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="27" t="n">
         <v>42568</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="27" t="n">
         <v>42570</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="28">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="28">
-        <f>E6+(I6/4)</f>
+      <c r="F6" s="28" t="n">
+        <f aca="false">E6+(I6/4)</f>
         <v>24.5</v>
       </c>
-      <c r="G6" s="28">
-        <f>F6+(I6/4)</f>
+      <c r="G6" s="28" t="n">
+        <f aca="false">F6+(I6/4)</f>
         <v>49</v>
       </c>
-      <c r="H6" s="28">
-        <f>G6+(I6/4)</f>
+      <c r="H6" s="28" t="n">
+        <f aca="false">G6+(I6/4)</f>
         <v>73.5</v>
       </c>
-      <c r="I6" s="28">
-        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
+      <c r="I6" s="28" t="n">
+        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
         <v>98</v>
       </c>
-      <c r="J6" s="28">
-        <f>I6+((L6-I6)/3)</f>
-        <v>125.33333333333333</v>
-      </c>
-      <c r="K6" s="28">
-        <f>J6+((L6-I6)/3)</f>
-        <v>152.66666666666666</v>
-      </c>
-      <c r="L6" s="28">
-        <f>Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
+      <c r="J6" s="28" t="n">
+        <f aca="false">I6+((L6-I6)/3)</f>
+        <v>125.333333333333</v>
+      </c>
+      <c r="K6" s="28" t="n">
+        <f aca="false">J6+((L6-I6)/3)</f>
+        <v>152.666666666667</v>
+      </c>
+      <c r="L6" s="28" t="n">
+        <f aca="false">Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
         <v>180</v>
       </c>
-      <c r="M6" s="28">
-        <f>L6+((P6-L6)/4)</f>
+      <c r="M6" s="28" t="n">
+        <f aca="false">L6+((P6-L6)/4)</f>
         <v>199.75</v>
       </c>
-      <c r="N6" s="28">
-        <f>M6+((P6-L6)/4)</f>
+      <c r="N6" s="28" t="n">
+        <f aca="false">M6+((P6-L6)/4)</f>
         <v>219.5</v>
       </c>
-      <c r="O6" s="28">
-        <f>N6+((P6-L6)/4)</f>
+      <c r="O6" s="28" t="n">
+        <f aca="false">N6+((P6-L6)/4)</f>
         <v>239.25</v>
       </c>
-      <c r="P6" s="28">
-        <f>Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
+      <c r="P6" s="28" t="n">
+        <f aca="false">Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
         <v>259</v>
       </c>
-      <c r="Q6" s="28">
-        <f>C30</f>
+      <c r="Q6" s="28" t="n">
+        <f aca="false">C30</f>
         <v>272</v>
       </c>
-      <c r="R6" s="28">
-        <f>C30</f>
+      <c r="R6" s="28" t="n">
+        <f aca="false">C30</f>
         <v>272</v>
       </c>
-      <c r="S6" s="28">
-        <f>C30</f>
+      <c r="S6" s="28" t="n">
+        <f aca="false">C30</f>
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="28">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="28" t="n">
         <v>15</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="28" t="n">
         <v>24</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="28" t="n">
         <v>41</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="28" t="n">
         <v>73</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="28" t="n">
         <v>97</v>
       </c>
       <c r="L7" s="28"/>
@@ -3131,48 +2611,53 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="30">
-        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="30" t="n">
+        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31">
-        <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>97.399999999999991</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="30">
-        <f>C30/((5*16)/7)</f>
+      <c r="C31" s="0" t="n">
+        <f aca="false">Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="30" t="n">
+        <f aca="false">C30/((5*16)/7)</f>
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="27">
-        <f>E5+C32</f>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="27" t="n">
+        <f aca="false">E5+C32</f>
         <v>42565.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -5,18 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="980" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Auswertung" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -253,12 +248,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY;@"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="@" numFmtId="165"/>
+    <numFmt formatCode="0" numFmtId="166"/>
+    <numFmt formatCode="DD/MM/YY;@" numFmtId="167"/>
+    <numFmt formatCode="M/D/YYYY" numFmtId="168"/>
+    <numFmt formatCode="0%" numFmtId="169"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -292,8 +287,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -312,119 +306,119 @@
     </fill>
   </fills>
   <borders count="17">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="medium"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="medium"/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right/>
       <top/>
@@ -433,163 +427,163 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="167" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="14" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="15" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="16" fillId="0" fontId="0" numFmtId="167" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -655,9 +649,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -666,28 +659,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Fortschritt</a:t>
@@ -695,10 +673,10 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -727,13 +705,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:size val="4"/>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
@@ -744,6 +716,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -753,6 +726,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -762,6 +736,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -771,6 +746,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -780,6 +756,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -789,6 +766,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -798,6 +776,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -807,6 +786,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -816,6 +796,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -825,6 +806,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
@@ -834,6 +816,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -843,6 +826,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
@@ -852,6 +836,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
@@ -861,6 +846,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
@@ -870,14 +856,8 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="1"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -986,7 +966,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1014,13 +993,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:size val="4"/>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
@@ -1031,6 +1004,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1040,6 +1014,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1049,6 +1024,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -1058,6 +1034,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -1067,6 +1044,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -1076,6 +1054,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -1085,6 +1064,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -1094,6 +1074,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -1103,6 +1084,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -1112,6 +1094,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
@@ -1121,6 +1104,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -1130,6 +1114,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
@@ -1139,6 +1124,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
@@ -1148,6 +1134,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
@@ -1157,14 +1144,8 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="1"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1244,7 +1225,7 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -1273,27 +1254,18 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="17709827"/>
-        <c:axId val="61323511"/>
+        <c:axId val="5622"/>
+        <c:axId val="16624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17709827"/>
+        <c:axId val="5622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1305,32 +1277,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="61323511"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="16624"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61323511"/>
+        <c:axId val="16624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1300,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1355,25 +1308,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="17709827"/>
+        <c:crossAx val="5622"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1394,7 +1329,6 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1411,19 +1345,19 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>125280</xdr:colOff>
+      <xdr:colOff>152280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1431,8 +1365,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5116320" y="1431720"/>
-        <a:ext cx="8944560" cy="5303520"/>
+        <a:off x="5143320" y="1422720"/>
+        <a:ext cx="8944200" cy="5303160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1452,8 +1386,8 @@
   </sheetPr>
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I20" activeCellId="0" pane="topLeft" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1469,7 +1403,7 @@
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1427,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="3">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1449,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="4">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1471,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="5">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1561,7 +1495,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="6">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1585,7 +1519,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="7">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1609,7 +1543,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="8">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1631,7 +1565,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="9">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1655,7 +1589,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="10">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1677,7 +1611,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="11">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1699,7 +1633,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="12">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1716,12 +1650,12 @@
         <v>28</v>
       </c>
       <c r="G12" s="11" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="13">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
@@ -1738,12 +1672,14 @@
         <v>28</v>
       </c>
       <c r="G13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="H13" s="12" t="n">
+        <v>42555</v>
+      </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="14">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1760,12 +1696,14 @@
         <v>28</v>
       </c>
       <c r="G14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="H14" s="12" t="n">
+        <v>42555</v>
+      </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="15">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1789,7 +1727,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="16">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
@@ -1811,7 +1749,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="17">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1835,7 +1773,7 @@
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="18">
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1857,7 +1795,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="19">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
@@ -1881,7 +1819,7 @@
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="20">
       <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
@@ -1903,7 +1841,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="21">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1927,7 +1865,7 @@
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="22">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1944,12 +1882,14 @@
         <v>28</v>
       </c>
       <c r="G22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="H22" s="12" t="n">
+        <v>42555</v>
+      </c>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="23">
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
@@ -1971,7 +1911,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="24">
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
@@ -1993,7 +1933,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="25">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
@@ -2015,7 +1955,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="26">
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
@@ -2037,7 +1977,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="27">
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
@@ -2059,7 +1999,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="28">
       <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
@@ -2081,7 +2021,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="29">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
@@ -2103,7 +2043,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="30">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
@@ -2125,7 +2065,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="31">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
@@ -2147,7 +2087,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="32">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
@@ -2169,7 +2109,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="33">
       <c r="B33" s="7" t="s">
         <v>54</v>
       </c>
@@ -2191,7 +2131,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="34">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
@@ -2211,7 +2151,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="35">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
@@ -2231,7 +2171,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="36">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
@@ -2251,7 +2191,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="37">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
@@ -2271,7 +2211,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="38">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
@@ -2291,7 +2231,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="39">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
@@ -2311,7 +2251,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="40">
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
@@ -2331,7 +2271,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="41">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -2351,7 +2291,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="42">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
@@ -2371,7 +2311,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="43">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
@@ -2391,7 +2331,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="44">
       <c r="B44" s="7" t="s">
         <v>33</v>
       </c>
@@ -2411,7 +2351,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="45">
       <c r="B45" s="20" t="s">
         <v>67</v>
       </c>
@@ -2434,7 +2374,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2449,8 +2389,8 @@
   </sheetPr>
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="K8" activeCellId="0" pane="topLeft" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2460,10 +2400,10 @@
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="1">
       <c r="G1" s="27"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="5">
       <c r="D5" s="0" t="s">
         <v>68</v>
       </c>
@@ -2513,7 +2453,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="6">
       <c r="D6" s="0" t="s">
         <v>69</v>
       </c>
@@ -2577,7 +2517,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="7">
       <c r="D7" s="0" t="s">
         <v>70</v>
       </c>
@@ -2600,7 +2540,7 @@
         <v>73</v>
       </c>
       <c r="K7" s="28" t="n">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -2611,10 +2551,10 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="8">
       <c r="D8" s="29"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="30">
       <c r="B30" s="0" t="s">
         <v>71</v>
       </c>
@@ -2623,16 +2563,16 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="31">
       <c r="B31" s="0" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132.4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="32">
       <c r="B32" s="0" t="s">
         <v>73</v>
       </c>
@@ -2641,7 +2581,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="33">
       <c r="B33" s="0" t="s">
         <v>74</v>
       </c>
@@ -2653,7 +2593,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="980" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="349"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Auswertung" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Daten" sheetId="1" r:id="rId1"/>
+    <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -168,9 +172,6 @@
     <t>GraphBuilder-Klassen</t>
   </si>
   <si>
-    <t>Nicolas + Lucas (+Jonas F)</t>
-  </si>
-  <si>
     <t>Import und Export anstoßen + Dialoge</t>
   </si>
   <si>
@@ -241,60 +242,26 @@
   </si>
   <si>
     <t>Vorraussichtliches Fertigstellungsdatum:</t>
+  </si>
+  <si>
+    <t>Nicolas + Lucas (+ Jonas F)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="0" numFmtId="166"/>
-    <numFmt formatCode="DD/MM/YY;@" numFmtId="167"/>
-    <numFmt formatCode="M/D/YYYY" numFmtId="168"/>
-    <numFmt formatCode="0%" numFmtId="169"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -306,285 +273,257 @@
     </fill>
   </fills>
   <borders count="17">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="14" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="15" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="16" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -643,280 +582,251 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
+              <a:rPr lang="de-DE"/>
               <a:t>Fortschritt</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Soll"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Soll</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Soll</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="28440">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.21.2016</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.23.2016</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25.2016</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.27.2016</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29.2016</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1.2016</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3.2016</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5.2016</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7.2016</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9.2016</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.11.2016</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.13.2016</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.15.2016</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.17.2016</c:v>
+                  <c:v>42568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.19.2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -934,10 +844,10 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125.333333333333</c:v>
+                  <c:v>125.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.666666666667</c:v>
+                  <c:v>152.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>180</c:v>
@@ -966,245 +876,156 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Ist"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ist</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Ist</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln w="28440">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.21.2016</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.23.2016</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25.2016</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.27.2016</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29.2016</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1.2016</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3.2016</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5.2016</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7.2016</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9.2016</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.11.2016</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.13.2016</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.15.2016</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.17.2016</c:v>
+                  <c:v>42568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.19.2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1225,66 +1046,83 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="5622"/>
-        <c:axId val="16624"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1799118208"/>
+        <c:axId val="-1799116576"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="5622"/>
+      <c:dateAx>
+        <c:axId val="-1799118208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="16624"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1799116576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="days"/>
+        <c:minorUnit val="1"/>
+        <c:minorTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="16624"/>
+        <c:axId val="-1799116576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,81 +1130,711 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="5622"/>
-        <c:crossesAt val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1799118208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9360">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm 5"/>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5143320" y="1422720"/>
-        <a:ext cx="8944200" cy="5303160"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1379,31 +1847,289 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I20" activeCellId="0" pane="topLeft" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6632653061225"/>
+    <col min="1" max="1" width="10.6640625"/>
+    <col min="2" max="2" width="17.77734375"/>
+    <col min="3" max="3" width="38.77734375"/>
+    <col min="4" max="4" width="11.44140625"/>
+    <col min="5" max="5" width="7.5546875"/>
+    <col min="6" max="6" width="24.6640625"/>
+    <col min="7" max="7" width="20.77734375"/>
+    <col min="8" max="9" width="24.44140625"/>
+    <col min="10" max="1025" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,36 +2153,38 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="11">
         <v>100</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="12">
+        <v>42544</v>
+      </c>
       <c r="I3" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="14">
         <v>6</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -1465,322 +2193,322 @@
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="11">
         <v>75</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="5">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="17">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>100</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="12">
         <v>42544</v>
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="6">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="17">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="11">
         <v>100</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="12">
         <v>42544</v>
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="7">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="11">
         <v>100</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="12">
         <v>42550</v>
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="8">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="17">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="11">
         <v>90</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="17">
         <v>4</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="11">
         <v>100</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="12">
         <v>42550</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="10">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="15">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="11">
         <v>70</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="11">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="17">
         <v>9</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="11">
         <v>70</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="12">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="17">
         <v>8</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="11">
         <v>90</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="13">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="17" t="n">
+      <c r="D13" s="17">
         <v>4</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="11">
         <v>100</v>
       </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="12">
         <v>42555</v>
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="14">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="17">
         <v>2</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="11">
         <v>100</v>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="12">
         <v>42555</v>
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17" t="n">
+      <c r="D15" s="17">
         <v>7</v>
       </c>
-      <c r="E15" s="15" t="n">
+      <c r="E15" s="15">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="11">
         <v>100</v>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="12">
         <v>42550</v>
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="16">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="17">
         <v>5</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="11">
         <v>80</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="17">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="17" t="n">
+      <c r="D17" s="17">
         <v>6</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E17" s="18">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="11">
         <v>100</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="12">
         <v>42544</v>
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="18">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="17" t="n">
+      <c r="D18" s="17">
         <v>11</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -1789,44 +2517,44 @@
       <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="11">
         <v>50</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="19">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17" t="n">
+      <c r="D19" s="17">
         <v>3</v>
       </c>
-      <c r="E19" s="15" t="n">
+      <c r="E19" s="15">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="11">
         <v>100</v>
       </c>
-      <c r="H19" s="12" t="n">
+      <c r="H19" s="12">
         <v>42552</v>
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="20">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="17" t="n">
+      <c r="D20" s="17">
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -1835,712 +2563,704 @@
       <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="11">
         <v>60</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="21">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="17" t="n">
+      <c r="D21" s="17">
         <v>10</v>
       </c>
-      <c r="E21" s="15" t="n">
+      <c r="E21" s="15">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="11">
         <v>100</v>
       </c>
-      <c r="H21" s="12" t="n">
+      <c r="H21" s="12">
         <v>42555</v>
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="22">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="17" t="n">
+      <c r="D22" s="17">
         <v>10</v>
       </c>
-      <c r="E22" s="15" t="n">
+      <c r="E22" s="15">
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="11">
         <v>100</v>
       </c>
-      <c r="H22" s="12" t="n">
+      <c r="H22" s="12">
         <v>42555</v>
       </c>
       <c r="I22" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="23">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17" t="n">
+      <c r="D23" s="17">
         <v>5</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E23" s="15">
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="11">
         <v>20</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="24">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="17" t="n">
+      <c r="D24" s="17">
         <v>5</v>
       </c>
-      <c r="E24" s="15" t="n">
+      <c r="E24" s="15">
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="11">
         <v>20</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="17" t="n">
+      <c r="D25" s="17">
         <v>3</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="15">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="11">
         <v>20</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="26">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="17" t="n">
+      <c r="D26" s="17">
         <v>4</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E26" s="15">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="11">
         <v>0</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="27">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="17" t="n">
+      <c r="D27" s="17">
         <v>4</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E27" s="15">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="11">
         <v>100</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="28">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="17" t="n">
+      <c r="D28" s="17">
         <v>5</v>
       </c>
-      <c r="E28" s="15" t="n">
+      <c r="E28" s="15">
         <v>2</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="11" t="n">
+      <c r="G28" s="11">
         <v>50</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="29">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="17" t="n">
+      <c r="D29" s="17">
         <v>2</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E29" s="15">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="11">
         <v>80</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="30">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="17" t="n">
+      <c r="D30" s="17">
         <v>12</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="15">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="11" t="n">
+        <v>74</v>
+      </c>
+      <c r="G30" s="11">
         <v>10</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="31">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="17">
+        <v>5</v>
+      </c>
+      <c r="E31" s="15">
+        <v>2</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="11">
         <v>100</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="32">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="17" t="n">
+        <v>52</v>
+      </c>
+      <c r="D32" s="17">
         <v>6</v>
       </c>
-      <c r="E32" s="15" t="n">
+      <c r="E32" s="15">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="11">
         <v>100</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="33">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="17" t="n">
+      <c r="D33" s="17">
         <v>11</v>
       </c>
-      <c r="E33" s="15" t="n">
+      <c r="E33" s="15">
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="11" t="n">
+        <v>54</v>
+      </c>
+      <c r="G33" s="11">
         <v>80</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="34">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="D34" s="17">
         <v>10</v>
       </c>
-      <c r="E34" s="15" t="n">
+      <c r="E34" s="15">
         <v>3</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="11" t="n">
+      <c r="G34" s="11">
         <v>0</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="17" t="n">
+        <v>56</v>
+      </c>
+      <c r="D35" s="17">
         <v>10</v>
       </c>
-      <c r="E35" s="15" t="n">
+      <c r="E35" s="15">
         <v>3</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="11">
         <v>0</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="36">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="17" t="n">
+        <v>57</v>
+      </c>
+      <c r="D36" s="17">
         <v>6</v>
       </c>
-      <c r="E36" s="15" t="n">
+      <c r="E36" s="15">
         <v>3</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="11">
         <v>0</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="37">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="17" t="n">
+        <v>58</v>
+      </c>
+      <c r="D37" s="17">
         <v>13</v>
       </c>
-      <c r="E37" s="15" t="n">
+      <c r="E37" s="15">
         <v>3</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="11" t="n">
+      <c r="G37" s="11">
         <v>0</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="38">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="17" t="n">
+        <v>59</v>
+      </c>
+      <c r="D38" s="17">
         <v>13</v>
       </c>
-      <c r="E38" s="15" t="n">
+      <c r="E38" s="15">
         <v>3</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="11" t="n">
+      <c r="G38" s="11">
         <v>0</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="39">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="17" t="n">
+        <v>60</v>
+      </c>
+      <c r="D39" s="17">
         <v>10</v>
       </c>
-      <c r="E39" s="15" t="n">
+      <c r="E39" s="15">
         <v>3</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="11" t="n">
+      <c r="G39" s="11">
         <v>0</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="40">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="17" t="n">
+        <v>61</v>
+      </c>
+      <c r="D40" s="17">
         <v>7</v>
       </c>
-      <c r="E40" s="15" t="n">
+      <c r="E40" s="15">
         <v>3</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="11" t="n">
+      <c r="G40" s="11">
         <v>0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="41">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="17" t="n">
+        <v>62</v>
+      </c>
+      <c r="D41" s="17">
         <v>4</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="E41" s="15">
         <v>3</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="11" t="n">
+      <c r="G41" s="11">
         <v>0</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="42">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="17" t="n">
+        <v>63</v>
+      </c>
+      <c r="D42" s="17">
         <v>4</v>
       </c>
-      <c r="E42" s="15" t="n">
+      <c r="E42" s="15">
         <v>4</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="11" t="n">
+      <c r="G42" s="11">
         <v>0</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="43">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="D43" s="17">
         <v>4</v>
       </c>
-      <c r="E43" s="15" t="n">
+      <c r="E43" s="15">
         <v>4</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="11" t="n">
+      <c r="G43" s="11">
         <v>0</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="44">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="17" t="n">
+        <v>65</v>
+      </c>
+      <c r="D44" s="17">
         <v>4</v>
       </c>
-      <c r="E44" s="15" t="n">
+      <c r="E44" s="15">
         <v>4</v>
       </c>
       <c r="F44" s="19"/>
-      <c r="G44" s="11" t="n">
+      <c r="G44" s="11">
         <v>0</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="45">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="22" t="n">
+      <c r="D45" s="22">
         <v>7</v>
       </c>
-      <c r="E45" s="23" t="n">
+      <c r="E45" s="23">
         <v>4</v>
       </c>
       <c r="F45" s="24"/>
-      <c r="G45" s="25" t="n">
+      <c r="G45" s="25">
         <v>0</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K8" activeCellId="0" pane="topLeft" sqref="K8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6632653061225"/>
+    <col min="1" max="1" width="10.6640625"/>
+    <col min="2" max="2" width="38.77734375"/>
+    <col min="3" max="1025" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="1">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
       <c r="G1" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="5">
-      <c r="D5" s="0" t="s">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="27">
+        <v>42542</v>
+      </c>
+      <c r="F5" s="27">
+        <v>42544</v>
+      </c>
+      <c r="G5" s="27">
+        <v>42546</v>
+      </c>
+      <c r="H5" s="27">
+        <v>42548</v>
+      </c>
+      <c r="I5" s="27">
+        <v>42550</v>
+      </c>
+      <c r="J5" s="27">
+        <v>42552</v>
+      </c>
+      <c r="K5" s="27">
+        <v>42554</v>
+      </c>
+      <c r="L5" s="27">
+        <v>42556</v>
+      </c>
+      <c r="M5" s="27">
+        <v>42558</v>
+      </c>
+      <c r="N5" s="27">
+        <v>42560</v>
+      </c>
+      <c r="O5" s="27">
+        <v>42562</v>
+      </c>
+      <c r="P5" s="27">
+        <v>42564</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>42566</v>
+      </c>
+      <c r="R5" s="27">
+        <v>42568</v>
+      </c>
+      <c r="S5" s="27">
+        <v>42570</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="27" t="n">
-        <v>42542</v>
-      </c>
-      <c r="F5" s="27" t="n">
-        <v>42544</v>
-      </c>
-      <c r="G5" s="27" t="n">
-        <v>42546</v>
-      </c>
-      <c r="H5" s="27" t="n">
-        <v>42548</v>
-      </c>
-      <c r="I5" s="27" t="n">
-        <v>42550</v>
-      </c>
-      <c r="J5" s="27" t="n">
-        <v>42552</v>
-      </c>
-      <c r="K5" s="27" t="n">
-        <v>42554</v>
-      </c>
-      <c r="L5" s="27" t="n">
-        <v>42556</v>
-      </c>
-      <c r="M5" s="27" t="n">
-        <v>42558</v>
-      </c>
-      <c r="N5" s="27" t="n">
-        <v>42560</v>
-      </c>
-      <c r="O5" s="27" t="n">
-        <v>42562</v>
-      </c>
-      <c r="P5" s="27" t="n">
-        <v>42564</v>
-      </c>
-      <c r="Q5" s="27" t="n">
-        <v>42566</v>
-      </c>
-      <c r="R5" s="27" t="n">
-        <v>42568</v>
-      </c>
-      <c r="S5" s="27" t="n">
-        <v>42570</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="6">
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <f>E6+(I6/4)</f>
+        <v>24.5</v>
+      </c>
+      <c r="G6" s="28">
+        <f>F6+(I6/4)</f>
+        <v>49</v>
+      </c>
+      <c r="H6" s="28">
+        <f>G6+(I6/4)</f>
+        <v>73.5</v>
+      </c>
+      <c r="I6" s="28">
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
+        <v>98</v>
+      </c>
+      <c r="J6" s="28">
+        <f>I6+((L6-I6)/3)</f>
+        <v>125.33333333333333</v>
+      </c>
+      <c r="K6" s="28">
+        <f>J6+((L6-I6)/3)</f>
+        <v>152.66666666666666</v>
+      </c>
+      <c r="L6" s="28">
+        <f>Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
+        <v>180</v>
+      </c>
+      <c r="M6" s="28">
+        <f>L6+((P6-L6)/4)</f>
+        <v>199.75</v>
+      </c>
+      <c r="N6" s="28">
+        <f>M6+((P6-L6)/4)</f>
+        <v>219.5</v>
+      </c>
+      <c r="O6" s="28">
+        <f>N6+((P6-L6)/4)</f>
+        <v>239.25</v>
+      </c>
+      <c r="P6" s="28">
+        <f>Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
+        <v>259</v>
+      </c>
+      <c r="Q6" s="28">
+        <f>C30</f>
+        <v>272</v>
+      </c>
+      <c r="R6" s="28">
+        <f>C30</f>
+        <v>272</v>
+      </c>
+      <c r="S6" s="28">
+        <f>C30</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="28" t="n">
+      <c r="E7" s="28">
         <v>0</v>
       </c>
-      <c r="F6" s="28" t="n">
-        <f aca="false">E6+(I6/4)</f>
-        <v>24.5</v>
-      </c>
-      <c r="G6" s="28" t="n">
-        <f aca="false">F6+(I6/4)</f>
-        <v>49</v>
-      </c>
-      <c r="H6" s="28" t="n">
-        <f aca="false">G6+(I6/4)</f>
-        <v>73.5</v>
-      </c>
-      <c r="I6" s="28" t="n">
-        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
-        <v>98</v>
-      </c>
-      <c r="J6" s="28" t="n">
-        <f aca="false">I6+((L6-I6)/3)</f>
-        <v>125.333333333333</v>
-      </c>
-      <c r="K6" s="28" t="n">
-        <f aca="false">J6+((L6-I6)/3)</f>
-        <v>152.666666666667</v>
-      </c>
-      <c r="L6" s="28" t="n">
-        <f aca="false">Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
-        <v>180</v>
-      </c>
-      <c r="M6" s="28" t="n">
-        <f aca="false">L6+((P6-L6)/4)</f>
-        <v>199.75</v>
-      </c>
-      <c r="N6" s="28" t="n">
-        <f aca="false">M6+((P6-L6)/4)</f>
-        <v>219.5</v>
-      </c>
-      <c r="O6" s="28" t="n">
-        <f aca="false">N6+((P6-L6)/4)</f>
-        <v>239.25</v>
-      </c>
-      <c r="P6" s="28" t="n">
-        <f aca="false">Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
-        <v>259</v>
-      </c>
-      <c r="Q6" s="28" t="n">
-        <f aca="false">C30</f>
-        <v>272</v>
-      </c>
-      <c r="R6" s="28" t="n">
-        <f aca="false">C30</f>
-        <v>272</v>
-      </c>
-      <c r="S6" s="28" t="n">
-        <f aca="false">C30</f>
-        <v>272</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="7">
-      <c r="D7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="28" t="n">
+      <c r="F7" s="28">
         <v>15</v>
       </c>
-      <c r="G7" s="28" t="n">
+      <c r="G7" s="28">
         <v>24</v>
       </c>
-      <c r="H7" s="28" t="n">
+      <c r="H7" s="28">
         <v>41</v>
       </c>
-      <c r="I7" s="28" t="n">
+      <c r="I7" s="28">
         <v>52</v>
       </c>
-      <c r="J7" s="28" t="n">
+      <c r="J7" s="28">
         <v>73</v>
       </c>
-      <c r="K7" s="28" t="n">
-        <v>132</v>
+      <c r="K7" s="28">
+        <v>97</v>
       </c>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -2551,53 +3271,48 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="8">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D8" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="30">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="30">
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="30" t="n">
-        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
-        <v>272</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="31">
-      <c r="B31" s="0" t="s">
+      <c r="C31">
+        <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
+        <v>132.39999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <f aca="false">Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>132.4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="32">
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="30">
+        <f>C30/((5*16)/7)</f>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="30" t="n">
-        <f aca="false">C30/((5*16)/7)</f>
-        <v>23.8</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="33">
-      <c r="B33" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="27" t="n">
-        <f aca="false">E5+C32</f>
+      <c r="C33" s="27">
+        <f>E5+C32</f>
         <v>42565.8</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -5,247 +5,242 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="980" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Auswertung" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
-    <t xml:space="preserve">Paket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufgabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufwand(h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zugewiesen an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortschritt in %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum der Fertigstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allgemein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entscheidung Namespace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellen der Gradle-Konfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objectproperties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">graphmodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interfaces schreiben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas F + Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default-Klassen implementieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas F (+ Sven, Nicolas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layout-Register schreiben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas F ( + Nicolas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serialized-Klassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas F (+ Sven)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugiyama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph + Impl Interfaces + Vertex/Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas M + Sven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mokups für einzelne Phasen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraints implementieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LayoutAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CycleRemover (Phase 1) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphFactory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParameterDialogCreator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generelle GUI(Incl. Basis-GraphView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LayerAssigner (Phase 2) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CrossMinimizer (Phase 3) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callgraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methodengraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FieldAccess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joana Vertex/Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workspace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoanaGraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphBuilder-Klassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas + Lucas (+ Jonas F)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import und Export anstoßen + Dialoge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas + Jonas F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laden der Plugins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VertexPositioner (Phase 4) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EdgeDrawer (Phase 5) + Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoanaPlugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CallgraphLayout/Register/Option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MethodengraphLayout/Register/Option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphView(Navigation und Zoom)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workspace-/EntrypointOption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrukturView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InformationView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommandozeilenparameter akzeptieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">export</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soll:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamt Aufwand (h):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aktueller Fortschritt (h):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbeitstage:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorraussichtliches Fertigstellungsdatum:</t>
+    <t>Paket</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Aufwand(h)</t>
+  </si>
+  <si>
+    <t>Woche</t>
+  </si>
+  <si>
+    <t>Zugewiesen an</t>
+  </si>
+  <si>
+    <t>Fortschritt in %</t>
+  </si>
+  <si>
+    <t>Datum der Fertigstellung</t>
+  </si>
+  <si>
+    <t>Allgemein</t>
+  </si>
+  <si>
+    <t>Entscheidung Namespace</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Erstellen der Gradle-Konfiguration</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>objectproperties</t>
+  </si>
+  <si>
+    <t>Implementieren</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>graphmodel</t>
+  </si>
+  <si>
+    <t>Interfaces schreiben</t>
+  </si>
+  <si>
+    <t>Jonas F + Lucas</t>
+  </si>
+  <si>
+    <t>Default-Klassen implementieren</t>
+  </si>
+  <si>
+    <t>Jonas F (+ Sven, Nicolas)</t>
+  </si>
+  <si>
+    <t>Layout-Register schreiben</t>
+  </si>
+  <si>
+    <t>Jonas F ( + Nicolas)</t>
+  </si>
+  <si>
+    <t>Serialized-Klassen</t>
+  </si>
+  <si>
+    <t>Jonas F (+ Sven)</t>
+  </si>
+  <si>
+    <t>sugiyama</t>
+  </si>
+  <si>
+    <t>Graph + Impl Interfaces + Vertex/Edge</t>
+  </si>
+  <si>
+    <t>Jonas M + Sven</t>
+  </si>
+  <si>
+    <t>Mokups für einzelne Phasen</t>
+  </si>
+  <si>
+    <t>Constraints implementieren</t>
+  </si>
+  <si>
+    <t>LayoutAlgorithm</t>
+  </si>
+  <si>
+    <t>CycleRemover (Phase 1) + Interface</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>GraphFactory</t>
+  </si>
+  <si>
+    <t>ParameterDialogCreator</t>
+  </si>
+  <si>
+    <t>plugin</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Generelle GUI(Incl. Basis-GraphView)</t>
+  </si>
+  <si>
+    <t>LayerAssigner (Phase 2) + Interface</t>
+  </si>
+  <si>
+    <t>CrossMinimizer (Phase 3) + Interface</t>
+  </si>
+  <si>
+    <t>joana</t>
+  </si>
+  <si>
+    <t>Callgraph</t>
+  </si>
+  <si>
+    <t>Methodengraph</t>
+  </si>
+  <si>
+    <t>FieldAccess</t>
+  </si>
+  <si>
+    <t>GraphModel</t>
+  </si>
+  <si>
+    <t>Joana Vertex/Edge</t>
+  </si>
+  <si>
+    <t>Workspace</t>
+  </si>
+  <si>
+    <t>JoanaGraph</t>
+  </si>
+  <si>
+    <t>GraphBuilder-Klassen</t>
+  </si>
+  <si>
+    <t>Nicolas + Lucas (+ Jonas F)</t>
+  </si>
+  <si>
+    <t>Import und Export anstoßen + Dialoge</t>
+  </si>
+  <si>
+    <t>Nicolas + Jonas F</t>
+  </si>
+  <si>
+    <t>Laden der Plugins</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>Jonas F</t>
+  </si>
+  <si>
+    <t>VertexPositioner (Phase 4) + Interface</t>
+  </si>
+  <si>
+    <t>EdgeDrawer (Phase 5) + Interface</t>
+  </si>
+  <si>
+    <t>JoanaPlugin</t>
+  </si>
+  <si>
+    <t>CallgraphLayout/Register/Option</t>
+  </si>
+  <si>
+    <t>MethodengraphLayout/Register/Option</t>
+  </si>
+  <si>
+    <t>GraphView(Navigation und Zoom)</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Workspace-/EntrypointOption</t>
+  </si>
+  <si>
+    <t>StrukturView</t>
+  </si>
+  <si>
+    <t>InformationView</t>
+  </si>
+  <si>
+    <t>Kommandozeilenparameter akzeptieren</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>Datum:</t>
+  </si>
+  <si>
+    <t>Soll:</t>
+  </si>
+  <si>
+    <t>Ist:</t>
+  </si>
+  <si>
+    <t>Gesamt Aufwand (h):</t>
+  </si>
+  <si>
+    <t>Aktueller Fortschritt (h):</t>
+  </si>
+  <si>
+    <t>Arbeitstage:</t>
+  </si>
+  <si>
+    <t>Vorraussichtliches Fertigstellungsdatum:</t>
   </si>
 </sst>
 </file>
@@ -253,12 +248,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY;@"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="@" numFmtId="165"/>
+    <numFmt formatCode="0" numFmtId="166"/>
+    <numFmt formatCode="DD/MM/YY;@" numFmtId="167"/>
+    <numFmt formatCode="M/D/YYYY" numFmtId="168"/>
+    <numFmt formatCode="0%" numFmtId="169"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -290,9 +285,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -311,119 +305,119 @@
     </fill>
   </fills>
   <borders count="17">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="medium"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="medium"/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right/>
       <top/>
@@ -432,163 +426,163 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="167" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="14" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="15" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="16" fillId="0" fontId="0" numFmtId="167" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -647,46 +641,30 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Fortschritt</a:t>
@@ -694,10 +672,10 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -726,22 +704,159 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:size val="4"/>
           </c:marker>
           <c:dLbls>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -749,49 +864,49 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6/21/2016</c:v>
+                  <c:v>6.21.2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/23/2016</c:v>
+                  <c:v>6.23.2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/25/2016</c:v>
+                  <c:v>6.25.2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6/27/2016</c:v>
+                  <c:v>6.27.2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6/29/2016</c:v>
+                  <c:v>6.29.2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7/1/2016</c:v>
+                  <c:v>7.1.2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7/3/2016</c:v>
+                  <c:v>7.3.2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7/5/2016</c:v>
+                  <c:v>7.5.2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7/7/2016</c:v>
+                  <c:v>7.7.2016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7/9/2016</c:v>
+                  <c:v>7.9.2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7/11/2016</c:v>
+                  <c:v>7.11.2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7/13/2016</c:v>
+                  <c:v>7.13.2016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7/15/2016</c:v>
+                  <c:v>7.15.2016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7/17/2016</c:v>
+                  <c:v>7.17.2016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7/19/2016</c:v>
+                  <c:v>7.19.2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -850,7 +965,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -878,22 +992,159 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:size val="4"/>
           </c:marker>
           <c:dLbls>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -901,49 +1152,49 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6/21/2016</c:v>
+                  <c:v>6.21.2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/23/2016</c:v>
+                  <c:v>6.23.2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/25/2016</c:v>
+                  <c:v>6.25.2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6/27/2016</c:v>
+                  <c:v>6.27.2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6/29/2016</c:v>
+                  <c:v>6.29.2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7/1/2016</c:v>
+                  <c:v>7.1.2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7/3/2016</c:v>
+                  <c:v>7.3.2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7/5/2016</c:v>
+                  <c:v>7.5.2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7/7/2016</c:v>
+                  <c:v>7.7.2016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7/9/2016</c:v>
+                  <c:v>7.9.2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7/11/2016</c:v>
+                  <c:v>7.11.2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7/13/2016</c:v>
+                  <c:v>7.13.2016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7/15/2016</c:v>
+                  <c:v>7.15.2016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7/17/2016</c:v>
+                  <c:v>7.17.2016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7/19/2016</c:v>
+                  <c:v>7.19.2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1002,27 +1253,18 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="37964728"/>
-        <c:axId val="8333062"/>
+        <c:axId val="31088"/>
+        <c:axId val="11626"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37964728"/>
+        <c:axId val="31088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1034,32 +1276,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="8333062"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="11626"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8333062"/>
+        <c:axId val="11626"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1299,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1087,27 +1310,8 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="37964728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossAx val="31088"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1127,7 +1331,6 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1144,19 +1347,19 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>15120</xdr:colOff>
+      <xdr:colOff>42120</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>715680</xdr:colOff>
+      <xdr:colOff>742320</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1164,8 +1367,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6348960" y="1661040"/>
-        <a:ext cx="11178000" cy="4731840"/>
+        <a:off x="5069160" y="1652040"/>
+        <a:ext cx="9019440" cy="4731480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1185,24 +1388,24 @@
   </sheetPr>
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H31" activeCellId="0" pane="topLeft" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.719387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4540816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.60204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.8877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.719387755102"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1429,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="3">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1453,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="4">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1475,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="5">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1296,7 +1499,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="6">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1320,7 +1523,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="7">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1344,7 +1547,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="8">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1569,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="9">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1390,7 +1593,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="10">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1412,7 +1615,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="11">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1434,7 +1637,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="12">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1456,7 +1659,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="13">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
@@ -1480,7 +1683,7 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="14">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1504,7 +1707,7 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="15">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1528,7 +1731,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="16">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
@@ -1550,7 +1753,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="17">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1574,7 +1777,7 @@
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="18">
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1596,7 +1799,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="19">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
@@ -1620,7 +1823,7 @@
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="20">
       <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
@@ -1642,7 +1845,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="21">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1666,7 +1869,7 @@
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="22">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1690,7 +1893,7 @@
       </c>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="23">
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
@@ -1712,7 +1915,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="24">
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
@@ -1734,7 +1937,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="25">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
@@ -1756,7 +1959,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="26">
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
@@ -1778,7 +1981,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="27">
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
@@ -1800,7 +2003,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="28">
       <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
@@ -1822,7 +2025,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="29">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
@@ -1844,7 +2047,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="30">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
@@ -1866,7 +2069,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="31">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
@@ -1888,7 +2091,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="32">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
@@ -1910,7 +2113,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="33">
       <c r="B33" s="7" t="s">
         <v>54</v>
       </c>
@@ -1932,7 +2135,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="34">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
@@ -1947,12 +2150,12 @@
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="35">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
@@ -1967,12 +2170,12 @@
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="36">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
@@ -1986,13 +2189,11 @@
         <v>3</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="G36" s="11"/>
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="37">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
@@ -2012,7 +2213,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="38">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
@@ -2032,7 +2233,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="39">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
@@ -2052,7 +2253,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="40">
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
@@ -2072,7 +2273,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="41">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -2092,7 +2293,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="42">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
@@ -2112,7 +2313,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="43">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
@@ -2132,7 +2333,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="44">
       <c r="B44" s="7" t="s">
         <v>33</v>
       </c>
@@ -2152,7 +2353,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="45">
       <c r="B45" s="20" t="s">
         <v>67</v>
       </c>
@@ -2175,7 +2376,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2190,21 +2391,21 @@
   </sheetPr>
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C13" activeCellId="0" pane="topLeft" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.0971659919028"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.719387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.719387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="1">
       <c r="G1" s="27"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="5">
       <c r="D5" s="0" t="s">
         <v>68</v>
       </c>
@@ -2254,7 +2455,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="6">
       <c r="D6" s="0" t="s">
         <v>69</v>
       </c>
@@ -2318,7 +2519,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="7">
       <c r="D7" s="0" t="s">
         <v>70</v>
       </c>
@@ -2352,10 +2553,10 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="8">
       <c r="D8" s="29"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="30">
       <c r="B30" s="0" t="s">
         <v>71</v>
       </c>
@@ -2364,16 +2565,16 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="31">
       <c r="B31" s="0" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>143.7</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148.7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="32">
       <c r="B32" s="0" t="s">
         <v>73</v>
       </c>
@@ -2382,7 +2583,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="33">
       <c r="B33" s="0" t="s">
         <v>74</v>
       </c>
@@ -2394,7 +2595,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="980" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="980" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Auswertung" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Daten" sheetId="1" r:id="rId1"/>
+    <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
   <si>
     <t>Paket</t>
   </si>
@@ -241,59 +245,32 @@
   </si>
   <si>
     <t>Vorraussichtliches Fertigstellungsdatum:</t>
+  </si>
+  <si>
+    <t>Jonas F(+ Nicolas)</t>
+  </si>
+  <si>
+    <t>Nicolas(+ Lucas)</t>
+  </si>
+  <si>
+    <t>Nicolas + Lucas +Jonas F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="0" numFmtId="166"/>
-    <numFmt formatCode="DD/MM/YY;@" numFmtId="167"/>
-    <numFmt formatCode="M/D/YYYY" numFmtId="168"/>
-    <numFmt formatCode="0%" numFmtId="169"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -305,285 +282,257 @@
     </fill>
   </fills>
   <borders count="17">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="14" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="15" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="16" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -642,280 +591,251 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
+              <a:rPr lang="de-DE"/>
               <a:t>Fortschritt</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Soll"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Soll</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Soll</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="28440">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.21.2016</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.23.2016</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25.2016</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.27.2016</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29.2016</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1.2016</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3.2016</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5.2016</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7.2016</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9.2016</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.11.2016</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.13.2016</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.15.2016</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.17.2016</c:v>
+                  <c:v>42568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.19.2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -933,10 +853,10 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125.333333333333</c:v>
+                  <c:v>125.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.666666666667</c:v>
+                  <c:v>152.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>180</c:v>
@@ -965,245 +885,156 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Ist"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ist</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Ist</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln w="28440">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.21.2016</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.23.2016</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25.2016</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.27.2016</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29.2016</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1.2016</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3.2016</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5.2016</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7.2016</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9.2016</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.11.2016</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.13.2016</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.15.2016</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.17.2016</c:v>
+                  <c:v>42568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.19.2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1227,63 +1058,79 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
+                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="31088"/>
-        <c:axId val="11626"/>
+        <c:smooth val="0"/>
+        <c:axId val="1520009232"/>
+        <c:axId val="1520007600"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="31088"/>
+      <c:dateAx>
+        <c:axId val="1520009232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="11626"/>
-        <c:crossesAt val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1520007600"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="11626"/>
+        <c:axId val="1520007600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,84 +1138,696 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:round/>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="31088"/>
-        <c:crossesAt val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1520009232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9360">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>42120</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>742320</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165600</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5069160" y="1652040"/>
-        <a:ext cx="9019440" cy="4731480"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1381,31 +1840,289 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H31" activeCellId="0" pane="topLeft" sqref="H31"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.719387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4540816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.60204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.8877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.719387755102"/>
+    <col min="1" max="1" width="10.6640625"/>
+    <col min="2" max="2" width="17.88671875"/>
+    <col min="3" max="3" width="39.109375"/>
+    <col min="4" max="4" width="11.44140625"/>
+    <col min="5" max="5" width="7.5546875"/>
+    <col min="6" max="6" width="24.88671875"/>
+    <col min="7" max="7" width="20.88671875"/>
+    <col min="8" max="9" width="24.6640625"/>
+    <col min="10" max="1025" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,38 +2146,38 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="11">
         <v>100</v>
       </c>
-      <c r="H3" s="12" t="n">
+      <c r="H3" s="12">
         <v>42544</v>
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="14">
         <v>6</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -1469,322 +2186,322 @@
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="11">
         <v>75</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="5">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="17">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>100</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="12">
         <v>42544</v>
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="6">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="17">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="11">
         <v>100</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="12">
         <v>42544</v>
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="7">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="11">
         <v>100</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="12">
         <v>42550</v>
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="8">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="17">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="11">
         <v>90</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="17">
         <v>4</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="11">
         <v>100</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="12">
         <v>42550</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="10">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="15">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="11">
         <v>70</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="11">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="17">
         <v>9</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="11">
         <v>70</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="12">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="17">
         <v>8</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="11">
         <v>90</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="13">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="17" t="n">
+      <c r="D13" s="17">
         <v>4</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="11">
         <v>100</v>
       </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="12">
         <v>42555</v>
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="14">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="17">
         <v>2</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="11">
         <v>100</v>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="12">
         <v>42555</v>
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17" t="n">
+      <c r="D15" s="17">
         <v>7</v>
       </c>
-      <c r="E15" s="15" t="n">
+      <c r="E15" s="15">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="11">
         <v>100</v>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="12">
         <v>42550</v>
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="16">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="17">
         <v>5</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="11">
         <v>80</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="17">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="17" t="n">
+      <c r="D17" s="17">
         <v>6</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E17" s="18">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="11">
         <v>100</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="12">
         <v>42544</v>
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="18">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="17" t="n">
+      <c r="D18" s="17">
         <v>11</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -1793,44 +2510,44 @@
       <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="11">
         <v>50</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="19">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17" t="n">
+      <c r="D19" s="17">
         <v>3</v>
       </c>
-      <c r="E19" s="15" t="n">
+      <c r="E19" s="15">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="11">
         <v>100</v>
       </c>
-      <c r="H19" s="12" t="n">
+      <c r="H19" s="12">
         <v>42552</v>
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="20">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="17" t="n">
+      <c r="D20" s="17">
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -1839,712 +2556,730 @@
       <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="11" t="n">
-        <v>60</v>
+      <c r="G20" s="11">
+        <v>70</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="21">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="17" t="n">
+      <c r="D21" s="17">
         <v>10</v>
       </c>
-      <c r="E21" s="15" t="n">
+      <c r="E21" s="15">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="11">
         <v>100</v>
       </c>
-      <c r="H21" s="12" t="n">
+      <c r="H21" s="12">
         <v>42555</v>
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="22">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="17" t="n">
+      <c r="D22" s="17">
         <v>10</v>
       </c>
-      <c r="E22" s="15" t="n">
+      <c r="E22" s="15">
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="11">
         <v>100</v>
       </c>
-      <c r="H22" s="12" t="n">
+      <c r="H22" s="12">
         <v>42555</v>
       </c>
       <c r="I22" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="23">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17" t="n">
+      <c r="D23" s="17">
         <v>5</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E23" s="15">
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="11">
         <v>70</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="24">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="17" t="n">
+      <c r="D24" s="17">
         <v>5</v>
       </c>
-      <c r="E24" s="15" t="n">
+      <c r="E24" s="15">
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="11">
         <v>70</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="17" t="n">
+      <c r="D25" s="17">
         <v>3</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="15">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="11">
         <v>70</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="26">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="17" t="n">
+      <c r="D26" s="17">
         <v>4</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E26" s="15">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="11" t="n">
-        <v>0</v>
+      <c r="G26" s="11">
+        <v>100</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="27">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="17" t="n">
+      <c r="D27" s="17">
         <v>4</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E27" s="15">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="11">
         <v>100</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="28">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="17" t="n">
+      <c r="D28" s="17">
         <v>5</v>
       </c>
-      <c r="E28" s="15" t="n">
+      <c r="E28" s="15">
         <v>2</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="11" t="n">
-        <v>50</v>
+        <v>76</v>
+      </c>
+      <c r="G28" s="11">
+        <v>75</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="29">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="17" t="n">
+      <c r="D29" s="17">
         <v>2</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E29" s="15">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="11">
         <v>80</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="30">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="17" t="n">
+      <c r="D30" s="17">
         <v>12</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="15">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="11" t="n">
+      <c r="G30" s="11">
         <v>50</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="31">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="17" t="n">
+      <c r="D31" s="17">
         <v>5</v>
       </c>
-      <c r="E31" s="15" t="n">
+      <c r="E31" s="15">
         <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="11">
         <v>100</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="32">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="17" t="n">
+      <c r="D32" s="17">
         <v>6</v>
       </c>
-      <c r="E32" s="15" t="n">
+      <c r="E32" s="15">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="11">
         <v>100</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="33">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="17" t="n">
+      <c r="D33" s="17">
         <v>11</v>
       </c>
-      <c r="E33" s="15" t="n">
+      <c r="E33" s="15">
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="11" t="n">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="G33" s="11">
+        <v>100</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="34">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="17" t="n">
+      <c r="D34" s="17">
         <v>10</v>
       </c>
-      <c r="E34" s="15" t="n">
+      <c r="E34" s="15">
         <v>3</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="11" t="n">
+      <c r="F34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="11">
         <v>40</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="17" t="n">
+      <c r="D35" s="17">
         <v>10</v>
       </c>
-      <c r="E35" s="15" t="n">
+      <c r="E35" s="15">
         <v>3</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="11" t="n">
+      <c r="F35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="11">
         <v>10</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="36">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="17" t="n">
+      <c r="D36" s="17">
         <v>6</v>
       </c>
-      <c r="E36" s="15" t="n">
+      <c r="E36" s="15">
         <v>3</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="37">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="17" t="n">
+      <c r="D37" s="17">
         <v>13</v>
       </c>
-      <c r="E37" s="15" t="n">
+      <c r="E37" s="15">
         <v>3</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="11" t="n">
+      <c r="F37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="11">
         <v>0</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="38">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="17" t="n">
+      <c r="D38" s="17">
         <v>13</v>
       </c>
-      <c r="E38" s="15" t="n">
+      <c r="E38" s="15">
         <v>3</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="11" t="n">
+      <c r="F38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="11">
         <v>0</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="39">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="17" t="n">
+      <c r="D39" s="17">
         <v>10</v>
       </c>
-      <c r="E39" s="15" t="n">
+      <c r="E39" s="15">
         <v>3</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="11" t="n">
+      <c r="F39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="11">
         <v>0</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="40">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="17" t="n">
+      <c r="D40" s="17">
         <v>7</v>
       </c>
-      <c r="E40" s="15" t="n">
+      <c r="E40" s="15">
         <v>3</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="11" t="n">
+      <c r="F40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="11">
         <v>0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="41">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="17" t="n">
+      <c r="D41" s="17">
         <v>4</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="E41" s="15">
         <v>3</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="11" t="n">
+      <c r="F41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="11">
         <v>0</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="42">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="17" t="n">
+      <c r="D42" s="17">
         <v>4</v>
       </c>
-      <c r="E42" s="15" t="n">
+      <c r="E42" s="15">
         <v>4</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="11" t="n">
+      <c r="F42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="11">
         <v>0</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="43">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="17" t="n">
+      <c r="D43" s="17">
         <v>4</v>
       </c>
-      <c r="E43" s="15" t="n">
+      <c r="E43" s="15">
         <v>4</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="11" t="n">
+      <c r="F43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="11">
         <v>0</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="44">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="17" t="n">
+      <c r="D44" s="17">
         <v>4</v>
       </c>
-      <c r="E44" s="15" t="n">
+      <c r="E44" s="15">
         <v>4</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="11" t="n">
+      <c r="F44" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="11">
         <v>0</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="45">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="22" t="n">
+      <c r="D45" s="22">
         <v>7</v>
       </c>
-      <c r="E45" s="23" t="n">
+      <c r="E45" s="23">
         <v>4</v>
       </c>
       <c r="F45" s="24"/>
-      <c r="G45" s="25" t="n">
+      <c r="G45" s="25">
         <v>0</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C13" activeCellId="0" pane="topLeft" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.719387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.719387755102"/>
+    <col min="1" max="1" width="10.6640625"/>
+    <col min="2" max="2" width="39.109375"/>
+    <col min="3" max="1025" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="1">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
       <c r="G1" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="5">
-      <c r="D5" s="0" t="s">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="27">
         <v>42542</v>
       </c>
-      <c r="F5" s="27" t="n">
+      <c r="F5" s="27">
         <v>42544</v>
       </c>
-      <c r="G5" s="27" t="n">
+      <c r="G5" s="27">
         <v>42546</v>
       </c>
-      <c r="H5" s="27" t="n">
+      <c r="H5" s="27">
         <v>42548</v>
       </c>
-      <c r="I5" s="27" t="n">
+      <c r="I5" s="27">
         <v>42550</v>
       </c>
-      <c r="J5" s="27" t="n">
+      <c r="J5" s="27">
         <v>42552</v>
       </c>
-      <c r="K5" s="27" t="n">
+      <c r="K5" s="27">
         <v>42554</v>
       </c>
-      <c r="L5" s="27" t="n">
+      <c r="L5" s="27">
         <v>42556</v>
       </c>
-      <c r="M5" s="27" t="n">
+      <c r="M5" s="27">
         <v>42558</v>
       </c>
-      <c r="N5" s="27" t="n">
+      <c r="N5" s="27">
         <v>42560</v>
       </c>
-      <c r="O5" s="27" t="n">
+      <c r="O5" s="27">
         <v>42562</v>
       </c>
-      <c r="P5" s="27" t="n">
+      <c r="P5" s="27">
         <v>42564</v>
       </c>
-      <c r="Q5" s="27" t="n">
+      <c r="Q5" s="27">
         <v>42566</v>
       </c>
-      <c r="R5" s="27" t="n">
+      <c r="R5" s="27">
         <v>42568</v>
       </c>
-      <c r="S5" s="27" t="n">
+      <c r="S5" s="27">
         <v>42570</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="6">
-      <c r="D6" s="0" t="s">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="28" t="n">
+      <c r="E6" s="28">
         <v>0</v>
       </c>
-      <c r="F6" s="28" t="n">
-        <f aca="false">E6+(I6/4)</f>
+      <c r="F6" s="28">
+        <f>E6+(I6/4)</f>
         <v>24.5</v>
       </c>
-      <c r="G6" s="28" t="n">
-        <f aca="false">F6+(I6/4)</f>
+      <c r="G6" s="28">
+        <f>F6+(I6/4)</f>
         <v>49</v>
       </c>
-      <c r="H6" s="28" t="n">
-        <f aca="false">G6+(I6/4)</f>
+      <c r="H6" s="28">
+        <f>G6+(I6/4)</f>
         <v>73.5</v>
       </c>
-      <c r="I6" s="28" t="n">
-        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
+      <c r="I6" s="28">
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
         <v>98</v>
       </c>
-      <c r="J6" s="28" t="n">
-        <f aca="false">I6+((L6-I6)/3)</f>
-        <v>125.333333333333</v>
-      </c>
-      <c r="K6" s="28" t="n">
-        <f aca="false">J6+((L6-I6)/3)</f>
-        <v>152.666666666667</v>
-      </c>
-      <c r="L6" s="28" t="n">
-        <f aca="false">Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
+      <c r="J6" s="28">
+        <f>I6+((L6-I6)/3)</f>
+        <v>125.33333333333333</v>
+      </c>
+      <c r="K6" s="28">
+        <f>J6+((L6-I6)/3)</f>
+        <v>152.66666666666666</v>
+      </c>
+      <c r="L6" s="28">
+        <f>Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
         <v>180</v>
       </c>
-      <c r="M6" s="28" t="n">
-        <f aca="false">L6+((P6-L6)/4)</f>
+      <c r="M6" s="28">
+        <f>L6+((P6-L6)/4)</f>
         <v>199.75</v>
       </c>
-      <c r="N6" s="28" t="n">
-        <f aca="false">M6+((P6-L6)/4)</f>
+      <c r="N6" s="28">
+        <f>M6+((P6-L6)/4)</f>
         <v>219.5</v>
       </c>
-      <c r="O6" s="28" t="n">
-        <f aca="false">N6+((P6-L6)/4)</f>
+      <c r="O6" s="28">
+        <f>N6+((P6-L6)/4)</f>
         <v>239.25</v>
       </c>
-      <c r="P6" s="28" t="n">
-        <f aca="false">Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
+      <c r="P6" s="28">
+        <f>Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
         <v>259</v>
       </c>
-      <c r="Q6" s="28" t="n">
-        <f aca="false">C30</f>
+      <c r="Q6" s="28">
+        <f>C30</f>
         <v>272</v>
       </c>
-      <c r="R6" s="28" t="n">
-        <f aca="false">C30</f>
+      <c r="R6" s="28">
+        <f>C30</f>
         <v>272</v>
       </c>
-      <c r="S6" s="28" t="n">
-        <f aca="false">C30</f>
+      <c r="S6" s="28">
+        <f>C30</f>
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="7">
-      <c r="D7" s="0" t="s">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="28" t="n">
+      <c r="E7" s="28">
         <v>0</v>
       </c>
-      <c r="F7" s="28" t="n">
+      <c r="F7" s="28">
         <v>15</v>
       </c>
-      <c r="G7" s="28" t="n">
+      <c r="G7" s="28">
         <v>24</v>
       </c>
-      <c r="H7" s="28" t="n">
+      <c r="H7" s="28">
         <v>41</v>
       </c>
-      <c r="I7" s="28" t="n">
+      <c r="I7" s="28">
         <v>52</v>
       </c>
-      <c r="J7" s="28" t="n">
+      <c r="J7" s="28">
         <v>73</v>
       </c>
-      <c r="K7" s="28" t="n">
+      <c r="K7" s="28">
         <v>97</v>
       </c>
-      <c r="L7" s="28"/>
+      <c r="L7" s="28">
+        <v>157</v>
+      </c>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
@@ -2553,53 +3288,48 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="8">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D8" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="30">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="30" t="n">
-        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
+      <c r="C30" s="30">
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="31">
-      <c r="B31" s="0" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <f aca="false">Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>148.7</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="32">
-      <c r="B32" s="0" t="s">
+      <c r="C31">
+        <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
+        <v>157.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="30" t="n">
-        <f aca="false">C30/((5*16)/7)</f>
+      <c r="C32" s="30">
+        <f>C30/((5*16)/7)</f>
         <v>23.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.4" outlineLevel="0" r="33">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="27" t="n">
-        <f aca="false">E5+C32</f>
+      <c r="C33" s="27">
+        <f>E5+C32</f>
         <v>42565.8</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7824" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
   <si>
     <t>Paket</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>Nicolas(+ Lucas)</t>
-  </si>
-  <si>
-    <t>Nicolas + Lucas +Jonas F</t>
   </si>
 </sst>
 </file>
@@ -841,46 +838,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.5</c:v>
+                  <c:v>25.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.5</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125.33333333333333</c:v>
+                  <c:v>128.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.66666666666666</c:v>
+                  <c:v>155.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>180</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>199.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>219.5</c:v>
+                  <c:v>216.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>239.25</c:v>
+                  <c:v>233.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>259</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>272</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>272</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>272</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,11 +1073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1520009232"/>
-        <c:axId val="1520007600"/>
+        <c:axId val="-902575344"/>
+        <c:axId val="-902585680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1520009232"/>
+        <c:axId val="-902575344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,14 +1120,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1520007600"/>
+        <c:crossAx val="-902585680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1520007600"/>
+        <c:axId val="-902585680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1178,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1520009232"/>
+        <c:crossAx val="-902575344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2105,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2432,7 +2429,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
@@ -2441,7 +2438,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="11">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H15" s="12">
         <v>42550</v>
@@ -2926,13 +2923,13 @@
         <v>59</v>
       </c>
       <c r="D37" s="17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E37" s="15">
         <v>3</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="G37" s="11">
         <v>0</v>
@@ -2948,13 +2945,13 @@
         <v>60</v>
       </c>
       <c r="D38" s="17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E38" s="15">
         <v>3</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -2976,7 +2973,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="G39" s="11">
         <v>0</v>
@@ -3107,7 +3104,9 @@
       <c r="E45" s="23">
         <v>4</v>
       </c>
-      <c r="F45" s="24"/>
+      <c r="F45" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="G45" s="25">
         <v>0</v>
       </c>
@@ -3124,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3197,31 +3196,31 @@
       </c>
       <c r="F6" s="28">
         <f>E6+(I6/4)</f>
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="G6" s="28">
         <f>F6+(I6/4)</f>
-        <v>49</v>
+        <v>50.5</v>
       </c>
       <c r="H6" s="28">
         <f>G6+(I6/4)</f>
-        <v>73.5</v>
+        <v>75.75</v>
       </c>
       <c r="I6" s="28">
         <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J6" s="28">
         <f>I6+((L6-I6)/3)</f>
-        <v>125.33333333333333</v>
+        <v>128.33333333333334</v>
       </c>
       <c r="K6" s="28">
         <f>J6+((L6-I6)/3)</f>
-        <v>152.66666666666666</v>
+        <v>155.66666666666669</v>
       </c>
       <c r="L6" s="28">
         <f>Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M6" s="28">
         <f>L6+((P6-L6)/4)</f>
@@ -3229,27 +3228,27 @@
       </c>
       <c r="N6" s="28">
         <f>M6+((P6-L6)/4)</f>
-        <v>219.5</v>
+        <v>216.5</v>
       </c>
       <c r="O6" s="28">
         <f>N6+((P6-L6)/4)</f>
-        <v>239.25</v>
+        <v>233.25</v>
       </c>
       <c r="P6" s="28">
         <f>Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="28">
         <f>C30</f>
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="R6" s="28">
         <f>C30</f>
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="S6" s="28">
         <f>C30</f>
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="4:19" x14ac:dyDescent="0.3">
@@ -3297,7 +3296,7 @@
       </c>
       <c r="C30" s="30">
         <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
@@ -3315,7 +3314,7 @@
       </c>
       <c r="C32" s="30">
         <f>C30/((5*16)/7)</f>
-        <v>23.8</v>
+        <v>23.012499999999999</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -3324,7 +3323,7 @@
       </c>
       <c r="C33" s="27">
         <f>E5+C32</f>
-        <v>42565.8</v>
+        <v>42565.012499999997</v>
       </c>
     </row>
   </sheetData>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7824" tabRatio="845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7830" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -1057,6 +1057,9 @@
                 <c:pt idx="7">
                   <c:v>157</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>157</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1073,11 +1076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-902575344"/>
-        <c:axId val="-902585680"/>
+        <c:axId val="1231565392"/>
+        <c:axId val="1231576272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-902575344"/>
+        <c:axId val="1231565392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,14 +1123,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-902585680"/>
+        <c:crossAx val="1231576272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-902585680"/>
+        <c:axId val="1231576272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1181,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-902575344"/>
+        <c:crossAx val="1231565392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2102,24 +2105,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625"/>
-    <col min="2" max="2" width="17.88671875"/>
-    <col min="3" max="3" width="39.109375"/>
-    <col min="4" max="4" width="11.44140625"/>
-    <col min="5" max="5" width="7.5546875"/>
-    <col min="6" max="6" width="24.88671875"/>
-    <col min="7" max="7" width="20.88671875"/>
-    <col min="8" max="9" width="24.6640625"/>
-    <col min="10" max="1025" width="10.6640625"/>
+    <col min="1" max="1" width="10.7109375"/>
+    <col min="2" max="2" width="17.85546875"/>
+    <col min="3" max="3" width="39.140625"/>
+    <col min="4" max="4" width="11.42578125"/>
+    <col min="5" max="5" width="7.5703125"/>
+    <col min="6" max="6" width="24.85546875"/>
+    <col min="7" max="7" width="20.85546875"/>
+    <col min="8" max="9" width="24.7109375"/>
+    <col min="10" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2143,7 +2146,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -2167,7 +2170,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2189,7 +2192,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2216,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2237,7 +2240,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -2261,7 +2264,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2278,12 +2281,12 @@
         <v>21</v>
       </c>
       <c r="G8" s="11">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
@@ -2307,7 +2310,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -2329,7 +2332,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -2351,7 +2354,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
@@ -2373,7 +2376,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
@@ -2397,7 +2400,7 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -2421,7 +2424,7 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
@@ -2445,7 +2448,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2462,12 +2465,12 @@
         <v>15</v>
       </c>
       <c r="G16" s="11">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2491,7 +2494,7 @@
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
@@ -2508,12 +2511,12 @@
         <v>12</v>
       </c>
       <c r="G18" s="11">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
@@ -2537,7 +2540,7 @@
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
@@ -2554,12 +2557,12 @@
         <v>15</v>
       </c>
       <c r="G20" s="11">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
@@ -2583,7 +2586,7 @@
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
@@ -2607,7 +2610,7 @@
       </c>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
@@ -2624,12 +2627,12 @@
         <v>12</v>
       </c>
       <c r="G23" s="11">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
@@ -2651,7 +2654,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
@@ -2673,7 +2676,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
@@ -2695,7 +2698,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
@@ -2717,7 +2720,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
@@ -2739,7 +2742,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
@@ -2761,7 +2764,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
@@ -2778,12 +2781,12 @@
         <v>50</v>
       </c>
       <c r="G30" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
@@ -2802,10 +2805,12 @@
       <c r="G31" s="11">
         <v>100</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="12">
+        <v>42556</v>
+      </c>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
@@ -2824,10 +2829,12 @@
       <c r="G32" s="11">
         <v>100</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="12">
+        <v>42554</v>
+      </c>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>54</v>
       </c>
@@ -2846,10 +2853,12 @@
       <c r="G33" s="11">
         <v>100</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="12">
+        <v>42556</v>
+      </c>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
@@ -2871,7 +2880,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
@@ -2893,7 +2902,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
@@ -2910,12 +2919,12 @@
         <v>12</v>
       </c>
       <c r="G36" s="11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
@@ -2932,12 +2941,12 @@
         <v>52</v>
       </c>
       <c r="G37" s="11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
@@ -2954,12 +2963,12 @@
         <v>52</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
@@ -2976,12 +2985,12 @@
         <v>52</v>
       </c>
       <c r="G39" s="11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
@@ -3003,7 +3012,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -3020,12 +3029,12 @@
         <v>12</v>
       </c>
       <c r="G41" s="11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
@@ -3042,12 +3051,12 @@
         <v>15</v>
       </c>
       <c r="G42" s="11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
@@ -3069,7 +3078,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>33</v>
       </c>
@@ -3091,7 +3100,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>67</v>
       </c>
@@ -3123,21 +3132,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625"/>
-    <col min="2" max="2" width="39.109375"/>
-    <col min="3" max="1025" width="10.6640625"/>
+    <col min="1" max="1" width="10.7109375"/>
+    <col min="2" max="2" width="39.140625"/>
+    <col min="3" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G1" s="27"/>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>68</v>
       </c>
@@ -3187,7 +3196,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>69</v>
       </c>
@@ -3251,7 +3260,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>70</v>
       </c>
@@ -3279,7 +3288,9 @@
       <c r="L7" s="28">
         <v>157</v>
       </c>
-      <c r="M7" s="28"/>
+      <c r="M7" s="28">
+        <v>157</v>
+      </c>
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
@@ -3287,10 +3298,10 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D8" s="29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>71</v>
       </c>
@@ -3299,16 +3310,16 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>72</v>
       </c>
       <c r="C31">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>157.25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+        <v>189.24999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>73</v>
       </c>
@@ -3317,7 +3328,7 @@
         <v>23.012499999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>74</v>
       </c>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -205,9 +205,6 @@
     <t>MethodengraphLayout/Register/Option</t>
   </si>
   <si>
-    <t>GraphView(Navigation und Zoom)</t>
-  </si>
-  <si>
     <t>Filter</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>Nicolas(+ Lucas)</t>
+  </si>
+  <si>
+    <t>GraphView(Navigation, Selection und Zoom)</t>
   </si>
 </sst>
 </file>
@@ -1076,11 +1076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1231565392"/>
-        <c:axId val="1231576272"/>
+        <c:axId val="-1096669136"/>
+        <c:axId val="-1096667504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1231565392"/>
+        <c:axId val="-1096669136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,14 +1123,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1231576272"/>
+        <c:crossAx val="-1096667504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1231576272"/>
+        <c:axId val="-1096667504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1181,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1231565392"/>
+        <c:crossAx val="-1096669136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2106,14 +2106,14 @@
   <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375"/>
     <col min="2" max="2" width="17.85546875"/>
-    <col min="3" max="3" width="39.140625"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125"/>
     <col min="5" max="5" width="7.5703125"/>
     <col min="6" max="6" width="24.85546875"/>
@@ -2734,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" s="11">
         <v>75</v>
@@ -2848,7 +2848,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" s="11">
         <v>100</v>
@@ -2973,7 +2973,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D39" s="17">
         <v>10</v>
@@ -2985,7 +2985,7 @@
         <v>52</v>
       </c>
       <c r="G39" s="11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
@@ -2995,7 +2995,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="17">
         <v>7</v>
@@ -3017,7 +3017,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="17">
         <v>4</v>
@@ -3039,7 +3039,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="17">
         <v>4</v>
@@ -3051,7 +3051,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="11">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
@@ -3061,7 +3061,7 @@
         <v>33</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="17">
         <v>4</v>
@@ -3073,7 +3073,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
@@ -3083,7 +3083,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="17">
         <v>4</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>14</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="27">
         <v>42542</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="28">
         <v>0</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="28">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="30">
         <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
@@ -3312,16 +3312,16 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>189.24999999999997</v>
+        <v>194.44999999999996</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="30">
         <f>C30/((5*16)/7)</f>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="27">
         <f>E5+C32</f>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -1060,6 +1060,9 @@
                 <c:pt idx="8">
                   <c:v>157</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>194</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1076,11 +1079,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1096669136"/>
-        <c:axId val="-1096667504"/>
+        <c:axId val="-1272692720"/>
+        <c:axId val="-1272687280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1096669136"/>
+        <c:axId val="-1272692720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,14 +1126,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1096667504"/>
+        <c:crossAx val="-1272687280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1096667504"/>
+        <c:axId val="-1272687280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1184,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1096669136"/>
+        <c:crossAx val="-1272692720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3133,7 +3136,7 @@
   <dimension ref="B1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3291,7 +3294,9 @@
       <c r="M7" s="28">
         <v>157</v>
       </c>
-      <c r="N7" s="28"/>
+      <c r="N7" s="28">
+        <v>194</v>
+      </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas_000\Documents\Studium\PSE - Visualisierung von Programmgraphen\PSEDokumente\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7830" tabRatio="845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7836" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
@@ -610,7 +610,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -649,7 +649,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -755,7 +754,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -883,6 +881,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-473E-44F8-AB2C-99D448F10D07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -954,7 +957,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1067,6 +1069,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-473E-44F8-AB2C-99D448F10D07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -1198,7 +1205,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1844,7 +1850,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1919,6 +1925,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1954,6 +1977,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2108,24 +2148,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375"/>
-    <col min="2" max="2" width="17.85546875"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125"/>
-    <col min="5" max="5" width="7.5703125"/>
-    <col min="6" max="6" width="24.85546875"/>
-    <col min="7" max="7" width="20.85546875"/>
-    <col min="8" max="9" width="24.7109375"/>
-    <col min="10" max="1025" width="10.7109375"/>
+    <col min="1" max="1" width="10.6640625"/>
+    <col min="2" max="2" width="17.88671875"/>
+    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625"/>
+    <col min="5" max="5" width="7.5546875"/>
+    <col min="6" max="6" width="24.88671875"/>
+    <col min="7" max="7" width="20.88671875"/>
+    <col min="8" max="9" width="24.6640625"/>
+    <col min="10" max="1025" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2189,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2213,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2195,7 +2235,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -2219,7 +2259,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2243,7 +2283,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -2267,7 +2307,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2289,7 +2329,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
@@ -2313,7 +2353,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -2330,12 +2370,12 @@
         <v>25</v>
       </c>
       <c r="G10" s="11">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -2357,7 +2397,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
@@ -2379,7 +2419,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
@@ -2403,7 +2443,7 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -2427,7 +2467,7 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
@@ -2451,7 +2491,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2473,7 +2513,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2497,7 +2537,7 @@
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
@@ -2519,7 +2559,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
@@ -2543,7 +2583,7 @@
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
@@ -2565,7 +2605,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
@@ -2589,7 +2629,7 @@
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
@@ -2613,7 +2653,7 @@
       </c>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
@@ -2635,7 +2675,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
@@ -2657,7 +2697,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
@@ -2679,7 +2719,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
@@ -2701,7 +2741,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
@@ -2723,7 +2763,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
@@ -2745,7 +2785,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
@@ -2767,7 +2807,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
@@ -2789,7 +2829,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
@@ -2813,7 +2853,7 @@
       </c>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
@@ -2837,7 +2877,7 @@
       </c>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>54</v>
       </c>
@@ -2861,7 +2901,7 @@
       </c>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
@@ -2883,7 +2923,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
@@ -2905,7 +2945,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
@@ -2927,7 +2967,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
@@ -2949,7 +2989,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
@@ -2971,7 +3011,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
@@ -2993,7 +3033,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
@@ -3015,7 +3055,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -3037,7 +3077,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
@@ -3059,7 +3099,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
@@ -3081,7 +3121,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>33</v>
       </c>
@@ -3103,7 +3143,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="20" t="s">
         <v>66</v>
       </c>
@@ -3120,7 +3160,7 @@
         <v>55</v>
       </c>
       <c r="G45" s="25">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="13"/>
@@ -3139,17 +3179,17 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375"/>
-    <col min="2" max="2" width="39.140625"/>
-    <col min="3" max="1025" width="10.7109375"/>
+    <col min="1" max="1" width="10.6640625"/>
+    <col min="2" max="2" width="39.109375"/>
+    <col min="3" max="1025" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
       <c r="G1" s="27"/>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>67</v>
       </c>
@@ -3199,7 +3239,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>68</v>
       </c>
@@ -3263,7 +3303,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>69</v>
       </c>
@@ -3303,10 +3343,10 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D8" s="29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>70</v>
       </c>
@@ -3315,16 +3355,16 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="C31">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>194.44999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+        <v>199.04999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>72</v>
       </c>
@@ -3333,7 +3373,7 @@
         <v>23.012499999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>73</v>
       </c>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Auswertung" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Daten" sheetId="1" r:id="rId1"/>
+    <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>Paket</t>
   </si>
@@ -92,15 +96,9 @@
     <t>Layout-Register schreiben</t>
   </si>
   <si>
-    <t>Jonas F ( + Nicolas)</t>
-  </si>
-  <si>
     <t>Serialized-Klassen</t>
   </si>
   <si>
-    <t>Jonas F (+ Sven)</t>
-  </si>
-  <si>
     <t>sugiyama</t>
   </si>
   <si>
@@ -252,60 +250,26 @@
   </si>
   <si>
     <t>Vorraussichtliches Fertigstellungsdatum:</t>
+  </si>
+  <si>
+    <t>Jonas F (+ Nicolas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY;@"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,285 +281,257 @@
     </fill>
   </fills>
   <borders count="17">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -654,15 +590,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -671,26 +625,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="de-DE" sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -700,33 +654,25 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Soll"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Soll</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Soll</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -736,77 +682,92 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.21.2016</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.23.2016</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25.2016</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.27.2016</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29.2016</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1.2016</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3.2016</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5.2016</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7.2016</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9.2016</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.11.2016</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.13.2016</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.15.2016</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.17.2016</c:v>
+                  <c:v>42568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.19.2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -824,10 +785,10 @@
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.333333333333</c:v>
+                  <c:v>128.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>155.666666666667</c:v>
+                  <c:v>155.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>183</c:v>
@@ -862,23 +823,12 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Ist"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ist</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Ist</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -888,77 +838,92 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Auswertung!$E$5:$S$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.21.2016</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.23.2016</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25.2016</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.27.2016</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29.2016</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1.2016</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3.2016</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5.2016</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7.2016</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9.2016</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.11.2016</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.13.2016</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.15.2016</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.17.2016</c:v>
+                  <c:v>42568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.19.2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Auswertung!$E$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -991,25 +956,21 @@
                   <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1018,54 +979,57 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="61097051"/>
-        <c:axId val="87104062"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1011098688"/>
+        <c:axId val="-1011089984"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="61097051"/>
+      <c:dateAx>
+        <c:axId val="-1011098688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87104062"/>
+        <c:crossAx val="-1011089984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="87104062"/>
+        <c:axId val="-1011089984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1039,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1092,24 +1056,27 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61097051"/>
+        <c:crossAx val="-1011098688"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1120,6 +1087,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1130,23 +1098,29 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1160,14 +1134,14 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm 2"/>
+        <xdr:cNvPr id="2" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4987440" y="1454040"/>
-        <a:ext cx="11143800" cy="4564080"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1180,31 +1154,289 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.530612244898"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="17.5703125"/>
+    <col min="3" max="3" width="40.5703125"/>
+    <col min="4" max="4" width="11.140625"/>
+    <col min="5" max="5" width="7.42578125"/>
+    <col min="6" max="6" width="24.5703125"/>
+    <col min="7" max="7" width="20.5703125"/>
+    <col min="8" max="9" width="24.42578125"/>
+    <col min="10" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,38 +1460,38 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="11">
         <v>100</v>
       </c>
-      <c r="H3" s="12" t="n">
+      <c r="H3" s="12">
         <v>42544</v>
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="14">
         <v>6</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -1268,324 +1500,326 @@
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="11">
         <v>75</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="17">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>100</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="12">
         <v>42544</v>
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="17">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="11">
         <v>100</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="12">
         <v>42544</v>
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="11">
         <v>100</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="12">
         <v>42550</v>
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="17">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="11">
         <v>95</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="17">
         <v>4</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="G9" s="11">
         <v>100</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="12">
         <v>42550</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="11">
+        <v>100</v>
+      </c>
+      <c r="H10" s="12">
+        <v>42562</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="15" t="n">
+      <c r="C11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="17">
+        <v>9</v>
+      </c>
+      <c r="E11" s="15">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="11" t="n">
-        <v>90</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="11">
         <v>85</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="17">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="G12" s="11">
+        <v>100</v>
+      </c>
+      <c r="H12" s="12">
+        <v>42556</v>
+      </c>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="17">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="11">
+        <v>100</v>
+      </c>
+      <c r="H13" s="12">
+        <v>42555</v>
+      </c>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" s="15" t="n">
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
         <v>1</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="11" t="n">
+      <c r="F14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="11">
         <v>100</v>
       </c>
-      <c r="H12" s="12" t="n">
-        <v>42556</v>
-      </c>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
+      <c r="H14" s="12">
+        <v>42555</v>
+      </c>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="17">
+        <v>10</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="11" t="n">
+      <c r="G15" s="11">
         <v>100</v>
       </c>
-      <c r="H13" s="12" t="n">
-        <v>42555</v>
-      </c>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="H15" s="12">
+        <v>42550</v>
+      </c>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H14" s="12" t="n">
-        <v>42555</v>
-      </c>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H15" s="12" t="n">
-        <v>42550</v>
-      </c>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="17">
         <v>5</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="11">
         <v>90</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="17" t="n">
+      <c r="D17" s="17">
         <v>6</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E17" s="18">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="11">
         <v>100</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="12">
         <v>42544</v>
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="17">
         <v>11</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -1594,44 +1828,44 @@
       <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="11">
         <v>70</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17" t="n">
+      <c r="D19" s="17">
         <v>3</v>
       </c>
-      <c r="E19" s="15" t="n">
+      <c r="E19" s="15">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="11">
         <v>100</v>
       </c>
-      <c r="H19" s="12" t="n">
+      <c r="H19" s="12">
         <v>42552</v>
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="17" t="n">
+        <v>36</v>
+      </c>
+      <c r="D20" s="17">
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -1640,805 +1874,798 @@
       <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="11" t="n">
-        <v>75</v>
+      <c r="G20" s="11">
+        <v>80</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="17">
+        <v>10</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="G21" s="11">
+        <v>100</v>
+      </c>
+      <c r="H21" s="12">
+        <v>42555</v>
+      </c>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="17">
+        <v>10</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="11">
+        <v>100</v>
+      </c>
+      <c r="H22" s="12">
+        <v>42555</v>
+      </c>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E21" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H21" s="12" t="n">
-        <v>42555</v>
-      </c>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H22" s="12" t="n">
-        <v>42555</v>
-      </c>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="17" t="n">
+      <c r="D23" s="17">
         <v>5</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E23" s="15">
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="11">
         <v>100</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="17" t="n">
+      <c r="D24" s="17">
         <v>5</v>
       </c>
-      <c r="E24" s="15" t="n">
+      <c r="E24" s="15">
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="11">
         <v>70</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="17" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" s="17">
         <v>3</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="15">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="11">
         <v>70</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="17" t="n">
+        <v>43</v>
+      </c>
+      <c r="D26" s="17">
         <v>4</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E26" s="15">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="11">
         <v>100</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="12">
+        <v>42559</v>
+      </c>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="17" t="n">
+        <v>44</v>
+      </c>
+      <c r="D27" s="17">
         <v>4</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E27" s="15">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="11">
         <v>100</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="12">
+        <v>42559</v>
+      </c>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="17" t="n">
+        <v>45</v>
+      </c>
+      <c r="D28" s="17">
         <v>5</v>
       </c>
-      <c r="E28" s="15" t="n">
+      <c r="E28" s="15">
         <v>2</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="G28" s="11">
         <v>75</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="17" t="n">
+        <v>47</v>
+      </c>
+      <c r="D29" s="17">
         <v>2</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E29" s="15">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="11" t="n">
-        <v>80</v>
+      <c r="G29" s="11">
+        <v>90</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="17" t="n">
+        <v>48</v>
+      </c>
+      <c r="D30" s="17">
         <v>12</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="15">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="11" t="n">
+        <v>49</v>
+      </c>
+      <c r="G30" s="11">
         <v>100</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="17">
+        <v>5</v>
+      </c>
+      <c r="E31" s="15">
+        <v>2</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="11">
+        <v>100</v>
+      </c>
+      <c r="H31" s="12">
+        <v>42556</v>
+      </c>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H31" s="12" t="n">
-        <v>42556</v>
-      </c>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="17" t="n">
+      <c r="D32" s="17">
         <v>6</v>
       </c>
-      <c r="E32" s="15" t="n">
+      <c r="E32" s="15">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="11">
         <v>100</v>
       </c>
-      <c r="H32" s="12" t="n">
+      <c r="H32" s="12">
         <v>42554</v>
       </c>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="17" t="n">
+      <c r="D33" s="17">
         <v>11</v>
       </c>
-      <c r="E33" s="15" t="n">
+      <c r="E33" s="15">
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="11" t="n">
+        <v>54</v>
+      </c>
+      <c r="G33" s="11">
         <v>100</v>
       </c>
-      <c r="H33" s="12" t="n">
+      <c r="H33" s="12">
         <v>42556</v>
       </c>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="17">
+        <v>10</v>
+      </c>
+      <c r="E34" s="15">
+        <v>3</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E34" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="11" t="n">
+      <c r="G34" s="11">
         <v>50</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="17">
+        <v>10</v>
+      </c>
+      <c r="E35" s="15">
+        <v>3</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E35" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="11">
         <v>10</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="17" t="n">
+        <v>57</v>
+      </c>
+      <c r="D36" s="17">
         <v>6</v>
       </c>
-      <c r="E36" s="15" t="n">
+      <c r="E36" s="15">
         <v>3</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="11">
         <v>75</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="17" t="n">
+        <v>58</v>
+      </c>
+      <c r="D37" s="17">
         <v>7</v>
       </c>
-      <c r="E37" s="15" t="n">
+      <c r="E37" s="15">
         <v>3</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="11" t="n">
-        <v>75</v>
+        <v>51</v>
+      </c>
+      <c r="G37" s="11">
+        <v>80</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="17" t="n">
+        <v>59</v>
+      </c>
+      <c r="D38" s="17">
         <v>7</v>
       </c>
-      <c r="E38" s="15" t="n">
+      <c r="E38" s="15">
         <v>3</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="11" t="n">
-        <v>30</v>
+        <v>51</v>
+      </c>
+      <c r="G38" s="11">
+        <v>40</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="17" t="n">
+        <v>60</v>
+      </c>
+      <c r="D39" s="17">
         <v>10</v>
       </c>
-      <c r="E39" s="15" t="n">
+      <c r="E39" s="15">
         <v>3</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="11" t="n">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="G39" s="11">
+        <v>90</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="17" t="n">
+        <v>61</v>
+      </c>
+      <c r="D40" s="17">
         <v>7</v>
       </c>
-      <c r="E40" s="15" t="n">
+      <c r="E40" s="15">
         <v>3</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="11" t="n">
+      <c r="G40" s="11">
         <v>0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="17" t="n">
+        <v>62</v>
+      </c>
+      <c r="D41" s="17">
         <v>4</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="E41" s="15">
         <v>3</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="11" t="n">
+      <c r="G41" s="11">
         <v>100</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="17" t="n">
+        <v>63</v>
+      </c>
+      <c r="D42" s="17">
         <v>4</v>
       </c>
-      <c r="E42" s="15" t="n">
+      <c r="E42" s="15">
         <v>4</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="11" t="n">
-        <v>80</v>
+      <c r="G42" s="11">
+        <v>90</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="D43" s="17">
         <v>4</v>
       </c>
-      <c r="E43" s="15" t="n">
+      <c r="E43" s="15">
         <v>4</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="11" t="n">
-        <v>50</v>
+      <c r="G43" s="11">
+        <v>70</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="17" t="n">
+        <v>65</v>
+      </c>
+      <c r="D44" s="17">
         <v>4</v>
       </c>
-      <c r="E44" s="15" t="n">
+      <c r="E44" s="15">
         <v>4</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="11" t="n">
+        <v>66</v>
+      </c>
+      <c r="G44" s="11">
         <v>0</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="22" t="n">
+      <c r="D45" s="22">
         <v>7</v>
       </c>
-      <c r="E45" s="23" t="n">
+      <c r="E45" s="23">
         <v>4</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="25" t="n">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="G45" s="25">
+        <v>70</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.530612244898"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="38.5703125"/>
+    <col min="3" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G1" s="27"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="s">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="27">
+        <v>42542</v>
+      </c>
+      <c r="F5" s="27">
+        <v>42544</v>
+      </c>
+      <c r="G5" s="27">
+        <v>42546</v>
+      </c>
+      <c r="H5" s="27">
+        <v>42548</v>
+      </c>
+      <c r="I5" s="27">
+        <v>42550</v>
+      </c>
+      <c r="J5" s="27">
+        <v>42552</v>
+      </c>
+      <c r="K5" s="27">
+        <v>42554</v>
+      </c>
+      <c r="L5" s="27">
+        <v>42556</v>
+      </c>
+      <c r="M5" s="27">
+        <v>42558</v>
+      </c>
+      <c r="N5" s="27">
+        <v>42560</v>
+      </c>
+      <c r="O5" s="27">
+        <v>42562</v>
+      </c>
+      <c r="P5" s="27">
+        <v>42564</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>42566</v>
+      </c>
+      <c r="R5" s="27">
+        <v>42568</v>
+      </c>
+      <c r="S5" s="27">
+        <v>42570</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <f>E6+(I6/4)</f>
+        <v>25.25</v>
+      </c>
+      <c r="G6" s="28">
+        <f>F6+(I6/4)</f>
+        <v>50.5</v>
+      </c>
+      <c r="H6" s="28">
+        <f>G6+(I6/4)</f>
+        <v>75.75</v>
+      </c>
+      <c r="I6" s="28">
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
+        <v>101</v>
+      </c>
+      <c r="J6" s="28">
+        <f>I6+((L6-I6)/3)</f>
+        <v>128.33333333333334</v>
+      </c>
+      <c r="K6" s="28">
+        <f>J6+((L6-I6)/3)</f>
+        <v>155.66666666666669</v>
+      </c>
+      <c r="L6" s="28">
+        <f>Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
+        <v>183</v>
+      </c>
+      <c r="M6" s="28">
+        <f>L6+((P6-L6)/4)</f>
+        <v>199.75</v>
+      </c>
+      <c r="N6" s="28">
+        <f>M6+((P6-L6)/4)</f>
+        <v>216.5</v>
+      </c>
+      <c r="O6" s="28">
+        <f>N6+((P6-L6)/4)</f>
+        <v>233.25</v>
+      </c>
+      <c r="P6" s="28">
+        <f>Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
+        <v>250</v>
+      </c>
+      <c r="Q6" s="28">
+        <f>C30</f>
+        <v>263</v>
+      </c>
+      <c r="R6" s="28">
+        <f>C30</f>
+        <v>263</v>
+      </c>
+      <c r="S6" s="28">
+        <f>C30</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="27" t="n">
-        <v>42542</v>
-      </c>
-      <c r="F5" s="27" t="n">
-        <v>42544</v>
-      </c>
-      <c r="G5" s="27" t="n">
-        <v>42546</v>
-      </c>
-      <c r="H5" s="27" t="n">
-        <v>42548</v>
-      </c>
-      <c r="I5" s="27" t="n">
-        <v>42550</v>
-      </c>
-      <c r="J5" s="27" t="n">
-        <v>42552</v>
-      </c>
-      <c r="K5" s="27" t="n">
-        <v>42554</v>
-      </c>
-      <c r="L5" s="27" t="n">
-        <v>42556</v>
-      </c>
-      <c r="M5" s="27" t="n">
-        <v>42558</v>
-      </c>
-      <c r="N5" s="27" t="n">
-        <v>42560</v>
-      </c>
-      <c r="O5" s="27" t="n">
-        <v>42562</v>
-      </c>
-      <c r="P5" s="27" t="n">
-        <v>42564</v>
-      </c>
-      <c r="Q5" s="27" t="n">
-        <v>42566</v>
-      </c>
-      <c r="R5" s="27" t="n">
-        <v>42568</v>
-      </c>
-      <c r="S5" s="27" t="n">
-        <v>42570</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="28" t="n">
+      <c r="E7" s="28">
         <v>0</v>
       </c>
-      <c r="F6" s="28" t="n">
-        <f aca="false">E6+(I6/4)</f>
-        <v>25.25</v>
-      </c>
-      <c r="G6" s="28" t="n">
-        <f aca="false">F6+(I6/4)</f>
-        <v>50.5</v>
-      </c>
-      <c r="H6" s="28" t="n">
-        <f aca="false">G6+(I6/4)</f>
-        <v>75.75</v>
-      </c>
-      <c r="I6" s="28" t="n">
-        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D17+Daten!D18+Daten!D19+Daten!D20</f>
-        <v>101</v>
-      </c>
-      <c r="J6" s="28" t="n">
-        <f aca="false">I6+((L6-I6)/3)</f>
-        <v>128.333333333333</v>
-      </c>
-      <c r="K6" s="28" t="n">
-        <f aca="false">J6+((L6-I6)/3)</f>
-        <v>155.666666666667</v>
-      </c>
-      <c r="L6" s="28" t="n">
-        <f aca="false">Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+I6</f>
-        <v>183</v>
-      </c>
-      <c r="M6" s="28" t="n">
-        <f aca="false">L6+((P6-L6)/4)</f>
-        <v>199.75</v>
-      </c>
-      <c r="N6" s="28" t="n">
-        <f aca="false">M6+((P6-L6)/4)</f>
-        <v>216.5</v>
-      </c>
-      <c r="O6" s="28" t="n">
-        <f aca="false">N6+((P6-L6)/4)</f>
-        <v>233.25</v>
-      </c>
-      <c r="P6" s="28" t="n">
-        <f aca="false">Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+L6</f>
-        <v>250</v>
-      </c>
-      <c r="Q6" s="28" t="n">
-        <f aca="false">C30</f>
-        <v>263</v>
-      </c>
-      <c r="R6" s="28" t="n">
-        <f aca="false">C30</f>
-        <v>263</v>
-      </c>
-      <c r="S6" s="28" t="n">
-        <f aca="false">C30</f>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="28" t="n">
+      <c r="F7" s="28">
         <v>15</v>
       </c>
-      <c r="G7" s="28" t="n">
+      <c r="G7" s="28">
         <v>24</v>
       </c>
-      <c r="H7" s="28" t="n">
+      <c r="H7" s="28">
         <v>41</v>
       </c>
-      <c r="I7" s="28" t="n">
+      <c r="I7" s="28">
         <v>52</v>
       </c>
-      <c r="J7" s="28" t="n">
+      <c r="J7" s="28">
         <v>73</v>
       </c>
-      <c r="K7" s="28" t="n">
+      <c r="K7" s="28">
         <v>97</v>
       </c>
-      <c r="L7" s="28" t="n">
+      <c r="L7" s="28">
         <v>157</v>
       </c>
-      <c r="M7" s="28" t="n">
+      <c r="M7" s="28">
         <v>157</v>
       </c>
-      <c r="N7" s="28" t="n">
+      <c r="N7" s="28">
         <v>194</v>
       </c>
-      <c r="O7" s="28"/>
+      <c r="O7" s="28">
+        <v>213</v>
+      </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D8" s="29"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="30">
+        <f>Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31">
+        <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
+        <v>213.10000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="30" t="n">
-        <f aca="false">Daten!D3+Daten!D4+Daten!D5+Daten!D6+Daten!D7+Daten!D8+Daten!D9+Daten!D10+Daten!D11+Daten!D12+Daten!D13+Daten!D14+Daten!D15+Daten!D16+Daten!D18+Daten!D19+Daten!D20+Daten!D21+Daten!D22+Daten!D23+Daten!D24+Daten!D25+Daten!D26+Daten!D27+Daten!D28+Daten!D29+Daten!D30+Daten!D31+Daten!D32+Daten!D33+Daten!D34+Daten!D35+Daten!D36+Daten!D37+Daten!D38+Daten!D39+Daten!D17+Daten!D40+Daten!D41+Daten!D42+Daten!D43+Daten!D44+Daten!D45</f>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+      <c r="C32" s="30">
+        <f>C30/((5*16)/7)</f>
+        <v>23.012499999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <f aca="false">Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>205.2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="30" t="n">
-        <f aca="false">C30/((5*16)/7)</f>
-        <v>23.0125</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="27" t="n">
-        <f aca="false">E5+C32</f>
-        <v>42565.0125</v>
+      <c r="C33" s="27">
+        <f>E5+C32</f>
+        <v>42565.012499999997</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas_000\Documents\Studium\PSE - Visualisierung von Programmgraphen\PSEDokumente\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -654,7 +654,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -704,7 +703,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -818,6 +816,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-230F-4BB6-967E-488E54AC6140}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -860,7 +863,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -962,6 +964,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-230F-4BB6-967E-488E54AC6140}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1087,7 +1094,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1155,7 +1161,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1230,6 +1236,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1265,6 +1288,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1420,23 +1460,23 @@
   <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="17.5703125"/>
-    <col min="3" max="3" width="40.5703125"/>
-    <col min="4" max="4" width="11.140625"/>
-    <col min="5" max="5" width="7.42578125"/>
-    <col min="6" max="6" width="24.5703125"/>
-    <col min="7" max="7" width="20.5703125"/>
-    <col min="8" max="9" width="24.42578125"/>
-    <col min="10" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="10.5546875"/>
+    <col min="2" max="2" width="17.5546875"/>
+    <col min="3" max="3" width="40.5546875"/>
+    <col min="4" max="4" width="11.109375"/>
+    <col min="5" max="5" width="7.44140625"/>
+    <col min="6" max="6" width="24.5546875"/>
+    <col min="7" max="7" width="20.5546875"/>
+    <col min="8" max="9" width="24.44140625"/>
+    <col min="10" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1500,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1524,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1546,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1530,7 +1570,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1554,7 +1594,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1618,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1600,7 +1640,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1624,7 +1664,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1648,7 +1688,7 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1670,7 +1710,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
@@ -1694,7 +1734,7 @@
       </c>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1758,7 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1742,7 +1782,7 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
@@ -1766,7 +1806,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1788,7 +1828,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
@@ -1812,7 +1852,7 @@
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1834,7 +1874,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
@@ -1858,7 +1898,7 @@
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
@@ -1880,7 +1920,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
@@ -1904,7 +1944,7 @@
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
@@ -1928,7 +1968,7 @@
       </c>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
@@ -1950,7 +1990,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>39</v>
       </c>
@@ -1967,12 +2007,12 @@
         <v>12</v>
       </c>
       <c r="G24" s="11">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
@@ -1989,12 +2029,12 @@
         <v>12</v>
       </c>
       <c r="G25" s="11">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>39</v>
       </c>
@@ -2018,7 +2058,7 @@
       </c>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>39</v>
       </c>
@@ -2042,7 +2082,7 @@
       </c>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
@@ -2064,7 +2104,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
@@ -2086,7 +2126,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>39</v>
       </c>
@@ -2108,7 +2148,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
@@ -2132,7 +2172,7 @@
       </c>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
@@ -2156,7 +2196,7 @@
       </c>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>53</v>
       </c>
@@ -2180,7 +2220,7 @@
       </c>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>24</v>
       </c>
@@ -2202,7 +2242,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>24</v>
       </c>
@@ -2224,7 +2264,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>39</v>
       </c>
@@ -2246,7 +2286,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>39</v>
       </c>
@@ -2268,7 +2308,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
@@ -2290,7 +2330,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>31</v>
       </c>
@@ -2312,7 +2352,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>34</v>
       </c>
@@ -2334,7 +2374,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>34</v>
       </c>
@@ -2356,7 +2396,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>31</v>
       </c>
@@ -2378,7 +2418,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>31</v>
       </c>
@@ -2400,7 +2440,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>31</v>
       </c>
@@ -2422,7 +2462,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="20" t="s">
         <v>67</v>
       </c>
@@ -2439,9 +2479,11 @@
         <v>66</v>
       </c>
       <c r="G45" s="25">
-        <v>70</v>
-      </c>
-      <c r="H45" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="H45" s="26">
+        <v>42564</v>
+      </c>
       <c r="I45" s="13"/>
     </row>
   </sheetData>
@@ -2458,17 +2500,17 @@
       <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="38.5703125"/>
-    <col min="3" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="10.5546875"/>
+    <col min="2" max="2" width="38.5546875"/>
+    <col min="3" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
       <c r="G1" s="27"/>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>68</v>
       </c>
@@ -2518,7 +2560,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>69</v>
       </c>
@@ -2582,7 +2624,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>70</v>
       </c>
@@ -2624,10 +2666,10 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D8" s="29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>71</v>
       </c>
@@ -2636,16 +2678,16 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>72</v>
       </c>
       <c r="C31">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>213.10000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+        <v>216.3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>73</v>
       </c>
@@ -2654,7 +2696,7 @@
         <v>23.012499999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>74</v>
       </c>

--- a/implementation/GAns_Projektfortschritt.xlsx
+++ b/implementation/GAns_Projektfortschritt.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas_000\Documents\Studium\PSE - Visualisierung von Programmgraphen\PSEDokumente\implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\PSEDokumente\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Auswertung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -654,6 +654,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -701,8 +702,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -816,7 +818,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-230F-4BB6-967E-488E54AC6140}"/>
             </c:ext>
@@ -861,8 +863,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -960,11 +963,14 @@
                 <c:pt idx="10">
                   <c:v>213</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>223</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-230F-4BB6-967E-488E54AC6140}"/>
             </c:ext>
@@ -987,11 +993,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1011098688"/>
-        <c:axId val="-1011089984"/>
+        <c:axId val="1605957744"/>
+        <c:axId val="1605965904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1011098688"/>
+        <c:axId val="1605957744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,14 +1035,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1011089984"/>
+        <c:crossAx val="1605965904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1011089984"/>
+        <c:axId val="1605965904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1087,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1011098688"/>
+        <c:crossAx val="1605957744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1094,6 +1100,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1161,7 +1168,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1236,23 +1243,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1288,23 +1278,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1460,23 +1433,23 @@
   <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875"/>
-    <col min="2" max="2" width="17.5546875"/>
-    <col min="3" max="3" width="40.5546875"/>
-    <col min="4" max="4" width="11.109375"/>
-    <col min="5" max="5" width="7.44140625"/>
-    <col min="6" max="6" width="24.5546875"/>
-    <col min="7" max="7" width="20.5546875"/>
-    <col min="8" max="9" width="24.44140625"/>
-    <col min="10" max="1025" width="10.5546875"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="17.5703125"/>
+    <col min="3" max="3" width="40.5703125"/>
+    <col min="4" max="4" width="11.140625"/>
+    <col min="5" max="5" width="7.42578125"/>
+    <col min="6" max="6" width="24.5703125"/>
+    <col min="7" max="7" width="20.5703125"/>
+    <col min="8" max="9" width="24.42578125"/>
+    <col min="10" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1473,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1524,7 +1497,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1546,7 +1519,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1570,7 +1543,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1594,7 +1567,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1618,7 +1591,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +1613,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1664,7 +1637,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1688,7 +1661,7 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1710,7 +1683,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
@@ -1734,7 +1707,7 @@
       </c>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -1758,7 +1731,7 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1782,7 +1755,7 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
@@ -1806,7 +1779,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1828,7 +1801,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
@@ -1852,7 +1825,7 @@
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1874,7 +1847,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
@@ -1898,7 +1871,7 @@
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
@@ -1915,12 +1888,12 @@
         <v>15</v>
       </c>
       <c r="G20" s="11">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +1917,7 @@
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
@@ -1968,7 +1941,7 @@
       </c>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
@@ -1990,7 +1963,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>39</v>
       </c>
@@ -2012,7 +1985,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
@@ -2034,7 +2007,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>39</v>
       </c>
@@ -2058,7 +2031,7 @@
       </c>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>39</v>
       </c>
@@ -2082,7 +2055,7 @@
       </c>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
@@ -2099,12 +2072,12 @@
         <v>46</v>
       </c>
       <c r="G28" s="11">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
@@ -2121,12 +2094,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="11">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>39</v>
       </c>
@@ -2148,7 +2121,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
@@ -2172,7 +2145,7 @@
       </c>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
@@ -2196,7 +2169,7 @@
       </c>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>53</v>
       </c>
@@ -2220,7 +2193,7 @@
       </c>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>24</v>
       </c>
@@ -2242,7 +2215,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>24</v>
       </c>
@@ -2264,7 +2237,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>39</v>
       </c>
@@ -2286,7 +2259,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>39</v>
       </c>
@@ -2303,12 +2276,12 @@
         <v>51</v>
       </c>
       <c r="G37" s="11">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
@@ -2325,12 +2298,12 @@
         <v>51</v>
       </c>
       <c r="G38" s="11">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>31</v>
       </c>
@@ -2352,7 +2325,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>34</v>
       </c>
@@ -2374,7 +2347,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>34</v>
       </c>
@@ -2396,7 +2369,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>31</v>
       </c>
@@ -2413,12 +2386,12 @@
         <v>15</v>
       </c>
       <c r="G42" s="11">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>31</v>
       </c>
@@ -2440,7 +2413,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>31</v>
       </c>
@@ -2462,7 +2435,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>67</v>
       </c>
@@ -2497,20 +2470,20 @@
   <dimension ref="B1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875"/>
-    <col min="2" max="2" width="38.5546875"/>
-    <col min="3" max="1025" width="10.5546875"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="38.5703125"/>
+    <col min="3" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G1" s="27"/>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>68</v>
       </c>
@@ -2560,7 +2533,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>69</v>
       </c>
@@ -2624,7 +2597,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>70</v>
       </c>
@@ -2661,15 +2634,17 @@
       <c r="O7" s="28">
         <v>213</v>
       </c>
-      <c r="P7" s="28"/>
+      <c r="P7" s="28">
+        <v>223</v>
+      </c>
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D8" s="29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>71</v>
       </c>
@@ -2678,16 +2653,16 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>72</v>
       </c>
       <c r="C31">
         <f>Daten!D3*(Daten!G3/100)+Daten!D4*(Daten!G4/100)+Daten!D5*(Daten!G5/100)+Daten!D6*(Daten!G6/100)+Daten!D7*(Daten!G7/100)+Daten!D8*(Daten!G8/100)+Daten!D9*(Daten!G9/100)+Daten!D10*(Daten!G10/100)+Daten!D11*(Daten!G11/100)+Daten!D12*(Daten!G12/100)+Daten!D13*(Daten!G13/100)+Daten!D14*(Daten!G14/100)+Daten!D15*(Daten!G15/100)+Daten!D16*(Daten!G16/100)+Daten!D18*(Daten!G18/100)+Daten!D19*(Daten!G19/100)+Daten!D20*(Daten!G20/100)+Daten!D21*(Daten!G21/100)+Daten!D22*(Daten!G22/100)+Daten!D23*(Daten!G23/100)+Daten!D24*(Daten!G24/100)+Daten!D25*(Daten!G25/100)+Daten!D26*(Daten!G26/100)+Daten!D27*(Daten!G27/100)+Daten!D28*(Daten!G28/100)+Daten!D29*(Daten!G29/100)+Daten!D30*(Daten!G30/100)+Daten!D31*(Daten!G31/100)+Daten!D32*(Daten!G32/100)+Daten!D33*(Daten!G33/100)+Daten!D34*(Daten!G34/100)+Daten!D35*(Daten!G35/100)+Daten!D36*(Daten!G36/100)+Daten!D37*(Daten!G37/100)+Daten!D38*(Daten!G38/100)+Daten!D39*(Daten!G39/100)+Daten!D17*(Daten!G17/100)+Daten!D40*(Daten!G40/100)+Daten!D41*(Daten!G41/100)+Daten!D42*(Daten!G42/100)+Daten!D43*(Daten!G43/100)+Daten!D44*(Daten!G44/100)+Daten!D45*(Daten!G45/100)</f>
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+        <v>222.75000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>73</v>
       </c>
@@ -2696,7 +2671,7 @@
         <v>23.012499999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>74</v>
       </c>
